--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\mcti\Bert_meta_learning_papers\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A18A9-86F8-4501-8F95-656C2D981C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B914B5FF-5D92-449C-B293-F12EA9D7B538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-2775" windowWidth="16200" windowHeight="14175" tabRatio="598" firstSheet="1" activeTab="3" xr2:uid="{30A5EA36-F24E-479D-B263-18F3D6B30C0B}"/>
+    <workbookView xWindow="-16320" yWindow="-2895" windowWidth="16440" windowHeight="28590" tabRatio="598" firstSheet="1" activeTab="2" xr2:uid="{30A5EA36-F24E-479D-B263-18F3D6B30C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="50pos_50neg_train_valid_results" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
-    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -265,8 +265,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -305,22 +305,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -329,6 +320,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3062,7 +3062,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DE14BF4-064A-4731-9308-1DE170001FD4}" name="Tabela dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DE14BF4-064A-4731-9308-1DE170001FD4}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -3236,7 +3236,7 @@
     <dataField name="DesvPadp de treshould@95" fld="10" subtotal="stdDevp" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3262,7 +3262,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FBDFB60-5309-429C-AC07-810AFB1AC7CC}" name="Tabela dinâmica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FBDFB60-5309-429C-AC07-810AFB1AC7CC}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -3541,14 +3541,14 @@
     <tableColumn id="4" xr3:uid="{E6076950-1618-4496-8800-8036AE879A53}" uniqueName="4" name="wss@95_new" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{AE014979-C619-419D-A965-0B1EFF916602}" uniqueName="5" name="wss@R_old" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{89D29F80-A39E-4453-8489-8A49C3568139}" uniqueName="6" name="wss@R_new" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{3160D2E6-5060-44D7-8AF6-F70112006D1B}" uniqueName="7" name="Recall_wss@95" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{42D915B3-9192-4637-AA5F-ABE784E4EA0E}" uniqueName="8" name="Recall_wss@R" queryTableFieldId="8" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{1B03C0E4-BB89-44AA-97A2-4A05C1E671B3}" uniqueName="9" name="acc@95" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3160D2E6-5060-44D7-8AF6-F70112006D1B}" uniqueName="7" name="Recall_wss@95" queryTableFieldId="7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{42D915B3-9192-4637-AA5F-ABE784E4EA0E}" uniqueName="8" name="Recall_wss@R" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1B03C0E4-BB89-44AA-97A2-4A05C1E671B3}" uniqueName="9" name="acc@95" queryTableFieldId="9" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{91D0CE9B-5E05-44A5-A08F-C4D4ECD91B61}" uniqueName="10" name="acc@R" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{EE5F3D9C-E429-4BD3-BCDE-A110FF0DED6C}" uniqueName="11" name="f1@95" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{B23E1471-7DE1-40AB-9592-956ED7DFD9A6}" uniqueName="12" name="f1@R" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{E74CF2AA-4082-4711-AEE8-5E1B26E0EB19}" uniqueName="13" name="treshould@95" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{0853A30B-F79A-4127-B8F4-6E794F0E0164}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{0853A30B-F79A-4127-B8F4-6E794F0E0164}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{CFA6DA64-D72B-4D14-AD7A-DCB30ED6EC07}" uniqueName="15" name="layer_size" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{A67C9A5F-3354-4FAE-AD77-51AB2A2F65AB}" uniqueName="16" name="attempt" queryTableFieldId="16"/>
   </tableColumns>
@@ -3571,7 +3571,7 @@
     <tableColumn id="11" xr3:uid="{1A90947F-30AB-4D56-B56E-379D20CE7553}" uniqueName="11" name="f1@95" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{7254EC49-3C05-4B67-ABB6-C63F76263AEE}" uniqueName="12" name="f1@R" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{D2D3D90C-1C30-40D5-8E48-E1E4968C7F86}" uniqueName="13" name="treshould@95" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{9B28D623-8553-4115-B2CA-59F597DFB4D3}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{9B28D623-8553-4115-B2CA-59F597DFB4D3}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{602A1FCC-91FD-406B-B262-582B2F750B63}" uniqueName="15" name="layer_size" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{DF2EC655-F5BA-485B-B09F-D6303F83A33E}" uniqueName="16" name="attempt" queryTableFieldId="16"/>
   </tableColumns>
@@ -11069,8 +11069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12664480-544B-4496-BA37-8EC01FEF16F8}">
   <dimension ref="A2:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11149,7 +11149,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -12183,16 +12183,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>A4</f>
+        <f t="shared" ref="A19:A31" si="0">A4</f>
         <v>Bos_2018</v>
       </c>
       <c r="B19" s="6" t="str">
         <f>ROUND(B4,$A$2)&amp;" ("&amp;ROUND(C4,$B$2)&amp;")"</f>
-        <v>0,9 (0,039)</v>
+        <v>0,9 (0,04)</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>ROUND(D4,$A$2)&amp;" ("&amp;ROUND(E4,$B$2)&amp;")"</f>
-        <v>0,9 (0,039)</v>
+        <v>0,9 (0,04)</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>ROUND(F4,$A$2)&amp;" ("&amp;ROUND(G4,$B$2)&amp;")"</f>
@@ -12208,182 +12208,182 @@
       </c>
       <c r="G19" s="6" t="str">
         <f>ROUND(L4,$A$2)&amp;" ("&amp;ROUND(M4,$B$2)&amp;")"</f>
-        <v>0,87 (0,163)</v>
+        <v>0,87 (0,16)</v>
       </c>
       <c r="H19" s="6" t="str">
         <f>ROUND(N4,$A$2)&amp;" ("&amp;ROUND(O4,$B$2)&amp;")"</f>
-        <v>0,9 (0,039)</v>
+        <v>0,9 (0,04)</v>
       </c>
       <c r="I19" s="6" t="str">
         <f>ROUND(P4,$A$2)&amp;" ("&amp;ROUND(Q4,$B$2)&amp;")"</f>
-        <v>0,87 (0,061)</v>
+        <v>0,87 (0,06)</v>
       </c>
       <c r="J19" s="6" t="str">
         <f>ROUND(R4,$A$2)&amp;" ("&amp;ROUND(S4,$B$2)&amp;")"</f>
-        <v>0,01 (0,006)</v>
+        <v>0,01 (0,01)</v>
       </c>
       <c r="K19" s="6" t="str">
         <f>ROUND(T4,$A$2)&amp;" ("&amp;ROUND(U4,$B$2)&amp;")"</f>
-        <v>0,01 (0,006)</v>
+        <v>0,01 (0,01)</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>ROUND(V4,$A$2)&amp;" ("&amp;ROUND(W4,$B$2)&amp;")"</f>
-        <v>0,89 (0,058)</v>
+        <v>0,89 (0,06)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>Fluoride</v>
       </c>
       <c r="B20" s="6" t="str">
-        <f t="shared" ref="B20:B31" si="0">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
-        <v>0,84 (0,016)</v>
+        <f t="shared" ref="B20:B31" si="1">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
+        <v>0,84 (0,02)</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f t="shared" ref="C20:C31" si="1">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
-        <v>0,85 (0,017)</v>
+        <f t="shared" ref="C20:C31" si="2">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
+        <v>0,85 (0,02)</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f t="shared" ref="D20:D31" si="2">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
-        <v>0,81 (0,024)</v>
+        <f t="shared" ref="D20:D31" si="3">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
+        <v>0,81 (0,02)</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f t="shared" ref="E20:E31" si="3">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
-        <v>0,82 (0,025)</v>
+        <f t="shared" ref="E20:E31" si="4">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
+        <v>0,82 (0,02)</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f t="shared" ref="F20:F31" si="4">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
+        <f t="shared" ref="F20:F31" si="5">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
         <v>0,95 (0)</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f t="shared" ref="G20:G31" si="5">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
-        <v>0,89 (0,033)</v>
+        <f t="shared" ref="G20:G31" si="6">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
+        <v>0,89 (0,03)</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f t="shared" ref="H20:H31" si="6">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
-        <v>0,9 (0,016)</v>
+        <f t="shared" ref="H20:H31" si="7">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
+        <v>0,9 (0,02)</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f t="shared" ref="I20:I31" si="7">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
-        <v>0,93 (0,017)</v>
+        <f t="shared" ref="I20:I31" si="8">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
+        <v>0,93 (0,02)</v>
       </c>
       <c r="J20" s="6" t="str">
-        <f t="shared" ref="J20:J31" si="8">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
-        <v>0,17 (0,022)</v>
+        <f t="shared" ref="J20:J31" si="9">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
+        <v>0,17 (0,02)</v>
       </c>
       <c r="K20" s="6" t="str">
-        <f t="shared" ref="K20:K31" si="9">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
-        <v>0,21 (0,037)</v>
+        <f t="shared" ref="K20:K31" si="10">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
+        <v>0,21 (0,04)</v>
       </c>
       <c r="L20" s="6" t="str">
-        <f t="shared" ref="L20:L31" si="10">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
-        <v>0,8 (0,123)</v>
+        <f t="shared" ref="L20:L31" si="11">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
+        <v>0,8 (0,12)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>Head_and_neck_cancer_bone</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,32 (0,093)</v>
+        <f t="shared" si="1"/>
+        <v>0,32 (0,09)</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,34 (0,102)</v>
+        <f t="shared" si="2"/>
+        <v>0,34 (0,1)</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,11 (0,119)</v>
+        <f t="shared" si="3"/>
+        <v>0,11 (0,12)</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,12 (0,131)</v>
+        <f t="shared" si="4"/>
+        <v>0,12 (0,13)</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0,96 (0)</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0,2 (0,22)</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,43 (0,093)</v>
+        <f t="shared" si="7"/>
+        <v>0,43 (0,09)</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,86 (0,063)</v>
+        <f t="shared" si="8"/>
+        <v>0,86 (0,06)</v>
       </c>
       <c r="J21" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,23 (0,025)</v>
+        <f t="shared" si="9"/>
+        <v>0,23 (0,03)</v>
       </c>
       <c r="K21" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,14 (0,118)</v>
+        <f t="shared" si="10"/>
+        <v>0,14 (0,12)</v>
       </c>
       <c r="L21" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0,53 (0,11)</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>Kitchenham_2010</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0,34 (0,06)</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,34 (0,061)</v>
+        <f t="shared" si="2"/>
+        <v>0,34 (0,06)</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,05 (0,087)</v>
+        <f t="shared" si="3"/>
+        <v>0,05 (0,09)</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,05 (0,089)</v>
+        <f t="shared" si="4"/>
+        <v>0,05 (0,09)</v>
       </c>
       <c r="F22" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0,97 (0)</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,06 (0,106)</v>
+        <f t="shared" si="6"/>
+        <v>0,06 (0,11)</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,38 (0,06)</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,97 (0,014)</v>
+        <f t="shared" si="8"/>
+        <v>0,97 (0,01)</v>
       </c>
       <c r="J22" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,07 (0,006)</v>
+        <f t="shared" si="9"/>
+        <v>0,07 (0,01)</v>
       </c>
       <c r="K22" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,04 (0,066)</v>
+        <f t="shared" si="10"/>
+        <v>0,04 (0,07)</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,3 (0,162)</v>
+        <f t="shared" si="11"/>
+        <v>0,3 (0,16)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>Leafy_Greens_Future_set</v>
       </c>
       <c r="B23" s="6" t="str">
@@ -12391,444 +12391,444 @@
         <v>0,15 (0,04)</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,47 (0,13)</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,01 (0,011)</v>
+        <f t="shared" si="3"/>
+        <v>0,01 (0,01)</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,03 (0,034)</v>
+        <f t="shared" si="4"/>
+        <v>0,03 (0,03)</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,97 (0,007)</v>
+        <f t="shared" si="5"/>
+        <v>0,97 (0,01)</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,04 (0,049)</v>
+        <f t="shared" si="6"/>
+        <v>0,04 (0,05)</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,83 (0,038)</v>
+        <f t="shared" si="7"/>
+        <v>0,83 (0,04)</v>
       </c>
       <c r="I23" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,33 (0,029)</v>
+        <f t="shared" si="8"/>
+        <v>0,33 (0,03)</v>
       </c>
       <c r="J23" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,89 (0,021)</v>
+        <f t="shared" si="9"/>
+        <v>0,89 (0,02)</v>
       </c>
       <c r="K23" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,07 (0,085)</v>
+        <f t="shared" si="10"/>
+        <v>0,07 (0,09)</v>
       </c>
       <c r="L23" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,43 (0,172)</v>
+        <f t="shared" si="11"/>
+        <v>0,43 (0,17)</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>Opiods</v>
       </c>
       <c r="B24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,39 (0,068)</v>
+        <f t="shared" si="1"/>
+        <v>0,39 (0,07)</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,4 (0,07)</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,35 (0,074)</v>
+        <f t="shared" si="3"/>
+        <v>0,35 (0,07)</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,36 (0,075)</v>
+        <f t="shared" si="4"/>
+        <v>0,36 (0,08)</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0,97 (0)</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,53 (0,134)</v>
+        <f t="shared" si="6"/>
+        <v>0,53 (0,13)</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,44 (0,068)</v>
+        <f t="shared" si="7"/>
+        <v>0,44 (0,07)</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,83 (0,059)</v>
+        <f t="shared" si="8"/>
+        <v>0,83 (0,06)</v>
       </c>
       <c r="J24" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,06 (0,007)</v>
+        <f t="shared" si="9"/>
+        <v>0,06 (0,01)</v>
       </c>
       <c r="K24" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,11 (0,012)</v>
+        <f t="shared" si="10"/>
+        <v>0,11 (0,01)</v>
       </c>
       <c r="L24" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,39 (0,165)</v>
+        <f t="shared" si="11"/>
+        <v>0,39 (0,16)</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>PFOS-PFOA</v>
       </c>
       <c r="B25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,72 (0,033)</v>
+        <f t="shared" si="1"/>
+        <v>0,72 (0,03)</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,73 (0,034)</v>
+        <f t="shared" si="2"/>
+        <v>0,73 (0,03)</v>
       </c>
       <c r="D25" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,43 (0,206)</v>
+        <f t="shared" si="3"/>
+        <v>0,43 (0,21)</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,44 (0,21)</v>
       </c>
       <c r="F25" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0,95 (0)</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0,49 (0,24)</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,78 (0,033)</v>
+        <f t="shared" si="7"/>
+        <v>0,78 (0,03)</v>
       </c>
       <c r="I25" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,95 (0,029)</v>
+        <f t="shared" si="8"/>
+        <v>0,95 (0,03)</v>
       </c>
       <c r="J25" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,11 (0,014)</v>
+        <f t="shared" si="9"/>
+        <v>0,11 (0,01)</v>
       </c>
       <c r="K25" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,21 (0,043)</v>
+        <f t="shared" si="10"/>
+        <v>0,21 (0,04)</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,65 (0,142)</v>
+        <f t="shared" si="11"/>
+        <v>0,65 (0,14)</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>Radjenovic_2013</v>
       </c>
       <c r="B26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,78 (0,024)</v>
+        <f t="shared" si="1"/>
+        <v>0,78 (0,02)</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,79 (0,024)</v>
+        <f t="shared" si="2"/>
+        <v>0,79 (0,02)</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,59 (0,238)</v>
+        <f t="shared" si="3"/>
+        <v>0,59 (0,24)</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,59 (0,239)</v>
+        <f t="shared" si="4"/>
+        <v>0,59 (0,24)</v>
       </c>
       <c r="F26" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0,97 (0)</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,64 (0,275)</v>
+        <f t="shared" si="6"/>
+        <v>0,64 (0,28)</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,82 (0,024)</v>
+        <f t="shared" si="7"/>
+        <v>0,82 (0,02)</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,95 (0,037)</v>
+        <f t="shared" si="8"/>
+        <v>0,95 (0,04)</v>
       </c>
       <c r="J26" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,07 (0,008)</v>
+        <f t="shared" si="9"/>
+        <v>0,07 (0,01)</v>
       </c>
       <c r="K26" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,19 (0,074)</v>
+        <f t="shared" si="10"/>
+        <v>0,19 (0,07)</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,54 (0,072)</v>
+        <f t="shared" si="11"/>
+        <v>0,54 (0,07)</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>SkeletalMuscleRelaxants</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,39 (0,072)</v>
+        <f t="shared" si="1"/>
+        <v>0,39 (0,07)</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,4 (0,073)</v>
+        <f t="shared" si="2"/>
+        <v>0,4 (0,07)</v>
       </c>
       <c r="D27" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,14 (0,083)</v>
+        <f t="shared" si="3"/>
+        <v>0,14 (0,08)</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,14 (0,084)</v>
+        <f t="shared" si="4"/>
+        <v>0,14 (0,08)</v>
       </c>
       <c r="F27" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1 (0)</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,16 (0,096)</v>
+        <f t="shared" si="6"/>
+        <v>0,16 (0,1)</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,4 (0,072)</v>
+        <f t="shared" si="7"/>
+        <v>0,4 (0,07)</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,97 (0,011)</v>
+        <f t="shared" si="8"/>
+        <v>0,97 (0,01)</v>
       </c>
       <c r="J27" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,05 (0,005)</v>
+        <f t="shared" si="9"/>
+        <v>0,05 (0,01)</v>
       </c>
       <c r="K27" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,12 (0,061)</v>
+        <f t="shared" si="10"/>
+        <v>0,12 (0,06)</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,37 (0,103)</v>
+        <f t="shared" si="11"/>
+        <v>0,37 (0,1)</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>Total_knee_replacement</v>
       </c>
       <c r="B28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,76 (0,082)</v>
+        <f t="shared" si="1"/>
+        <v>0,76 (0,08)</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>ROUND(D13,$A$2)&amp;" ("&amp;ROUND(E13,$B$2)&amp;")"</f>
-        <v>0,8 (0,087)</v>
+        <v>0,8 (0,09)</v>
       </c>
       <c r="D28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,61 (0,142)</v>
+        <f t="shared" si="3"/>
+        <v>0,61 (0,14)</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,64 (0,15)</v>
       </c>
       <c r="F28" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0,96 (0)</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,68 (0,184)</v>
+        <f t="shared" si="6"/>
+        <v>0,68 (0,18)</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,85 (0,082)</v>
+        <f t="shared" si="7"/>
+        <v>0,85 (0,08)</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,94 (0,032)</v>
+        <f t="shared" si="8"/>
+        <v>0,94 (0,03)</v>
       </c>
       <c r="J28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0,46 (0,15)</v>
       </c>
       <c r="K28" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0,6 (0,09)</v>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0,81 (0,06)</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>Vascular_access</v>
       </c>
       <c r="B29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,51 (0,098)</v>
+        <f t="shared" si="1"/>
+        <v>0,51 (0,1)</v>
       </c>
       <c r="C29" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0,52 (0,1)</v>
       </c>
       <c r="D29" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,27 (0,132)</v>
+        <f t="shared" si="3"/>
+        <v>0,27 (0,13)</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,27 (0,134)</v>
+        <f t="shared" si="4"/>
+        <v>0,27 (0,13)</v>
       </c>
       <c r="F29" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1 (0)</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,33 (0,159)</v>
+        <f t="shared" si="6"/>
+        <v>0,33 (0,16)</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,53 (0,098)</v>
+        <f t="shared" si="7"/>
+        <v>0,53 (0,1)</v>
       </c>
       <c r="I29" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,93 (0,044)</v>
+        <f t="shared" si="8"/>
+        <v>0,93 (0,04)</v>
       </c>
       <c r="J29" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,07 (0,014)</v>
+        <f t="shared" si="9"/>
+        <v>0,07 (0,01)</v>
       </c>
       <c r="K29" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,16 (0,093)</v>
+        <f t="shared" si="10"/>
+        <v>0,16 (0,09)</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,56 (0,144)</v>
+        <f t="shared" si="11"/>
+        <v>0,56 (0,14)</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>Wolters_2018</v>
       </c>
       <c r="B30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,69 (0,091)</v>
+        <f t="shared" si="1"/>
+        <v>0,69 (0,09)</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,7 (0,091)</v>
+        <f t="shared" si="2"/>
+        <v>0,7 (0,09)</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,5 (0,272)</v>
+        <f t="shared" si="3"/>
+        <v>0,5 (0,27)</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,5 (0,273)</v>
+        <f t="shared" si="4"/>
+        <v>0,5 (0,27)</v>
       </c>
       <c r="F30" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1 (0)</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,56 (0,322)</v>
+        <f t="shared" si="6"/>
+        <v>0,56 (0,32)</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,7 (0,091)</v>
+        <f t="shared" si="7"/>
+        <v>0,7 (0,09)</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,94 (0,054)</v>
+        <f t="shared" si="8"/>
+        <v>0,94 (0,05)</v>
       </c>
       <c r="J30" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,02 (0,005)</v>
+        <f t="shared" si="9"/>
+        <v>0,02 (0,01)</v>
       </c>
       <c r="K30" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,09 (0,053)</v>
+        <f t="shared" si="10"/>
+        <v>0,09 (0,05)</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,8 (0,073)</v>
+        <f t="shared" si="11"/>
+        <v>0,8 (0,07)</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>Total Geral</v>
       </c>
       <c r="B31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0,57 (0,245)</v>
+        <f t="shared" si="1"/>
+        <v>0,57 (0,24)</v>
       </c>
       <c r="C31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,6 (0,216)</v>
+        <f t="shared" si="2"/>
+        <v>0,6 (0,22)</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,38 (0,298)</v>
+        <f t="shared" si="3"/>
+        <v>0,38 (0,3)</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0,39 (0,3)</v>
       </c>
       <c r="F31" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,98 (0,019)</v>
+        <f t="shared" si="5"/>
+        <v>0,98 (0,02)</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,45 (0,338)</v>
+        <f t="shared" si="6"/>
+        <v>0,45 (0,34)</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,66 (0,21)</v>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,87 (0,173)</v>
+        <f t="shared" si="8"/>
+        <v>0,87 (0,17)</v>
       </c>
       <c r="J31" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,18 (0,247)</v>
+        <f t="shared" si="9"/>
+        <v>0,18 (0,25)</v>
       </c>
       <c r="K31" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,16 (0,161)</v>
+        <f t="shared" si="10"/>
+        <v>0,16 (0,16)</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,59 (0,227)</v>
+        <f t="shared" si="11"/>
+        <v>0,59 (0,23)</v>
       </c>
     </row>
   </sheetData>
@@ -12840,8 +12840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1021A2-634B-4DD8-AC80-9497B6FA5DAB}">
   <dimension ref="A2:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D55:D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12917,10 +12917,10 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -14527,47 +14527,47 @@
       </c>
       <c r="B27" s="6" t="str">
         <f>ROUND(B4,$A$2)&amp;" ("&amp;ROUND(C4,$B$2)&amp;")"</f>
-        <v>0,879 (0,016)</v>
+        <v>0,88 (0,02)</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>ROUND(D4,$A$2)&amp;" ("&amp;ROUND(E4,$B$2)&amp;")"</f>
-        <v>0,888 (0,016)</v>
+        <v>0,89 (0,02)</v>
       </c>
       <c r="D27" s="6" t="str">
         <f>ROUND(F4,$A$2)&amp;" ("&amp;ROUND(G4,$B$2)&amp;")"</f>
-        <v>0,82 (0,064)</v>
+        <v>0,82 (0,06)</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>ROUND(H4,$A$2)&amp;" ("&amp;ROUND(I4,$B$2)&amp;")"</f>
-        <v>0,828 (0,064)</v>
+        <v>0,83 (0,06)</v>
       </c>
       <c r="F27" s="6" t="str">
         <f>ROUND(J4,$A$2)&amp;" ("&amp;ROUND(K4,$B$2)&amp;")"</f>
-        <v>0,954 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>ROUND(L4,$A$2)&amp;" ("&amp;ROUND(M4,$B$2)&amp;")"</f>
-        <v>0,898 (0,087)</v>
+        <v>0,9 (0,09)</v>
       </c>
       <c r="H27" s="6" t="str">
         <f>ROUND(N4,$A$2)&amp;" ("&amp;ROUND(O4,$B$2)&amp;")"</f>
-        <v>0,935 (0,016)</v>
+        <v>0,93 (0,02)</v>
       </c>
       <c r="I27" s="6" t="str">
         <f>ROUND(P4,$A$2)&amp;" ("&amp;ROUND(Q4,$B$2)&amp;")"</f>
-        <v>0,93 (0,025)</v>
+        <v>0,93 (0,02)</v>
       </c>
       <c r="J27" s="6" t="str">
         <f>ROUND(R4,$A$2)&amp;" ("&amp;ROUND(S4,$B$2)&amp;")"</f>
-        <v>0,228 (0,046)</v>
+        <v>0,23 (0,05)</v>
       </c>
       <c r="K27" s="6" t="str">
         <f>ROUND(T4,$A$2)&amp;" ("&amp;ROUND(U4,$B$2)&amp;")"</f>
-        <v>0,223 (0,081)</v>
+        <v>0,22 (0,08)</v>
       </c>
       <c r="L27" s="6" t="str">
         <f>ROUND(V4,$A$2)&amp;" ("&amp;ROUND(W4,$B$2)&amp;")"</f>
-        <v>0,882 (0,079)</v>
+        <v>0,88 (0,08)</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -14577,19 +14577,19 @@
       </c>
       <c r="B28" s="6" t="str">
         <f t="shared" ref="B28:B47" si="1">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
-        <v>0,457 (0,063)</v>
+        <v>0,46 (0,06)</v>
       </c>
       <c r="C28" s="6" t="str">
         <f t="shared" ref="C28:C39" si="2">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
-        <v>0,466 (0,064)</v>
+        <v>0,47 (0,06)</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" ref="D28:D39" si="3">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
-        <v>0,37 (0,092)</v>
+        <v>0,37 (0,09)</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" ref="E28:E39" si="4">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
-        <v>0,378 (0,094)</v>
+        <v>0,38 (0,09)</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" ref="F28:F39" si="5">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
@@ -14601,23 +14601,23 @@
       </c>
       <c r="H28" s="6" t="str">
         <f t="shared" ref="H28:H39" si="7">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
-        <v>0,526 (0,063)</v>
+        <v>0,53 (0,06)</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" ref="I28:I39" si="8">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
-        <v>0,88 (0,065)</v>
+        <v>0,88 (0,07)</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" ref="J28:J39" si="9">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
-        <v>0,079 (0,01)</v>
+        <v>0,08 (0,01)</v>
       </c>
       <c r="K28" s="6" t="str">
         <f t="shared" ref="K28:K39" si="10">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
-        <v>0,156 (0,026)</v>
+        <v>0,16 (0,03)</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" ref="L28:L39" si="11">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
-        <v>0,263 (0,167)</v>
+        <v>0,26 (0,17)</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -14627,47 +14627,47 @@
       </c>
       <c r="B29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,665 (0,064)</v>
+        <v>0,67 (0,06)</v>
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,675 (0,065)</v>
+        <v>0,67 (0,07)</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,292 (0,243)</v>
+        <v>0,29 (0,24)</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,296 (0,247)</v>
+        <v>0,3 (0,25)</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,954 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,391 (0,34)</v>
+        <v>0,39 (0,34)</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,724 (0,064)</v>
+        <v>0,72 (0,06)</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,899 (0,089)</v>
+        <v>0,9 (0,09)</v>
       </c>
       <c r="J29" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,091 (0,021)</v>
+        <v>0,09 (0,02)</v>
       </c>
       <c r="K29" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,094 (0,062)</v>
+        <v>0,09 (0,06)</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,651 (0,19)</v>
+        <v>0,65 (0,19)</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -14677,47 +14677,47 @@
       </c>
       <c r="B30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,217 (0,08)</v>
+        <v>0,22 (0,08)</v>
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,221 (0,082)</v>
+        <v>0,22 (0,08)</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,124 (0,103)</v>
+        <v>0,12 (0,1)</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,126 (0,105)</v>
+        <v>0,13 (0,1)</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,962 (0)</v>
+        <v>0,96 (0)</v>
       </c>
       <c r="G30" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,169 (0,153)</v>
+        <v>0,17 (0,15)</v>
       </c>
       <c r="H30" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,271 (0,08)</v>
+        <v>0,27 (0,08)</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,945 (0,047)</v>
+        <v>0,94 (0,05)</v>
       </c>
       <c r="J30" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,041 (0,004)</v>
+        <v>0,04 (0)</v>
       </c>
       <c r="K30" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,086 (0,032)</v>
+        <v>0,09 (0,03)</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,198 (0,149)</v>
+        <v>0,2 (0,15)</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -14727,47 +14727,47 @@
       </c>
       <c r="B31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,224 (0,036)</v>
+        <v>0,22 (0,04)</v>
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,24 (0,038)</v>
+        <v>0,24 (0,04)</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,132 (0,08)</v>
+        <v>0,13 (0,08)</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,142 (0,086)</v>
+        <v>0,14 (0,09)</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,954 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G31" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,219 (0,141)</v>
+        <v>0,22 (0,14)</v>
       </c>
       <c r="H31" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,332 (0,036)</v>
+        <v>0,33 (0,04)</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,874 (0,045)</v>
+        <v>0,87 (0,05)</v>
       </c>
       <c r="J31" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,166 (0,007)</v>
+        <v>0,17 (0,01)</v>
       </c>
       <c r="K31" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,167 (0,08)</v>
+        <v>0,17 (0,08)</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,228 (0,138)</v>
+        <v>0,23 (0,14)</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -14777,47 +14777,47 @@
       </c>
       <c r="B32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,356 (0,045)</v>
+        <v>0,36 (0,04)</v>
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,391 (0,049)</v>
+        <v>0,39 (0,05)</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,344 (0,157)</v>
+        <v>0,34 (0,16)</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,379 (0,173)</v>
+        <v>0,38 (0,17)</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,961 (0)</v>
+        <v>0,96 (0)</v>
       </c>
       <c r="G32" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,466 (0,202)</v>
+        <v>0,47 (0,2)</v>
       </c>
       <c r="H32" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,479 (0,045)</v>
+        <v>0,48 (0,04)</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,872 (0,021)</v>
+        <v>0,87 (0,02)</v>
       </c>
       <c r="J32" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,252 (0,018)</v>
+        <v>0,25 (0,02)</v>
       </c>
       <c r="K32" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,38 (0,104)</v>
+        <v>0,38 (0,1)</v>
       </c>
       <c r="L32" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,102 (0,053)</v>
+        <v>0,1 (0,05)</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -14827,47 +14827,47 @@
       </c>
       <c r="B33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,075 (0,026)</v>
+        <v>0,08 (0,03)</v>
       </c>
       <c r="C33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,105 (0,037)</v>
+        <v>0,11 (0,04)</v>
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,037 (0,037)</v>
+        <v>0,04 (0,04)</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,052 (0,052)</v>
+        <v>0,05 (0,05)</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,955 (0,005)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,079 (0,081)</v>
+        <v>0,08 (0,08)</v>
       </c>
       <c r="H33" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,38 (0,027)</v>
+        <v>0,38 (0,03)</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,718 (0,005)</v>
+        <v>0,72 (0,01)</v>
       </c>
       <c r="J33" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,468 (0,01)</v>
+        <v>0,47 (0,01)</v>
       </c>
       <c r="K33" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,121 (0,119)</v>
+        <v>0,12 (0,12)</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,256 (0,092)</v>
+        <v>0,26 (0,09)</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -14877,47 +14877,47 @@
       </c>
       <c r="B34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,054 (0,011)</v>
+        <v>0,05 (0,01)</v>
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,08 (0,016)</v>
+        <v>0,08 (0,02)</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,141 (0,02)</v>
+        <v>0,14 (0,02)</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,208 (0,03)</v>
+        <v>0,21 (0,03)</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,953 (0,001)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,647 (0,061)</v>
+        <v>0,65 (0,06)</v>
       </c>
       <c r="H34" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,393 (0,011)</v>
+        <v>0,39 (0,01)</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,589 (0,04)</v>
+        <v>0,59 (0,04)</v>
       </c>
       <c r="J34" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,502 (0,005)</v>
+        <v>0,5 (0)</v>
       </c>
       <c r="K34" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,503 (0,008)</v>
+        <v>0,5 (0,01)</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,295 (0,173)</v>
+        <v>0,29 (0,17)</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -14927,47 +14927,47 @@
       </c>
       <c r="B35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,142 (0,014)</v>
+        <v>0,14 (0,01)</v>
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,166 (0,017)</v>
+        <v>0,17 (0,02)</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,194 (0,067)</v>
+        <v>0,19 (0,07)</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,226 (0,078)</v>
+        <v>0,23 (0,08)</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,952 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,411 (0,139)</v>
+        <v>0,41 (0,14)</v>
       </c>
       <c r="H35" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,319 (0,014)</v>
+        <v>0,32 (0,01)</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,757 (0,033)</v>
+        <v>0,76 (0,03)</v>
       </c>
       <c r="J35" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,286 (0,004)</v>
+        <v>0,29 (0)</v>
       </c>
       <c r="K35" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,317 (0,051)</v>
+        <v>0,32 (0,05)</v>
       </c>
       <c r="L35" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,217 (0,104)</v>
+        <v>0,22 (0,1)</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -14977,47 +14977,47 @@
       </c>
       <c r="B36" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,073 (0,026)</v>
+        <v>0,07 (0,03)</v>
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,095 (0,034)</v>
+        <v>0,09 (0,03)</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,073 (0,075)</v>
+        <v>0,07 (0,07)</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,095 (0,096)</v>
+        <v>0,09 (0,1)</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,96 (0,014)</v>
+        <v>0,96 (0,01)</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,153 (0,182)</v>
+        <v>0,15 (0,18)</v>
       </c>
       <c r="H36" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,321 (0,033)</v>
+        <v>0,32 (0,03)</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,764 (0,031)</v>
+        <v>0,76 (0,03)</v>
       </c>
       <c r="J36" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,39 (0,008)</v>
+        <v>0,39 (0,01)</v>
       </c>
       <c r="K36" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,173 (0,161)</v>
+        <v>0,17 (0,16)</v>
       </c>
       <c r="L36" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,14 (0,114)</v>
+        <v>0,14 (0,11)</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -15027,47 +15027,47 @@
       </c>
       <c r="B37" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,034 (0,025)</v>
+        <v>0,03 (0,03)</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,043 (0,032)</v>
+        <v>0,04 (0,03)</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,075 (0,087)</v>
+        <v>0,08 (0,09)</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,095 (0,11)</v>
+        <v>0,09 (0,11)</v>
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,958 (0)</v>
+        <v>0,96 (0)</v>
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,181 (0,238)</v>
+        <v>0,18 (0,24)</v>
       </c>
       <c r="H37" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,264 (0,025)</v>
+        <v>0,26 (0,03)</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,764 (0,055)</v>
+        <v>0,76 (0,05)</v>
       </c>
       <c r="J37" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,348 (0,008)</v>
+        <v>0,35 (0,01)</v>
       </c>
       <c r="K37" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,173 (0,14)</v>
+        <v>0,17 (0,14)</v>
       </c>
       <c r="L37" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,069 (0,03)</v>
+        <v>0,07 (0,03)</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -15077,19 +15077,19 @@
       </c>
       <c r="B38" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,199 (0,036)</v>
+        <v>0,2 (0,04)</v>
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,252 (0,046)</v>
+        <v>0,25 (0,05)</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,242 (0,142)</v>
+        <v>0,24 (0,14)</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,307 (0,18)</v>
+        <v>0,31 (0,18)</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="5"/>
@@ -15097,27 +15097,27 @@
       </c>
       <c r="G38" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,433 (0,287)</v>
+        <v>0,43 (0,29)</v>
       </c>
       <c r="H38" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,44 (0,036)</v>
+        <v>0,44 (0,04)</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,78 (0,031)</v>
+        <v>0,78 (0,03)</v>
       </c>
       <c r="J38" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,419 (0,016)</v>
+        <v>0,42 (0,02)</v>
       </c>
       <c r="K38" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,393 (0,183)</v>
+        <v>0,39 (0,18)</v>
       </c>
       <c r="L38" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,364 (0,149)</v>
+        <v>0,36 (0,15)</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -15127,47 +15127,47 @@
       </c>
       <c r="B39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,036 (0,017)</v>
+        <v>0,04 (0,02)</v>
       </c>
       <c r="C39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,049 (0,023)</v>
+        <v>0,05 (0,02)</v>
       </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,001 (0,014)</v>
+        <v>0 (0,01)</v>
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,001 (0,019)</v>
+        <v>0 (0,02)</v>
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,954 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G39" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,026 (0,015)</v>
+        <v>0,03 (0,01)</v>
       </c>
       <c r="H39" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,326 (0,017)</v>
+        <v>0,33 (0,02)</v>
       </c>
       <c r="I39" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,72 (0,015)</v>
+        <v>0,72 (0,02)</v>
       </c>
       <c r="J39" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,432 (0,006)</v>
+        <v>0,43 (0,01)</v>
       </c>
       <c r="K39" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,046 (0,026)</v>
+        <v>0,05 (0,03)</v>
       </c>
       <c r="L39" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,138 (0,11)</v>
+        <v>0,14 (0,11)</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -15177,47 +15177,47 @@
       </c>
       <c r="B40" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,106 (0,02)</v>
+        <v>0,11 (0,02)</v>
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" ref="C40:C47" si="12">ROUND(D17,$A$2)&amp;" ("&amp;ROUND(E17,$B$2)&amp;")"</f>
-        <v>0,128 (0,025)</v>
+        <v>0,13 (0,02)</v>
       </c>
       <c r="D40" s="6" t="str">
         <f t="shared" ref="D40:D47" si="13">ROUND(F17,$A$2)&amp;" ("&amp;ROUND(G17,$B$2)&amp;")"</f>
-        <v>0,064 (0,068)</v>
+        <v>0,06 (0,07)</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" ref="E40:E47" si="14">ROUND(H17,$A$2)&amp;" ("&amp;ROUND(I17,$B$2)&amp;")"</f>
-        <v>0,078 (0,082)</v>
+        <v>0,08 (0,08)</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" ref="F40:F47" si="15">ROUND(J17,$A$2)&amp;" ("&amp;ROUND(K17,$B$2)&amp;")"</f>
-        <v>0,953 (0,002)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G40" s="6" t="str">
         <f t="shared" ref="G40:G47" si="16">ROUND(L17,$A$2)&amp;" ("&amp;ROUND(M17,$B$2)&amp;")"</f>
-        <v>0,113 (0,111)</v>
+        <v>0,11 (0,11)</v>
       </c>
       <c r="H40" s="6" t="str">
         <f t="shared" ref="H40:H47" si="17">ROUND(N17,$A$2)&amp;" ("&amp;ROUND(O17,$B$2)&amp;")"</f>
-        <v>0,311 (0,02)</v>
+        <v>0,31 (0,02)</v>
       </c>
       <c r="I40" s="6" t="str">
         <f t="shared" ref="I40:I47" si="18">ROUND(P17,$A$2)&amp;" ("&amp;ROUND(Q17,$B$2)&amp;")"</f>
-        <v>0,816 (0,009)</v>
+        <v>0,82 (0,01)</v>
       </c>
       <c r="J40" s="6" t="str">
         <f t="shared" ref="J40:J47" si="19">ROUND(R17,$A$2)&amp;" ("&amp;ROUND(S17,$B$2)&amp;")"</f>
-        <v>0,326 (0,006)</v>
+        <v>0,33 (0,01)</v>
       </c>
       <c r="K40" s="6" t="str">
         <f t="shared" ref="K40:K47" si="20">ROUND(T17,$A$2)&amp;" ("&amp;ROUND(U17,$B$2)&amp;")"</f>
-        <v>0,151 (0,133)</v>
+        <v>0,15 (0,13)</v>
       </c>
       <c r="L40" s="6" t="str">
         <f t="shared" ref="L40:L47" si="21">ROUND(V17,$A$2)&amp;" ("&amp;ROUND(W17,$B$2)&amp;")"</f>
-        <v>0,059 (0,03)</v>
+        <v>0,06 (0,03)</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -15227,47 +15227,47 @@
       </c>
       <c r="B41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,149 (0,036)</v>
+        <v>0,15 (0,04)</v>
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,157 (0,038)</v>
+        <v>0,16 (0,04)</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,136 (0,018)</v>
+        <v>0,14 (0,02)</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,143 (0,019)</v>
+        <v>0,14 (0,02)</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,952 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,182 (0,032)</v>
+        <v>0,18 (0,03)</v>
       </c>
       <c r="H41" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,241 (0,036)</v>
+        <v>0,24 (0,04)</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,924 (0,018)</v>
+        <v>0,92 (0,02)</v>
       </c>
       <c r="J41" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,107 (0,005)</v>
+        <v>0,11 (0)</v>
       </c>
       <c r="K41" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,188 (0,018)</v>
+        <v>0,19 (0,02)</v>
       </c>
       <c r="L41" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,141 (0,063)</v>
+        <v>0,14 (0,06)</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -15277,47 +15277,47 @@
       </c>
       <c r="B42" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,191 (0,041)</v>
+        <v>0,19 (0,04)</v>
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,281 (0,06)</v>
+        <v>0,28 (0,06)</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>-0,004 (0,003)</v>
+        <v>0 (0)</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>-0,006 (0,004)</v>
+        <v>-0,01 (0)</v>
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,953 (0,002)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G42" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,023 (0,019)</v>
+        <v>0,02 (0,02)</v>
       </c>
       <c r="H42" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,528 (0,041)</v>
+        <v>0,53 (0,04)</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,667 (0,009)</v>
+        <v>0,67 (0,01)</v>
       </c>
       <c r="J42" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,565 (0,02)</v>
+        <v>0,57 (0,02)</v>
       </c>
       <c r="K42" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,04 (0,033)</v>
+        <v>0,04 (0,03)</v>
       </c>
       <c r="L42" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,161 (0,034)</v>
+        <v>0,16 (0,03)</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -15327,47 +15327,47 @@
       </c>
       <c r="B43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,195 (0,038)</v>
+        <v>0,19 (0,04)</v>
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,251 (0,05)</v>
+        <v>0,25 (0,05)</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,307 (0,018)</v>
+        <v>0,31 (0,02)</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,397 (0,023)</v>
+        <v>0,4 (0,02)</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,96 (0,006)</v>
+        <v>0,96 (0,01)</v>
       </c>
       <c r="G43" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,574 (0,082)</v>
+        <v>0,57 (0,08)</v>
       </c>
       <c r="H43" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,442 (0,042)</v>
+        <v>0,44 (0,04)</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,767 (0,039)</v>
+        <v>0,77 (0,04)</v>
       </c>
       <c r="J43" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,437 (0,016)</v>
+        <v>0,44 (0,02)</v>
       </c>
       <c r="K43" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,527 (0,019)</v>
+        <v>0,53 (0,02)</v>
       </c>
       <c r="L43" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,215 (0,11)</v>
+        <v>0,21 (0,11)</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -15377,47 +15377,47 @@
       </c>
       <c r="B44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,704 (0,034)</v>
+        <v>0,7 (0,03)</v>
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,713 (0,034)</v>
+        <v>0,71 (0,03)</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,53 (0,136)</v>
+        <v>0,53 (0,14)</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,538 (0,138)</v>
+        <v>0,54 (0,14)</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,952 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G44" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,649 (0,171)</v>
+        <v>0,65 (0,17)</v>
       </c>
       <c r="H44" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,764 (0,034)</v>
+        <v>0,76 (0,03)</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,886 (0,034)</v>
+        <v>0,89 (0,03)</v>
       </c>
       <c r="J44" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,099 (0,014)</v>
+        <v>0,1 (0,01)</v>
       </c>
       <c r="K44" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,136 (0,022)</v>
+        <v>0,14 (0,02)</v>
       </c>
       <c r="L44" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,583 (0,202)</v>
+        <v>0,58 (0,2)</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -15427,19 +15427,19 @@
       </c>
       <c r="B45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,283 (0,015)</v>
+        <v>0,28 (0,01)</v>
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,341 (0,018)</v>
+        <v>0,34 (0,02)</v>
       </c>
       <c r="D45" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,151 (0,088)</v>
+        <v>0,15 (0,09)</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,182 (0,107)</v>
+        <v>0,18 (0,11)</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="15"/>
@@ -15447,27 +15447,27 @@
       </c>
       <c r="G45" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,254 (0,158)</v>
+        <v>0,25 (0,16)</v>
       </c>
       <c r="H45" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,487 (0,015)</v>
+        <v>0,49 (0,01)</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,813 (0,018)</v>
+        <v>0,81 (0,02)</v>
       </c>
       <c r="J45" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,388 (0,007)</v>
+        <v>0,39 (0,01)</v>
       </c>
       <c r="K45" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,282 (0,149)</v>
+        <v>0,28 (0,15)</v>
       </c>
       <c r="L45" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,285 (0,148)</v>
+        <v>0,29 (0,15)</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -15477,47 +15477,47 @@
       </c>
       <c r="B46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,434 (0,122)</v>
+        <v>0,43 (0,12)</v>
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,44 (0,124)</v>
+        <v>0,44 (0,12)</v>
       </c>
       <c r="D46" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,332 (0,085)</v>
+        <v>0,33 (0,09)</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,337 (0,086)</v>
+        <v>0,34 (0,09)</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,951 (0)</v>
+        <v>0,95 (0)</v>
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,36 (0,091)</v>
+        <v>0,36 (0,09)</v>
       </c>
       <c r="H46" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,496 (0,122)</v>
+        <v>0,5 (0,12)</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,967 (0,004)</v>
+        <v>0,97 (0)</v>
       </c>
       <c r="J46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,058 (0,011)</v>
+        <v>0,06 (0,01)</v>
       </c>
       <c r="K46" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,253 (0,034)</v>
+        <v>0,25 (0,03)</v>
       </c>
       <c r="L46" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,232 (0,129)</v>
+        <v>0,23 (0,13)</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -15527,47 +15527,47 @@
       </c>
       <c r="B47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,274 (0,239)</v>
+        <v>0,27 (0,24)</v>
       </c>
       <c r="C47" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,299 (0,235)</v>
+        <v>0,3 (0,24)</v>
       </c>
       <c r="D47" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,218 (0,218)</v>
+        <v>0,22 (0,22)</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,24 (0,224)</v>
+        <v>0,24 (0,22)</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,954 (0,005)</v>
+        <v>0,95 (0,01)</v>
       </c>
       <c r="G47" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,336 (0,281)</v>
+        <v>0,34 (0,28)</v>
       </c>
       <c r="H47" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,449 (0,183)</v>
+        <v>0,45 (0,18)</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,817 (0,105)</v>
+        <v>0,82 (0,11)</v>
       </c>
       <c r="J47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,284 (0,163)</v>
+        <v>0,28 (0,16)</v>
       </c>
       <c r="K47" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,22 (0,165)</v>
+        <v>0,22 (0,16)</v>
       </c>
       <c r="L47" s="6" t="str">
         <f t="shared" si="21"/>
-        <v>0,274 (0,237)</v>
+        <v>0,27 (0,24)</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\mcti\Bert_meta_learning_papers\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B914B5FF-5D92-449C-B293-F12EA9D7B538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25D71E-3E0E-4879-B3CD-1B08DDFDDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2895" windowWidth="16440" windowHeight="28590" tabRatio="598" firstSheet="1" activeTab="2" xr2:uid="{30A5EA36-F24E-479D-B263-18F3D6B30C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="598" firstSheet="1" activeTab="3" xr2:uid="{30A5EA36-F24E-479D-B263-18F3D6B30C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="50pos_50neg_train_valid_results" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="89">
   <si>
     <t>wss@95_old</t>
   </si>
@@ -259,14 +259,81 @@
   <si>
     <t>treshold@95</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Skeletal Muscle Relaxants</t>
+  </si>
+  <si>
+    <t>ACE Inhibitors</t>
+  </si>
+  <si>
+    <t>Atypical Antipsychotics</t>
+  </si>
+  <si>
+    <t>Beta Blockers</t>
+  </si>
+  <si>
+    <t>Calcium Channel Blockers</t>
+  </si>
+  <si>
+    <t>Oral Hypoglycemics</t>
+  </si>
+  <si>
+    <t>Proton Pump Inhibitors</t>
+  </si>
+  <si>
+    <t>Urinary Incontinence</t>
+  </si>
+  <si>
+    <t>Head and neck cancer bone</t>
+  </si>
+  <si>
+    <t>Leafy Greens Future set</t>
+  </si>
+  <si>
+    <t>Total knee replacement</t>
+  </si>
+  <si>
+    <t>Vascular access</t>
+  </si>
+  <si>
+    <t>Dementia (Bos)</t>
+  </si>
+  <si>
+    <t>Dementia (Wolters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineering </t>
+  </si>
+  <si>
+    <t>Software Fault Prediction Metrics</t>
+  </si>
+  <si>
+    <t>wss@95_{old}</t>
+  </si>
+  <si>
+    <t>wss@R_{old}</t>
+  </si>
+  <si>
+    <t>wss@95_{new}</t>
+  </si>
+  <si>
+    <t>wss@R_{new}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -297,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -307,11 +374,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.000000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -3235,8 +3312,8 @@
     <dataField name="Média de treshould@95" fld="10" subtotal="average" baseField="11" baseItem="0"/>
     <dataField name="DesvPadp de treshould@95" fld="10" subtotal="stdDevp" baseField="11" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="0">
+  <formats count="3">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3247,6 +3324,23 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="11" count="3">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3467,6 +3561,11 @@
     <dataField name="Média de treshould@95" fld="10" subtotal="average" baseField="11" baseItem="0"/>
     <dataField name="DesvPadp de treshould@95" fld="10" subtotal="stdDevp" baseField="11" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3541,14 +3640,14 @@
     <tableColumn id="4" xr3:uid="{E6076950-1618-4496-8800-8036AE879A53}" uniqueName="4" name="wss@95_new" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{AE014979-C619-419D-A965-0B1EFF916602}" uniqueName="5" name="wss@R_old" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{89D29F80-A39E-4453-8489-8A49C3568139}" uniqueName="6" name="wss@R_new" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{3160D2E6-5060-44D7-8AF6-F70112006D1B}" uniqueName="7" name="Recall_wss@95" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{42D915B3-9192-4637-AA5F-ABE784E4EA0E}" uniqueName="8" name="Recall_wss@R" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1B03C0E4-BB89-44AA-97A2-4A05C1E671B3}" uniqueName="9" name="acc@95" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3160D2E6-5060-44D7-8AF6-F70112006D1B}" uniqueName="7" name="Recall_wss@95" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{42D915B3-9192-4637-AA5F-ABE784E4EA0E}" uniqueName="8" name="Recall_wss@R" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{1B03C0E4-BB89-44AA-97A2-4A05C1E671B3}" uniqueName="9" name="acc@95" queryTableFieldId="9" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{91D0CE9B-5E05-44A5-A08F-C4D4ECD91B61}" uniqueName="10" name="acc@R" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{EE5F3D9C-E429-4BD3-BCDE-A110FF0DED6C}" uniqueName="11" name="f1@95" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{B23E1471-7DE1-40AB-9592-956ED7DFD9A6}" uniqueName="12" name="f1@R" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{E74CF2AA-4082-4711-AEE8-5E1B26E0EB19}" uniqueName="13" name="treshould@95" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{0853A30B-F79A-4127-B8F4-6E794F0E0164}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{0853A30B-F79A-4127-B8F4-6E794F0E0164}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{CFA6DA64-D72B-4D14-AD7A-DCB30ED6EC07}" uniqueName="15" name="layer_size" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{A67C9A5F-3354-4FAE-AD77-51AB2A2F65AB}" uniqueName="16" name="attempt" queryTableFieldId="16"/>
   </tableColumns>
@@ -3563,7 +3662,7 @@
     <tableColumn id="3" xr3:uid="{6E5896F3-3C32-4716-8F72-402670075949}" uniqueName="3" name="wss@95_old" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{08E80ACE-DD3A-4CD8-A0DF-2D13F7A3951E}" uniqueName="4" name="wss@95_new" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{1F31541A-927C-40CC-8AB9-D9C59DF14661}" uniqueName="5" name="wss@R_old" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{CC71A87C-3E12-43B7-A9A5-E51247FD1282}" uniqueName="6" name="wss@R_new" queryTableFieldId="6"/>
+    <tableColumn id="6" xr3:uid="{CC71A87C-3E12-43B7-A9A5-E51247FD1282}" uniqueName="6" name=" " queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{19B028BA-6E72-43C0-A904-34E8678A8ED6}" uniqueName="7" name="Recall_wss@95" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{301CEFF4-A9F5-4D60-8116-41D8FAECC4BA}" uniqueName="8" name="Recall_wss@R" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{9E6F6779-47A8-466D-936D-9BF7E7607A48}" uniqueName="9" name="acc@95" queryTableFieldId="9"/>
@@ -3571,7 +3670,7 @@
     <tableColumn id="11" xr3:uid="{1A90947F-30AB-4D56-B56E-379D20CE7553}" uniqueName="11" name="f1@95" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{7254EC49-3C05-4B67-ABB6-C63F76263AEE}" uniqueName="12" name="f1@R" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{D2D3D90C-1C30-40D5-8E48-E1E4968C7F86}" uniqueName="13" name="treshould@95" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{9B28D623-8553-4115-B2CA-59F597DFB4D3}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{9B28D623-8553-4115-B2CA-59F597DFB4D3}" uniqueName="14" name="name" queryTableFieldId="14" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{602A1FCC-91FD-406B-B262-582B2F750B63}" uniqueName="15" name="layer_size" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{DF2EC655-F5BA-485B-B09F-D6303F83A33E}" uniqueName="16" name="attempt" queryTableFieldId="16"/>
   </tableColumns>
@@ -6594,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DA1156-2923-4FF6-A6F0-334392BF92D8}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD204"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -11067,10 +11166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12664480-544B-4496-BA37-8EC01FEF16F8}">
-  <dimension ref="A2:W31"/>
+  <dimension ref="A2:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11088,14 +11187,11 @@
     <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -11227,70 +11323,70 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>0.89738000000000007</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>3.8910893076357748E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>0.89790000000000014</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>3.89389779013233E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>0.73171999999999993</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>0.10992933002615833</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>0.73208000000000006</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>0.10997715035406155</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="7">
         <v>0.86668000000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="7">
         <v>0.16328298625392676</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="7">
         <v>0.89792411327362021</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="7">
         <v>3.8907208814957572E-2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="7">
         <v>0.86542590856552093</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="7">
         <v>6.0712210598952002E-2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="7">
         <v>1.246883170679206E-2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="7">
         <v>5.6663170819265746E-3</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="7">
         <v>9.4242745079099587E-3</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="7">
         <v>6.4206913277951218E-3</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="7">
         <v>0.89485147199999981</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="7">
         <v>5.7782058577555737E-2</v>
       </c>
     </row>
@@ -11298,70 +11394,70 @@
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>0.84162000000000003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>1.6335164523198838E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>0.85066000000000008</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>1.653028735382232E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>0.80667999999999984</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>2.4425429371870064E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>0.81537999999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>2.4698291438882271E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>0.95120000000000005</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="7">
         <v>0.88778000000000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="7">
         <v>3.3077146188870532E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="7">
         <v>0.89999999999999947</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <v>1.6342742032860964E-2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="7">
         <v>0.92714508771896342</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="7">
         <v>1.65497362263714E-2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="7">
         <v>0.1715493172407144</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="7">
         <v>2.1843755629438643E-2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="7">
         <v>0.21273892819881399</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="7">
         <v>3.7180719267573867E-2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="7">
         <v>0.79785734999999991</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="7">
         <v>0.12335355605427506</v>
       </c>
     </row>
@@ -11369,70 +11465,70 @@
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>0.31508000000000003</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>9.3138378770515409E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>0.34439999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0.10175651330504587</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>0.11204</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>0.11945378353153992</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>0.12248000000000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="7">
         <v>0.13057358691557797</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>0.95830000000000004</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="7">
         <v>0.2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="7">
         <v>0.2195234748267256</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="7">
         <v>0.4347517788410184</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="7">
         <v>9.3110604356809859E-2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="7">
         <v>0.86099290847778298</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="7">
         <v>6.3251930522413305E-2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="7">
         <v>0.2271755754947658</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="7">
         <v>2.5289056531339758E-2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="7">
         <v>0.135892033576965</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="7">
         <v>0.11837369300445504</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="7">
         <v>0.53236587000000002</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="7">
         <v>0.10953179683549104</v>
       </c>
     </row>
@@ -11440,70 +11536,70 @@
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>0.33537999999999996</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>5.97815155378318E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>0.34304000000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>6.1130830192301359E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>4.8259999999999997E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>8.7237505695658218E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>4.9340000000000002E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>8.920357840355958E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>0.97300000000000009</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="7">
         <v>5.9459999999999999E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="7">
         <v>0.1059373701769116</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="7">
         <v>0.38349397778511018</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="7">
         <v>5.9773608709877857E-2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="7">
         <v>0.96915663480758618</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="7">
         <v>1.4031869148251339E-2</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="7">
         <v>6.6277945041656461E-2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="7">
         <v>6.0643942753478971E-3</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="7">
         <v>4.2188034951686659E-2</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="7">
         <v>6.6213883914416807E-2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="7">
         <v>0.2989041308</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="7">
         <v>0.16215335943403067</v>
       </c>
     </row>
@@ -11511,70 +11607,70 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>0.14616000000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>3.9895292955435278E-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.47497999999999996</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0.12956334975601713</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>9.9799999999999993E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>1.0595357473912808E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>3.2419999999999997E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>3.4416066015743284E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>0.9667</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="7">
         <v>7.400000000001075E-3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="7">
         <v>4.0739999999999991E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="7">
         <v>4.884881165391846E-2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="7">
         <v>0.82564101219177233</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="7">
         <v>3.7684446412826755E-2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="7">
         <v>0.33333334326744035</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="7">
         <v>2.9235265567677193E-2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="7">
         <v>0.88538403511047326</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="7">
         <v>2.1499923904940394E-2</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="7">
         <v>7.3486650735139603E-2</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="7">
         <v>8.531091916044152E-2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="7">
         <v>0.42940730399999999</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="7">
         <v>0.17223397666855059</v>
       </c>
     </row>
@@ -11582,70 +11678,70 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>0.38769999999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>6.8421692466644091E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.39536000000000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>6.9809271590527314E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>0.3548</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>7.366038283908112E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>0.36182000000000003</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>7.5133012717446393E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <v>0.9696999999999999</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <v>1.6858739404357613E-8</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="7">
         <v>0.52727999999999997</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="7">
         <v>0.13363962585999686</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="7">
         <v>0.43623529672622646</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="7">
         <v>6.8440463137214649E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="7">
         <v>0.82858822345733629</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="7">
         <v>5.8629811634167424E-2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="7">
         <v>6.3379450142383525E-2</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="7">
         <v>6.877195991606239E-3</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="7">
         <v>0.11022618263959853</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="7">
         <v>1.1562268080407027E-2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="7">
         <v>0.39094802999999995</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="7">
         <v>0.16467368739894347</v>
       </c>
     </row>
@@ -11653,70 +11749,70 @@
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>0.71936</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>3.3023058610612811E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>0.73011999999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>3.3538419760030982E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>0.43268000000000006</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>0.20639148625851789</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="7">
         <v>0.43912000000000007</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="7">
         <v>0.2095248472138804</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="7">
         <v>0.95399999999999996</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="7">
         <v>1.1920928955078126E-8</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="7">
         <v>0.48503999999999997</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="7">
         <v>0.23973941353060849</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="7">
         <v>0.77871403694152797</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="7">
         <v>3.3024913142030633E-2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="7">
         <v>0.94717427492141648</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="7">
         <v>2.8819381742774219E-2</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="7">
         <v>0.11452863216400107</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="7">
         <v>1.441689553829553E-2</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="7">
         <v>0.21071743369102419</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="7">
         <v>4.2662697956014954E-2</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="7">
         <v>0.651737236</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="7">
         <v>0.14158526754687392</v>
       </c>
     </row>
@@ -11724,70 +11820,70 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>0.78444000000000003</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>2.4178056166697014E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>0.78964000000000001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>2.4343919158590719E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>0.58899999999999997</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>0.23780678711929149</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>0.59292000000000011</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="7">
         <v>0.23938289329022641</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>0.97439999999999993</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <v>1.6858739404357613E-8</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="7">
         <v>0.64101999999999992</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="7">
         <v>0.27519288798949754</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="7">
         <v>0.81631623506545981</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="7">
         <v>2.4178080071069089E-2</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="7">
         <v>0.9498402118682856</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="7">
         <v>3.6990337403654587E-2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="7">
         <v>6.6037328541278834E-2</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="7">
         <v>7.8924927680933225E-3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="7">
         <v>0.192953266203403</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="7">
         <v>7.4046279930681067E-2</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="7">
         <v>0.54376568200000008</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="7">
         <v>7.2458866913777537E-2</v>
       </c>
     </row>
@@ -11795,70 +11891,70 @@
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>0.39022000000000007</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>7.1627631539790307E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0.39576</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>7.2615744849171812E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>0.13742000000000001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>8.2981887180275646E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>0.13936000000000001</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>8.4172171173137689E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="7">
         <v>0.15556</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="7">
         <v>9.5585785554129318E-2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="7">
         <v>0.40418930053710883</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="7">
         <v>7.1603829654222462E-2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="7">
         <v>0.97222654819488474</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="7">
         <v>1.1257318243154237E-2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="7">
         <v>4.5364068448543522E-2</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="7">
         <v>5.1295505454360645E-3</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="7">
         <v>0.1190486878156658</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="7">
         <v>6.1365054295121055E-2</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="7">
         <v>0.36891907400000001</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="7">
         <v>0.10277728735643019</v>
       </c>
     </row>
@@ -11866,70 +11962,70 @@
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>0.75788</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>8.1870492853041418E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>0.80234000000000005</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>8.6690728454661442E-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>0.60758000000000012</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>0.14204570250451068</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>0.64323999999999992</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>0.1503487758513522</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <v>0.95830000000000004</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="7">
         <v>0.68334000000000006</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="7">
         <v>0.18369903211503302</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="7">
         <v>0.85034643411636279</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="7">
         <v>8.1866024658119277E-2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="7">
         <v>0.94457275867462109</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="7">
         <v>3.2431386424082415E-2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="7">
         <v>0.46074156165122959</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="7">
         <v>0.15027761433547471</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="7">
         <v>0.59789475798606839</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="7">
         <v>9.0485933718843198E-2</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="7">
         <v>0.81435449799999993</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="7">
         <v>6.0158910543857184E-2</v>
       </c>
     </row>
@@ -11937,70 +12033,70 @@
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>0.51429999999999998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>9.8018753307721529E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>0.52263999999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>9.9602682694795011E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>0.26590000000000003</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>0.13155371526490603</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>0.27022000000000002</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="7">
         <v>0.13370704394309219</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="7">
         <v>0.32726</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="7">
         <v>0.15851709813140033</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="7">
         <v>0.53024601936340277</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="7">
         <v>9.8039669282752484E-2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="7">
         <v>0.93314038515090902</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="7">
         <v>4.4022780613819527E-2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="7">
         <v>6.6237459331750848E-2</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="7">
         <v>1.4348945064723274E-2</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="7">
         <v>0.15547314137220339</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="7">
         <v>9.3407906841606395E-2</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="7">
         <v>0.55779382200000005</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="7">
         <v>0.14375328611651569</v>
       </c>
     </row>
@@ -12008,70 +12104,70 @@
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>0.69381999999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>9.0518912940887722E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>0.69564000000000004</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>9.0747442939181092E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>0.50259999999999994</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>0.27201217619805196</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="7">
         <v>0.50393999999999994</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="7">
         <v>0.2727122190148436</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="7">
         <v>0.56364000000000003</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="7">
         <v>0.32219782494610372</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="7">
         <v>0.69644476175308156</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="7">
         <v>9.0526507933303593E-2</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="7">
         <v>0.93929849863052317</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="7">
         <v>5.4233242761189002E-2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="7">
         <v>1.8543111905455562E-2</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="7">
         <v>5.3299516604487724E-3</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="7">
         <v>9.0450420975684842E-2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="7">
         <v>5.3312661126134288E-2</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="7">
         <v>0.80178677599999992</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="7">
         <v>7.3407969399027967E-2</v>
       </c>
     </row>
@@ -12079,85 +12175,88 @@
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>0.56527833333333344</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>0.24487256624052856</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>0.60354000000000008</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>0.21625135930208597</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>0.38322166666666657</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>0.2982998743388196</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="7">
         <v>0.39186000000000004</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="7">
         <v>0.29996584705596063</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="7">
         <v>0.97546666666666704</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="7">
         <v>1.8749903703444034E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="7">
         <v>0.45315</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="7">
         <v>0.3382456767400483</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="7">
         <v>0.66285858054955793</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="7">
         <v>0.20988319797310728</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="7">
         <v>0.87257456531127287</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="7">
         <v>0.17336934603385692</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="7">
         <v>0.18314060973158711</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="7">
         <v>0.24704606388204567</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="7">
         <v>0.16254115105451367</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="7">
         <v>0.16067563839757126</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="7">
         <v>0.59022427040000003</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="7">
         <v>0.22727018083600165</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
@@ -12182,9 +12281,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" ref="A19:A31" si="0">A4</f>
-        <v>Bos_2018</v>
+      <c r="A19" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="6" t="str">
         <f>ROUND(B4,$A$2)&amp;" ("&amp;ROUND(C4,$B$2)&amp;")"</f>
@@ -12232,412 +12330,403 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f t="shared" ref="B20:B31" si="0">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
+        <v>0,84 (0,02)</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f t="shared" ref="C20:C31" si="1">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
+        <v>0,85 (0,02)</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f t="shared" ref="D20:D31" si="2">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
+        <v>0,81 (0,02)</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" ref="E20:E31" si="3">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
+        <v>0,82 (0,02)</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" ref="F20:F31" si="4">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" ref="G20:G31" si="5">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
+        <v>0,89 (0,03)</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f t="shared" ref="H20:H31" si="6">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
+        <v>0,9 (0,02)</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f t="shared" ref="I20:I31" si="7">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
+        <v>0,93 (0,02)</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f t="shared" ref="J20:J31" si="8">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
+        <v>0,17 (0,02)</v>
+      </c>
+      <c r="K20" s="6" t="str">
+        <f t="shared" ref="K20:K31" si="9">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
+        <v>0,21 (0,04)</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f t="shared" ref="L20:L31" si="10">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
+        <v>0,8 (0,12)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Fluoride</v>
-      </c>
-      <c r="B20" s="6" t="str">
-        <f t="shared" ref="B20:B31" si="1">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
-        <v>0,84 (0,02)</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f t="shared" ref="C20:C31" si="2">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
-        <v>0,85 (0,02)</v>
-      </c>
-      <c r="D20" s="6" t="str">
-        <f t="shared" ref="D20:D31" si="3">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
-        <v>0,81 (0,02)</v>
-      </c>
-      <c r="E20" s="6" t="str">
-        <f t="shared" ref="E20:E31" si="4">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
-        <v>0,82 (0,02)</v>
-      </c>
-      <c r="F20" s="6" t="str">
-        <f t="shared" ref="F20:F31" si="5">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G20" s="6" t="str">
-        <f t="shared" ref="G20:G31" si="6">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
-        <v>0,89 (0,03)</v>
-      </c>
-      <c r="H20" s="6" t="str">
-        <f t="shared" ref="H20:H31" si="7">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
-        <v>0,9 (0,02)</v>
-      </c>
-      <c r="I20" s="6" t="str">
-        <f t="shared" ref="I20:I31" si="8">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
-        <v>0,93 (0,02)</v>
-      </c>
-      <c r="J20" s="6" t="str">
-        <f t="shared" ref="J20:J31" si="9">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
-        <v>0,17 (0,02)</v>
-      </c>
-      <c r="K20" s="6" t="str">
-        <f t="shared" ref="K20:K31" si="10">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
-        <v>0,21 (0,04)</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <f t="shared" ref="L20:L31" si="11">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
-        <v>0,8 (0,12)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+        <v>0,32 (0,09)</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,34 (0,1)</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,11 (0,12)</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,12 (0,13)</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,96 (0)</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,2 (0,22)</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,43 (0,09)</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,86 (0,06)</v>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,23 (0,03)</v>
+      </c>
+      <c r="K21" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,14 (0,12)</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,53 (0,11)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Head_and_neck_cancer_bone</v>
-      </c>
-      <c r="B21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,32 (0,09)</v>
-      </c>
-      <c r="C21" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,34 (0,1)</v>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,11 (0,12)</v>
-      </c>
-      <c r="E21" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,12 (0,13)</v>
-      </c>
-      <c r="F21" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,96 (0)</v>
-      </c>
-      <c r="G21" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,2 (0,22)</v>
-      </c>
-      <c r="H21" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,43 (0,09)</v>
-      </c>
-      <c r="I21" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,86 (0,06)</v>
-      </c>
-      <c r="J21" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,23 (0,03)</v>
-      </c>
-      <c r="K21" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,14 (0,12)</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,53 (0,11)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>Kitchenham_2010</v>
-      </c>
-      <c r="B22" s="6" t="str">
+        <v>0,34 (0,06)</v>
+      </c>
+      <c r="C22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>0,34 (0,06)</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="D22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,34 (0,06)</v>
-      </c>
-      <c r="D22" s="6" t="str">
+        <v>0,05 (0,09)</v>
+      </c>
+      <c r="E22" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,05 (0,09)</v>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="F22" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,05 (0,09)</v>
-      </c>
-      <c r="F22" s="6" t="str">
+        <v>0,97 (0)</v>
+      </c>
+      <c r="G22" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,97 (0)</v>
-      </c>
-      <c r="G22" s="6" t="str">
+        <v>0,06 (0,11)</v>
+      </c>
+      <c r="H22" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,06 (0,11)</v>
-      </c>
-      <c r="H22" s="6" t="str">
+        <v>0,38 (0,06)</v>
+      </c>
+      <c r="I22" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,38 (0,06)</v>
-      </c>
-      <c r="I22" s="6" t="str">
+        <v>0,97 (0,01)</v>
+      </c>
+      <c r="J22" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,97 (0,01)</v>
-      </c>
-      <c r="J22" s="6" t="str">
+        <v>0,07 (0,01)</v>
+      </c>
+      <c r="K22" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,07 (0,01)</v>
-      </c>
-      <c r="K22" s="6" t="str">
+        <v>0,04 (0,07)</v>
+      </c>
+      <c r="L22" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,04 (0,07)</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,3 (0,16)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>Leafy_Greens_Future_set</v>
+      <c r="A23" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="6" t="str">
         <f>ROUND(B8,$A$2)&amp;" ("&amp;ROUND(C8,$B$2)&amp;")"</f>
         <v>0,15 (0,04)</v>
       </c>
       <c r="C23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,47 (0,13)</v>
+      </c>
+      <c r="D23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,47 (0,13)</v>
-      </c>
-      <c r="D23" s="6" t="str">
+        <v>0,01 (0,01)</v>
+      </c>
+      <c r="E23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,01 (0,01)</v>
-      </c>
-      <c r="E23" s="6" t="str">
+        <v>0,03 (0,03)</v>
+      </c>
+      <c r="F23" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,03 (0,03)</v>
-      </c>
-      <c r="F23" s="6" t="str">
+        <v>0,97 (0,01)</v>
+      </c>
+      <c r="G23" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,97 (0,01)</v>
-      </c>
-      <c r="G23" s="6" t="str">
+        <v>0,04 (0,05)</v>
+      </c>
+      <c r="H23" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,04 (0,05)</v>
-      </c>
-      <c r="H23" s="6" t="str">
+        <v>0,83 (0,04)</v>
+      </c>
+      <c r="I23" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,83 (0,04)</v>
-      </c>
-      <c r="I23" s="6" t="str">
+        <v>0,33 (0,03)</v>
+      </c>
+      <c r="J23" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,33 (0,03)</v>
-      </c>
-      <c r="J23" s="6" t="str">
+        <v>0,89 (0,02)</v>
+      </c>
+      <c r="K23" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,89 (0,02)</v>
-      </c>
-      <c r="K23" s="6" t="str">
+        <v>0,07 (0,09)</v>
+      </c>
+      <c r="L23" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,07 (0,09)</v>
-      </c>
-      <c r="L23" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,43 (0,17)</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Opiods</v>
-      </c>
-      <c r="B24" s="6" t="str">
+        <v>0,39 (0,07)</v>
+      </c>
+      <c r="C24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,39 (0,07)</v>
-      </c>
-      <c r="C24" s="6" t="str">
+        <v>0,4 (0,07)</v>
+      </c>
+      <c r="D24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,4 (0,07)</v>
-      </c>
-      <c r="D24" s="6" t="str">
+        <v>0,35 (0,07)</v>
+      </c>
+      <c r="E24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,35 (0,07)</v>
-      </c>
-      <c r="E24" s="6" t="str">
+        <v>0,36 (0,08)</v>
+      </c>
+      <c r="F24" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,36 (0,08)</v>
-      </c>
-      <c r="F24" s="6" t="str">
+        <v>0,97 (0)</v>
+      </c>
+      <c r="G24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,97 (0)</v>
-      </c>
-      <c r="G24" s="6" t="str">
+        <v>0,53 (0,13)</v>
+      </c>
+      <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,53 (0,13)</v>
-      </c>
-      <c r="H24" s="6" t="str">
+        <v>0,44 (0,07)</v>
+      </c>
+      <c r="I24" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,44 (0,07)</v>
-      </c>
-      <c r="I24" s="6" t="str">
+        <v>0,83 (0,06)</v>
+      </c>
+      <c r="J24" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,83 (0,06)</v>
-      </c>
-      <c r="J24" s="6" t="str">
-        <f t="shared" si="9"/>
         <v>0,06 (0,01)</v>
       </c>
       <c r="K24" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,11 (0,01)</v>
-      </c>
-      <c r="L24" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,39 (0,16)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>PFOS-PFOA</v>
-      </c>
-      <c r="B25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,72 (0,03)</v>
-      </c>
-      <c r="C25" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,73 (0,03)</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,43 (0,21)</v>
-      </c>
-      <c r="E25" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,44 (0,21)</v>
-      </c>
-      <c r="F25" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G25" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,49 (0,24)</v>
-      </c>
-      <c r="H25" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,78 (0,03)</v>
-      </c>
-      <c r="I25" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,95 (0,03)</v>
-      </c>
-      <c r="J25" s="6" t="str">
         <f t="shared" si="9"/>
         <v>0,11 (0,01)</v>
       </c>
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,39 (0,16)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,72 (0,03)</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,73 (0,03)</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,43 (0,21)</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,44 (0,21)</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,49 (0,24)</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,78 (0,03)</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,95 (0,03)</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,11 (0,01)</v>
+      </c>
       <c r="K25" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,21 (0,04)</v>
+      </c>
+      <c r="L25" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,21 (0,04)</v>
-      </c>
-      <c r="L25" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,65 (0,14)</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Radjenovic_2013</v>
-      </c>
-      <c r="B26" s="6" t="str">
+        <v>0,78 (0,02)</v>
+      </c>
+      <c r="C26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,78 (0,02)</v>
-      </c>
-      <c r="C26" s="6" t="str">
+        <v>0,79 (0,02)</v>
+      </c>
+      <c r="D26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,79 (0,02)</v>
-      </c>
-      <c r="D26" s="6" t="str">
+        <v>0,59 (0,24)</v>
+      </c>
+      <c r="E26" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,59 (0,24)</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="F26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,59 (0,24)</v>
-      </c>
-      <c r="F26" s="6" t="str">
+        <v>0,97 (0)</v>
+      </c>
+      <c r="G26" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,97 (0)</v>
-      </c>
-      <c r="G26" s="6" t="str">
+        <v>0,64 (0,28)</v>
+      </c>
+      <c r="H26" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,64 (0,28)</v>
-      </c>
-      <c r="H26" s="6" t="str">
+        <v>0,82 (0,02)</v>
+      </c>
+      <c r="I26" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,82 (0,02)</v>
-      </c>
-      <c r="I26" s="6" t="str">
+        <v>0,95 (0,04)</v>
+      </c>
+      <c r="J26" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,95 (0,04)</v>
-      </c>
-      <c r="J26" s="6" t="str">
+        <v>0,07 (0,01)</v>
+      </c>
+      <c r="K26" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,07 (0,01)</v>
-      </c>
-      <c r="K26" s="6" t="str">
+        <v>0,19 (0,07)</v>
+      </c>
+      <c r="L26" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,19 (0,07)</v>
-      </c>
-      <c r="L26" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,54 (0,07)</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SkeletalMuscleRelaxants</v>
-      </c>
-      <c r="B27" s="6" t="str">
+        <v>0,39 (0,07)</v>
+      </c>
+      <c r="C27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,39 (0,07)</v>
-      </c>
-      <c r="C27" s="6" t="str">
+        <v>0,4 (0,07)</v>
+      </c>
+      <c r="D27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,4 (0,07)</v>
-      </c>
-      <c r="D27" s="6" t="str">
+        <v>0,14 (0,08)</v>
+      </c>
+      <c r="E27" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,14 (0,08)</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="F27" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,14 (0,08)</v>
-      </c>
-      <c r="F27" s="6" t="str">
+        <v>1 (0)</v>
+      </c>
+      <c r="G27" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>1 (0)</v>
-      </c>
-      <c r="G27" s="6" t="str">
+        <v>0,16 (0,1)</v>
+      </c>
+      <c r="H27" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,16 (0,1)</v>
-      </c>
-      <c r="H27" s="6" t="str">
+        <v>0,4 (0,07)</v>
+      </c>
+      <c r="I27" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,4 (0,07)</v>
-      </c>
-      <c r="I27" s="6" t="str">
+        <v>0,97 (0,01)</v>
+      </c>
+      <c r="J27" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,97 (0,01)</v>
-      </c>
-      <c r="J27" s="6" t="str">
+        <v>0,05 (0,01)</v>
+      </c>
+      <c r="K27" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,05 (0,01)</v>
-      </c>
-      <c r="K27" s="6" t="str">
+        <v>0,12 (0,06)</v>
+      </c>
+      <c r="L27" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,12 (0,06)</v>
-      </c>
-      <c r="L27" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,37 (0,1)</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Total_knee_replacement</v>
-      </c>
-      <c r="B28" s="6" t="str">
-        <f t="shared" si="1"/>
         <v>0,76 (0,08)</v>
       </c>
       <c r="C28" s="6" t="str">
@@ -12645,191 +12734,361 @@
         <v>0,8 (0,09)</v>
       </c>
       <c r="D28" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,61 (0,14)</v>
+      </c>
+      <c r="E28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,61 (0,14)</v>
-      </c>
-      <c r="E28" s="6" t="str">
+        <v>0,64 (0,15)</v>
+      </c>
+      <c r="F28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,64 (0,15)</v>
-      </c>
-      <c r="F28" s="6" t="str">
+        <v>0,96 (0)</v>
+      </c>
+      <c r="G28" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,96 (0)</v>
-      </c>
-      <c r="G28" s="6" t="str">
+        <v>0,68 (0,18)</v>
+      </c>
+      <c r="H28" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,68 (0,18)</v>
-      </c>
-      <c r="H28" s="6" t="str">
+        <v>0,85 (0,08)</v>
+      </c>
+      <c r="I28" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,85 (0,08)</v>
-      </c>
-      <c r="I28" s="6" t="str">
+        <v>0,94 (0,03)</v>
+      </c>
+      <c r="J28" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,94 (0,03)</v>
-      </c>
-      <c r="J28" s="6" t="str">
+        <v>0,46 (0,15)</v>
+      </c>
+      <c r="K28" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,46 (0,15)</v>
-      </c>
-      <c r="K28" s="6" t="str">
+        <v>0,6 (0,09)</v>
+      </c>
+      <c r="L28" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,6 (0,09)</v>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,81 (0,06)</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Vascular_access</v>
-      </c>
-      <c r="B29" s="6" t="str">
+        <v>0,51 (0,1)</v>
+      </c>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,51 (0,1)</v>
-      </c>
-      <c r="C29" s="6" t="str">
+        <v>0,52 (0,1)</v>
+      </c>
+      <c r="D29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,52 (0,1)</v>
-      </c>
-      <c r="D29" s="6" t="str">
+        <v>0,27 (0,13)</v>
+      </c>
+      <c r="E29" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,27 (0,13)</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="F29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,27 (0,13)</v>
-      </c>
-      <c r="F29" s="6" t="str">
+        <v>1 (0)</v>
+      </c>
+      <c r="G29" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>1 (0)</v>
-      </c>
-      <c r="G29" s="6" t="str">
+        <v>0,33 (0,16)</v>
+      </c>
+      <c r="H29" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,33 (0,16)</v>
-      </c>
-      <c r="H29" s="6" t="str">
+        <v>0,53 (0,1)</v>
+      </c>
+      <c r="I29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,53 (0,1)</v>
-      </c>
-      <c r="I29" s="6" t="str">
+        <v>0,93 (0,04)</v>
+      </c>
+      <c r="J29" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,93 (0,04)</v>
-      </c>
-      <c r="J29" s="6" t="str">
+        <v>0,07 (0,01)</v>
+      </c>
+      <c r="K29" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,07 (0,01)</v>
-      </c>
-      <c r="K29" s="6" t="str">
+        <v>0,16 (0,09)</v>
+      </c>
+      <c r="L29" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,16 (0,09)</v>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,56 (0,14)</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Wolters_2018</v>
-      </c>
-      <c r="B30" s="6" t="str">
+        <v>0,69 (0,09)</v>
+      </c>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,69 (0,09)</v>
-      </c>
-      <c r="C30" s="6" t="str">
+        <v>0,7 (0,09)</v>
+      </c>
+      <c r="D30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,7 (0,09)</v>
-      </c>
-      <c r="D30" s="6" t="str">
+        <v>0,5 (0,27)</v>
+      </c>
+      <c r="E30" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0,5 (0,27)</v>
       </c>
-      <c r="E30" s="6" t="str">
+      <c r="F30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,5 (0,27)</v>
-      </c>
-      <c r="F30" s="6" t="str">
+        <v>1 (0)</v>
+      </c>
+      <c r="G30" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>1 (0)</v>
-      </c>
-      <c r="G30" s="6" t="str">
+        <v>0,56 (0,32)</v>
+      </c>
+      <c r="H30" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,56 (0,32)</v>
-      </c>
-      <c r="H30" s="6" t="str">
+        <v>0,7 (0,09)</v>
+      </c>
+      <c r="I30" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,7 (0,09)</v>
-      </c>
-      <c r="I30" s="6" t="str">
+        <v>0,94 (0,05)</v>
+      </c>
+      <c r="J30" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,94 (0,05)</v>
-      </c>
-      <c r="J30" s="6" t="str">
+        <v>0,02 (0,01)</v>
+      </c>
+      <c r="K30" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,02 (0,01)</v>
-      </c>
-      <c r="K30" s="6" t="str">
+        <v>0,09 (0,05)</v>
+      </c>
+      <c r="L30" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,09 (0,05)</v>
-      </c>
-      <c r="L30" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,8 (0,07)</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
+        <f t="shared" ref="A19:A31" si="11">A16</f>
+        <v>Total Geral</v>
+      </c>
+      <c r="B31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Total Geral</v>
-      </c>
-      <c r="B31" s="6" t="str">
+        <v>0,57 (0,24)</v>
+      </c>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,57 (0,24)</v>
-      </c>
-      <c r="C31" s="6" t="str">
+        <v>0,6 (0,22)</v>
+      </c>
+      <c r="D31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,6 (0,22)</v>
-      </c>
-      <c r="D31" s="6" t="str">
+        <v>0,38 (0,3)</v>
+      </c>
+      <c r="E31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,38 (0,3)</v>
-      </c>
-      <c r="E31" s="6" t="str">
+        <v>0,39 (0,3)</v>
+      </c>
+      <c r="F31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,39 (0,3)</v>
-      </c>
-      <c r="F31" s="6" t="str">
+        <v>0,98 (0,02)</v>
+      </c>
+      <c r="G31" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,98 (0,02)</v>
-      </c>
-      <c r="G31" s="6" t="str">
+        <v>0,45 (0,34)</v>
+      </c>
+      <c r="H31" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,45 (0,34)</v>
-      </c>
-      <c r="H31" s="6" t="str">
+        <v>0,66 (0,21)</v>
+      </c>
+      <c r="I31" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,66 (0,21)</v>
-      </c>
-      <c r="I31" s="6" t="str">
+        <v>0,87 (0,17)</v>
+      </c>
+      <c r="J31" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,87 (0,17)</v>
-      </c>
-      <c r="J31" s="6" t="str">
+        <v>0,18 (0,25)</v>
+      </c>
+      <c r="K31" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,18 (0,25)</v>
-      </c>
-      <c r="K31" s="6" t="str">
+        <v>0,16 (0,16)</v>
+      </c>
+      <c r="L31" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,16 (0,16)</v>
-      </c>
-      <c r="L31" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,59 (0,23)</v>
       </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -12840,8 +13099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1021A2-634B-4DD8-AC80-9497B6FA5DAB}">
   <dimension ref="A2:W47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12859,14 +13118,11 @@
     <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -12998,70 +13254,70 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>0.87944</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>1.5699757959919243E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>0.88802000000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>1.5830401132002164E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>0.82025999999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>6.3751159989446304E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>0.82821999999999996</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>6.4374883300864175E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <v>0.95350000000000001</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="7">
         <v>0.89768000000000003</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="7">
         <v>8.6503604549174246E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="7">
         <v>0.93470760583877532</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="7">
         <v>1.569385230087543E-2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="7">
         <v>0.93022630214691127</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="7">
         <v>2.4982366370408727E-2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="7">
         <v>0.22814046740531876</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="7">
         <v>4.6262721273967918E-2</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="7">
         <v>0.22272799611091559</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="7">
         <v>8.0908854094754123E-2</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="7">
         <v>0.88171420200000006</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="7">
         <v>7.9433904008897646E-2</v>
       </c>
     </row>
@@ -13069,70 +13325,70 @@
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>0.45660000000000006</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>6.3093961676217156E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>0.46642000000000011</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>6.4467771793353779E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>0.36993999999999994</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>9.1640462678884566E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>0.37787999999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>9.3649717564977031E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>0.95</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="7">
         <v>0.49000000000000005</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="7">
         <v>0.16015617378046959</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="7">
         <v>0.52553976178169215</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <v>6.308487308107763E-2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="7">
         <v>0.87951552867889382</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="7">
         <v>6.5420061847642222E-2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="7">
         <v>7.9069730639457672E-2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="7">
         <v>1.0478272597475797E-2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="7">
         <v>0.1564559802412982</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="7">
         <v>2.590793105893608E-2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="7">
         <v>0.26324483400000004</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="7">
         <v>0.16717226541054925</v>
       </c>
     </row>
@@ -13140,70 +13396,70 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>0.66521999999999992</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>6.4473355737080087E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>0.67452000000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>6.5381844574774528E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>0.29236000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>0.24333028253795294</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>0.29642000000000002</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="7">
         <v>0.24670367974556032</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>0.95399999999999996</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="7">
         <v>1.1920928955078126E-8</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="7">
         <v>0.39080000000000004</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="7">
         <v>0.33964583318509883</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="7">
         <v>0.72370545864105185</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="7">
         <v>6.4485736936889887E-2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="7">
         <v>0.89852732419967618</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="7">
         <v>8.8956440908242271E-2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="7">
         <v>9.1384164988994349E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="7">
         <v>2.1193362036652494E-2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="7">
         <v>9.3610560894012401E-2</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="7">
         <v>6.2216083996937489E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="7">
         <v>0.65102754399999996</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="7">
         <v>0.19040476644766149</v>
       </c>
     </row>
@@ -13211,70 +13467,70 @@
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>0.21743999999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>8.031574191900373E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>0.221</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>8.1638544817996372E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>0.12435999999999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>0.10303115257047261</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>0.12637999999999999</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>0.1047165774841787</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>0.96150000000000002</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="7">
         <v>0.16924</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="7">
         <v>0.15306826712287558</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="7">
         <v>0.2706822425127024</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="7">
         <v>8.0316267560465615E-2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="7">
         <v>0.94456055164337138</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="7">
         <v>4.7295862406481828E-2</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="7">
         <v>4.0862797200679743E-2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="7">
         <v>4.0874858265295411E-3</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="7">
         <v>8.6172712594270548E-2</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="7">
         <v>3.1775266685517382E-2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="7">
         <v>0.1978704912</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="7">
         <v>0.14891528818937602</v>
       </c>
     </row>
@@ -13282,70 +13538,70 @@
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>0.22373999999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>3.5554499012079979E-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.2404</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>3.8187799098665084E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>0.13231999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>7.9604205919034221E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>0.14213999999999999</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>8.5500680699044762E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>0.95430000000000015</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="7">
         <v>0.21942</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="7">
         <v>0.141225102584491</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="7">
         <v>0.33235759735107406</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="7">
         <v>3.5548841580689716E-2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="7">
         <v>0.87405061721801691</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="7">
         <v>4.5469935892616518E-2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="7">
         <v>0.16551963686943</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="7">
         <v>7.2103381675452834E-3</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="7">
         <v>0.16731366589665372</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="7">
         <v>8.0198604750268479E-2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="7">
         <v>0.22842496000000004</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="7">
         <v>0.1375786243734072</v>
       </c>
     </row>
@@ -13353,70 +13609,70 @@
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>0.35576000000000002</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>4.4579170023678068E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.39134000000000002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>4.9029240255178033E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>0.34411999999999998</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>0.15687783017367371</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>0.37858000000000003</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>0.17259750172004237</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <v>0.96050000000000002</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="7">
         <v>0.46580000000000005</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="7">
         <v>0.20204618283946868</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="7">
         <v>0.47904191017150827</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="7">
         <v>4.4566342493549925E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="7">
         <v>0.87209582328796331</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="7">
         <v>2.1240521210918996E-2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="7">
         <v>0.25241092443466118</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="7">
         <v>1.7507124619807482E-2</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="7">
         <v>0.38026140034198702</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="7">
         <v>0.10359838187848518</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="7">
         <v>0.10190145399999999</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="7">
         <v>5.2927318434613187E-2</v>
       </c>
     </row>
@@ -13424,70 +13680,70 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>7.5139999999999998E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>2.6301148263906646E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>0.10524</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>3.684587358171873E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>3.7060000000000003E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>3.6908405546704395E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="7">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="7">
         <v>5.1694951397597812E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="7">
         <v>0.95478000000000007</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="7">
         <v>4.7600000000002389E-3</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="7">
         <v>7.8580000000000011E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="7">
         <v>8.0966472073321805E-2</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="7">
         <v>0.38027211427688556</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="7">
         <v>2.7498474389995441E-2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="7">
         <v>0.7176870822906487</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="7">
         <v>5.2693548893420639E-3</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="7">
         <v>0.46844293475151</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="7">
         <v>1.0481488991573119E-2</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="7">
         <v>0.12136338502168634</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="7">
         <v>0.11862524344843281</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="7">
         <v>0.25590294399999997</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="7">
         <v>9.2109278321126142E-2</v>
       </c>
     </row>
@@ -13495,70 +13751,70 @@
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>5.432E-2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>1.1038731811218162E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>8.0079999999999998E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>1.6274077546822769E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>0.14118</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>2.0008538177488194E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>0.20805999999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="7">
         <v>2.9508073471509553E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>0.95321999999999996</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <v>1.371714255986072E-3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="7">
         <v>0.64732000000000001</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="7">
         <v>6.138066144967802E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="7">
         <v>0.3925724685192104</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="7">
         <v>1.1087778006651615E-2</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="7">
         <v>0.58858693838119502</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="7">
         <v>3.9625482637737693E-2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="7">
         <v>0.5023423254489896</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="7">
         <v>4.5687492685977269E-3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="7">
         <v>0.50294491052627532</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="7">
         <v>7.9041377313289647E-3</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="7">
         <v>0.29481438200000004</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="7">
         <v>0.17269820759643817</v>
       </c>
     </row>
@@ -13566,70 +13822,70 @@
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>0.14243999999999998</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>1.4451934126614501E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0.16624</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>1.6885330911770576E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>0.19374</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>6.7188350180667503E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>0.22608</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>7.8419829125037005E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>0.95240000000000014</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="7">
         <v>0.41088000000000002</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="7">
         <v>0.13862625148217775</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="7">
         <v>0.31945525407791081</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="7">
         <v>1.4459195027113824E-2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="7">
         <v>0.75739299058914145</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="7">
         <v>3.3241454720351116E-2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="7">
         <v>0.28589757680892902</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="7">
         <v>4.390829117216782E-3</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="7">
         <v>0.31654360890388455</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="7">
         <v>5.1292938938594719E-2</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="7">
         <v>0.21735671299999998</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="7">
         <v>0.10428252264238395</v>
       </c>
     </row>
@@ -13637,70 +13893,70 @@
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>7.3439999999999991E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>2.6273378161172974E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>9.4840000000000008E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>3.3951294526129654E-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>7.3379999999999987E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>7.4536686269245964E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>9.4759999999999997E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>9.6219137389606649E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <v>0.96012000000000008</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>1.4461175609190661E-2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="7">
         <v>0.15280000000000002</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="7">
         <v>0.18235487380380047</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="7">
         <v>0.3207986712455746</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="7">
         <v>3.3008893681995104E-2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="7">
         <v>0.76405990123748735</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="7">
         <v>3.0764488824066613E-2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="7">
         <v>0.38956844210624658</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="7">
         <v>8.4168141307944897E-3</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="7">
         <v>0.17260878421366183</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="7">
         <v>0.16063104569233427</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="7">
         <v>0.140340878</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="7">
         <v>0.11356740520003378</v>
       </c>
     </row>
@@ -13708,70 +13964,70 @@
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>3.4479999999999997E-2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>2.5292481096167684E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>4.3340000000000004E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>3.1829206713331698E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>7.5439999999999993E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>8.7489098749501365E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>9.4839999999999994E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="7">
         <v>0.10999331979715861</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="7">
         <v>0.95830000000000004</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="7">
         <v>0.18054000000000001</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="7">
         <v>0.23767547286163127</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="7">
         <v>0.26363635957241016</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="7">
         <v>2.5308021321274288E-2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="7">
         <v>0.7642045378684994</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="7">
         <v>5.4822918309023576E-2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="7">
         <v>0.34761194586753802</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="7">
         <v>8.0228453862044788E-3</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="7">
         <v>0.17270202673971619</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="7">
         <v>0.13961932445263536</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="7">
         <v>6.9189303600000002E-2</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="7">
         <v>3.0150895895255575E-2</v>
       </c>
     </row>
@@ -13779,70 +14035,70 @@
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>0.19882</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>3.5871236387947425E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>0.25236000000000003</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>4.5531553893975479E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>0.24152000000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>0.14153554182607278</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="7">
         <v>0.30657999999999996</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="7">
         <v>0.17969003756469079</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>0.95</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="7">
         <v>0.4325</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="7">
         <v>0.28707577396917344</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="7">
         <v>0.43978780508041321</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="7">
         <v>3.5878704954290352E-2</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="7">
         <v>0.78037133216857879</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="7">
         <v>3.1223208445763612E-2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="7">
         <v>0.41910396218299795</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="7">
         <v>1.6163542160463857E-2</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="7">
         <v>0.39281909465789755</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="7">
         <v>0.18334652623434747</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="7">
         <v>0.36381913599999999</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="7">
         <v>0.14934681544390674</v>
       </c>
     </row>
@@ -13850,70 +14106,70 @@
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>1.7056142588522179E-2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>2.3338466102124193E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>9.000000000000003E-4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>1.3601911630355491E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="7">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="7">
         <v>1.8639034309748993E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="7">
         <v>0.95419999999999994</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="7">
         <v>1.1920928955078126E-8</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="7">
         <v>2.5940000000000001E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="7">
         <v>1.4954143238581073E-2</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="7">
         <v>0.32566735744476261</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="7">
         <v>1.7061672109762286E-2</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="7">
         <v>0.71991786956787041</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="7">
         <v>1.5289125054070259E-2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="7">
         <v>0.43231604099273646</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="7">
         <v>6.2088603007051518E-3</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="7">
         <v>4.6306840330362281E-2</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="7">
         <v>2.5680498619353277E-2</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="7">
         <v>0.13769847339999999</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="7">
         <v>0.11043880296703645</v>
       </c>
     </row>
@@ -13921,70 +14177,70 @@
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>0.10582</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>2.0448413141366233E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>0.12820000000000001</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>2.4788868469536835E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <v>6.4140000000000003E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>6.7878173222325311E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="7">
         <v>7.7719999999999984E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="7">
         <v>8.2253301453497907E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="7">
         <v>0.95306000000000013</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="7">
         <v>1.7199999998958923E-3</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="7">
         <v>0.11304</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="7">
         <v>0.11063508665879916</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="7">
         <v>0.3110098659992212</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="7">
         <v>2.0473559613255355E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="7">
         <v>0.81594532728195124</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="7">
         <v>8.5177207650344068E-3</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="7">
         <v>0.32588295340537998</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="7">
         <v>6.4378188822426935E-3</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="7">
         <v>0.15066436454653695</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="7">
         <v>0.13297120738520191</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="7">
         <v>5.8710585400000001E-2</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="7">
         <v>2.9758330398312879E-2</v>
       </c>
     </row>
@@ -13992,70 +14248,70 @@
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>0.14923999999999998</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>3.6048556143069045E-2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>0.15676000000000001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>3.7871973806497039E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>0.13614000000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>1.8142612821751881E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="7">
         <v>0.14294000000000001</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="7">
         <v>1.9080209642453969E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="7">
         <v>0.95150000000000001</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="7">
         <v>0.18182000000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="7">
         <v>3.2305256538216948E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="7">
         <v>0.24093940556049304</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="7">
         <v>3.6053790661806966E-2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="7">
         <v>0.92386198043823209</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="7">
         <v>1.7829360774332663E-2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="7">
         <v>0.10728656053543043</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="7">
         <v>4.5388994019645761E-3</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="7">
         <v>0.18813095688819842</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="7">
         <v>1.7642139336646819E-2</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="7">
         <v>0.14092349200000001</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="7">
         <v>6.2541362688294314E-2</v>
       </c>
     </row>
@@ -14063,70 +14319,70 @@
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>0.19090000000000001</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>4.0756790845207655E-2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>0.28098000000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>5.9980876952575354E-2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <v>-4.3200000000000001E-3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>3.0465718438927392E-3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="7">
         <v>-6.3400000000000001E-3</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="7">
         <v>4.4724042751075176E-3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <v>0.95334000000000008</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="7">
         <v>1.879999999994196E-3</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="7">
         <v>2.2860000000000002E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="7">
         <v>1.8910378103041723E-2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="7">
         <v>0.52824428081512376</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="7">
         <v>4.1373760651629676E-2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="7">
         <v>0.66687021255493106</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="7">
         <v>9.0785192419342575E-3</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="7">
         <v>0.56521985530853247</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="7">
         <v>2.0392063980098064E-2</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="7">
         <v>4.0147681534290283E-2</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="7">
         <v>3.3165444410231837E-2</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="7">
         <v>0.16090548600000001</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="7">
         <v>3.3803940607643107E-2</v>
       </c>
     </row>
@@ -14134,70 +14390,70 @@
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>0.19470000000000001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>3.8480488562386964E-2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>0.25125999999999998</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>4.9635455069939716E-2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="7">
         <v>0.30740000000000001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>1.7911672172078546E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="7">
         <v>0.3967</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="7">
         <v>2.3089564742540501E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="7">
         <v>0.95996000000000004</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="7">
         <v>5.7199999999844944E-3</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="7">
         <v>0.57428000000000012</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="7">
         <v>8.1526962411216541E-2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="7">
         <v>0.44180064201354918</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="7">
         <v>4.1557545466197186E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="7">
         <v>0.76655949354171715</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="7">
         <v>3.8830940116277302E-2</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="7">
         <v>0.43707299828529295</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="7">
         <v>1.5954128842590554E-2</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="7">
         <v>0.52657654285430855</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="7">
         <v>1.9210843245240691E-2</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="7">
         <v>0.2145398094</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="7">
         <v>0.1097117271046982</v>
       </c>
     </row>
@@ -14205,70 +14461,70 @@
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>0.70356000000000007</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>3.3651306066777145E-2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>0.7131200000000002</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>3.4111546432252712E-2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="7">
         <v>0.53042</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>0.13646434552658798</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="7">
         <v>0.53766000000000003</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="7">
         <v>0.13829453496071356</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="7">
         <v>0.95150000000000001</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="7">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="7">
         <v>0.64851999999999999</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="7">
         <v>0.17129590070985379</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="7">
         <v>0.76421135663986173</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="7">
         <v>3.3646542233589427E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="7">
         <v>0.88586673736572263</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="7">
         <v>3.4452514142537138E-2</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="7">
         <v>9.9378709495067288E-2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="7">
         <v>1.3721494388622199E-2</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="7">
         <v>0.1357638806104656</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="7">
         <v>2.1788031267516553E-2</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="7">
         <v>0.58272220800000007</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="7">
         <v>0.20189593019060548</v>
       </c>
     </row>
@@ -14276,70 +14532,70 @@
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>0.28289999999999998</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>1.4874273091482801E-2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>0.34141999999999995</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>1.7970798535402243E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="7">
         <v>0.15079999999999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>8.8311720626426504E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="7">
         <v>0.18197999999999998</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="7">
         <v>0.10658518471157238</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="7">
         <v>0.95</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="7">
         <v>0.25383999999999995</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="7">
         <v>0.15751440061149971</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="7">
         <v>0.48712959289550739</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="7">
         <v>1.4876518719355388E-2</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="7">
         <v>0.81256551742553662</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="7">
         <v>1.8359401284873449E-2</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="7">
         <v>0.38848203420639005</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="7">
         <v>6.7996128136104941E-3</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="7">
         <v>0.28240373134613</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="7">
         <v>0.14949513057312974</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="7">
         <v>0.28546342000000002</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="7">
         <v>0.14818173941162913</v>
       </c>
     </row>
@@ -14347,70 +14603,70 @@
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>0.43356000000000006</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>0.12163927984002533</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>0.44042000000000003</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>0.12353489223697059</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="7">
         <v>0.33194000000000001</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>8.5098310206489974E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="7">
         <v>0.33717999999999998</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="7">
         <v>8.6478839030135007E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="7">
         <v>0.95109999999999995</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="7">
         <v>0</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="7">
         <v>0.36009999999999998</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="7">
         <v>9.0866231351366247E-2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="7">
         <v>0.49648718237876838</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="7">
         <v>0.12163084247653791</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="7">
         <v>0.96746739149093575</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="7">
         <v>3.5971636326364979E-3</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="7">
         <v>5.7986271381378116E-2</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="7">
         <v>1.0764517873811894E-2</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="7">
         <v>0.2527616351842874</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="7">
         <v>3.4293116803721227E-2</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="7">
         <v>0.23196577999999998</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="7">
         <v>0.12891200758081045</v>
       </c>
     </row>
@@ -14418,85 +14674,88 @@
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>0.27365100000000009</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>0.23882331439581014</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>0.29922799999999994</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>0.23506447884782611</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>0.21815499999999999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>0.2175162501400757</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="7">
         <v>0.24004499999999995</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="7">
         <v>0.22401770571765084</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="7">
         <v>0.95436399999999966</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="7">
         <v>5.1700003868904183E-3</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="7">
         <v>0.33579800000000004</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="7">
         <v>0.28134010733629849</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="7">
         <v>0.44890234664082518</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="7">
         <v>0.18300748886596122</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="7">
         <v>0.81651667296886432</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="7">
         <v>0.10505668659109536</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="7">
         <v>0.2841990166157482</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="7">
         <v>0.16276205477222591</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="7">
         <v>0.22041398797184211</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="7">
         <v>0.16481725174290901</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="7">
         <v>0.27392680480000003</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="7">
         <v>0.23730920308970416</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -14521,9 +14780,8 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>A4</f>
-        <v>Fluoride</v>
+      <c r="A27" t="s">
+        <v>17</v>
       </c>
       <c r="B27" s="6" t="str">
         <f>ROUND(B4,$A$2)&amp;" ("&amp;ROUND(C4,$B$2)&amp;")"</f>
@@ -14571,1002 +14829,983 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" ref="A28:A47" si="0">A5</f>
-        <v>Opiods</v>
+      <c r="A28" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="6" t="str">
-        <f t="shared" ref="B28:B47" si="1">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
+        <f t="shared" ref="B28:B47" si="0">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
         <v>0,46 (0,06)</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f t="shared" ref="C28:C39" si="2">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
+        <f t="shared" ref="C28:C39" si="1">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
         <v>0,47 (0,06)</v>
       </c>
       <c r="D28" s="6" t="str">
-        <f t="shared" ref="D28:D39" si="3">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
+        <f t="shared" ref="D28:D39" si="2">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
         <v>0,37 (0,09)</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f t="shared" ref="E28:E39" si="4">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
+        <f t="shared" ref="E28:E39" si="3">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
         <v>0,38 (0,09)</v>
       </c>
       <c r="F28" s="6" t="str">
-        <f t="shared" ref="F28:F39" si="5">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
+        <f t="shared" ref="F28:F39" si="4">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
         <v>0,95 (0)</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f t="shared" ref="G28:G39" si="6">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
+        <f t="shared" ref="G28:G39" si="5">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
         <v>0,49 (0,16)</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f t="shared" ref="H28:H39" si="7">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
+        <f t="shared" ref="H28:H39" si="6">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
         <v>0,53 (0,06)</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" ref="I28:I39" si="8">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
+        <f t="shared" ref="I28:I39" si="7">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
         <v>0,88 (0,07)</v>
       </c>
       <c r="J28" s="6" t="str">
-        <f t="shared" ref="J28:J39" si="9">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
+        <f t="shared" ref="J28:J39" si="8">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
         <v>0,08 (0,01)</v>
       </c>
       <c r="K28" s="6" t="str">
-        <f t="shared" ref="K28:K39" si="10">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
+        <f t="shared" ref="K28:K39" si="9">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
         <v>0,16 (0,03)</v>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" ref="L28:L39" si="11">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
+        <f t="shared" ref="L28:L39" si="10">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
         <v>0,26 (0,17)</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PFOS-PFOA</v>
-      </c>
-      <c r="B29" s="6" t="str">
+        <v>0,67 (0,06)</v>
+      </c>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,67 (0,06)</v>
-      </c>
-      <c r="C29" s="6" t="str">
+        <v>0,67 (0,07)</v>
+      </c>
+      <c r="D29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,67 (0,07)</v>
-      </c>
-      <c r="D29" s="6" t="str">
+        <v>0,29 (0,24)</v>
+      </c>
+      <c r="E29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,29 (0,24)</v>
-      </c>
-      <c r="E29" s="6" t="str">
+        <v>0,3 (0,25)</v>
+      </c>
+      <c r="F29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,3 (0,25)</v>
-      </c>
-      <c r="F29" s="6" t="str">
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G29" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G29" s="6" t="str">
+        <v>0,39 (0,34)</v>
+      </c>
+      <c r="H29" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,39 (0,34)</v>
-      </c>
-      <c r="H29" s="6" t="str">
+        <v>0,72 (0,06)</v>
+      </c>
+      <c r="I29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,72 (0,06)</v>
-      </c>
-      <c r="I29" s="6" t="str">
+        <v>0,9 (0,09)</v>
+      </c>
+      <c r="J29" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,9 (0,09)</v>
-      </c>
-      <c r="J29" s="6" t="str">
+        <v>0,09 (0,02)</v>
+      </c>
+      <c r="K29" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,09 (0,02)</v>
-      </c>
-      <c r="K29" s="6" t="str">
+        <v>0,09 (0,06)</v>
+      </c>
+      <c r="L29" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,09 (0,06)</v>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>0,65 (0,19)</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SkeletalMuscleRelaxants</v>
-      </c>
-      <c r="B30" s="6" t="str">
+        <v>0,22 (0,08)</v>
+      </c>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>0,22 (0,08)</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="D30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,22 (0,08)</v>
-      </c>
-      <c r="D30" s="6" t="str">
+        <v>0,12 (0,1)</v>
+      </c>
+      <c r="E30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,12 (0,1)</v>
-      </c>
-      <c r="E30" s="6" t="str">
+        <v>0,13 (0,1)</v>
+      </c>
+      <c r="F30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,13 (0,1)</v>
-      </c>
-      <c r="F30" s="6" t="str">
+        <v>0,96 (0)</v>
+      </c>
+      <c r="G30" s="6" t="str">
         <f t="shared" si="5"/>
+        <v>0,17 (0,15)</v>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,27 (0,08)</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,94 (0,05)</v>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,04 (0)</v>
+      </c>
+      <c r="K30" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,09 (0,03)</v>
+      </c>
+      <c r="L30" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,2 (0,15)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,22 (0,04)</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,24 (0,04)</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,13 (0,08)</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,14 (0,09)</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,22 (0,14)</v>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,33 (0,04)</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,87 (0,05)</v>
+      </c>
+      <c r="J31" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,17 (0,01)</v>
+      </c>
+      <c r="K31" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,17 (0,08)</v>
+      </c>
+      <c r="L31" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,23 (0,14)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,36 (0,04)</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,39 (0,05)</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,34 (0,16)</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,38 (0,17)</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>0,96 (0)</v>
       </c>
-      <c r="G30" s="6" t="str">
+      <c r="G32" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,47 (0,2)</v>
+      </c>
+      <c r="H32" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,17 (0,15)</v>
-      </c>
-      <c r="H30" s="6" t="str">
+        <v>0,48 (0,04)</v>
+      </c>
+      <c r="I32" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,27 (0,08)</v>
-      </c>
-      <c r="I30" s="6" t="str">
+        <v>0,87 (0,02)</v>
+      </c>
+      <c r="J32" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,94 (0,05)</v>
-      </c>
-      <c r="J30" s="6" t="str">
+        <v>0,25 (0,02)</v>
+      </c>
+      <c r="K32" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,04 (0)</v>
-      </c>
-      <c r="K30" s="6" t="str">
+        <v>0,38 (0,1)</v>
+      </c>
+      <c r="L32" s="6" t="str">
         <f t="shared" si="10"/>
+        <v>0,1 (0,05)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,08 (0,03)</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,11 (0,04)</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,04 (0,04)</v>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,05 (0,05)</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,08 (0,08)</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,38 (0,03)</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,72 (0,01)</v>
+      </c>
+      <c r="J33" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,47 (0,01)</v>
+      </c>
+      <c r="K33" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,12 (0,12)</v>
+      </c>
+      <c r="L33" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,26 (0,09)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,05 (0,01)</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,08 (0,02)</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,14 (0,02)</v>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,21 (0,03)</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G34" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,65 (0,06)</v>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,39 (0,01)</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,59 (0,04)</v>
+      </c>
+      <c r="J34" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,5 (0)</v>
+      </c>
+      <c r="K34" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,5 (0,01)</v>
+      </c>
+      <c r="L34" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,29 (0,17)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,14 (0,01)</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,17 (0,02)</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,19 (0,07)</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,23 (0,08)</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,41 (0,14)</v>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,32 (0,01)</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,76 (0,03)</v>
+      </c>
+      <c r="J35" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,29 (0)</v>
+      </c>
+      <c r="K35" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,32 (0,05)</v>
+      </c>
+      <c r="L35" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,22 (0,1)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,07 (0,03)</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>0,09 (0,03)</v>
       </c>
-      <c r="L30" s="6" t="str">
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,07 (0,07)</v>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,09 (0,1)</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,96 (0,01)</v>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,15 (0,18)</v>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,32 (0,03)</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,76 (0,03)</v>
+      </c>
+      <c r="J36" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,39 (0,01)</v>
+      </c>
+      <c r="K36" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,17 (0,16)</v>
+      </c>
+      <c r="L36" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,14 (0,11)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,03 (0,03)</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,04 (0,03)</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,08 (0,09)</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,09 (0,11)</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,96 (0)</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,18 (0,24)</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,26 (0,03)</v>
+      </c>
+      <c r="I37" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,76 (0,05)</v>
+      </c>
+      <c r="J37" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,35 (0,01)</v>
+      </c>
+      <c r="K37" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,17 (0,14)</v>
+      </c>
+      <c r="L37" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,07 (0,03)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,2 (0,04)</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,25 (0,05)</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,24 (0,14)</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,31 (0,18)</v>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,43 (0,29)</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,44 (0,04)</v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,78 (0,03)</v>
+      </c>
+      <c r="J38" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,42 (0,02)</v>
+      </c>
+      <c r="K38" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,39 (0,18)</v>
+      </c>
+      <c r="L38" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,36 (0,15)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,04 (0,02)</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,05 (0,02)</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0 (0,01)</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0 (0,02)</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,03 (0,01)</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0,33 (0,02)</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,72 (0,02)</v>
+      </c>
+      <c r="J39" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>0,43 (0,01)</v>
+      </c>
+      <c r="K39" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,05 (0,03)</v>
+      </c>
+      <c r="L39" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>0,14 (0,11)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,11 (0,02)</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f t="shared" ref="C40:C47" si="11">ROUND(D17,$A$2)&amp;" ("&amp;ROUND(E17,$B$2)&amp;")"</f>
+        <v>0,13 (0,02)</v>
+      </c>
+      <c r="D40" s="6" t="str">
+        <f t="shared" ref="D40:D47" si="12">ROUND(F17,$A$2)&amp;" ("&amp;ROUND(G17,$B$2)&amp;")"</f>
+        <v>0,06 (0,07)</v>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f t="shared" ref="E40:E47" si="13">ROUND(H17,$A$2)&amp;" ("&amp;ROUND(I17,$B$2)&amp;")"</f>
+        <v>0,08 (0,08)</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f t="shared" ref="F40:F47" si="14">ROUND(J17,$A$2)&amp;" ("&amp;ROUND(K17,$B$2)&amp;")"</f>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" ref="G40:G47" si="15">ROUND(L17,$A$2)&amp;" ("&amp;ROUND(M17,$B$2)&amp;")"</f>
+        <v>0,11 (0,11)</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f t="shared" ref="H40:H47" si="16">ROUND(N17,$A$2)&amp;" ("&amp;ROUND(O17,$B$2)&amp;")"</f>
+        <v>0,31 (0,02)</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f t="shared" ref="I40:I47" si="17">ROUND(P17,$A$2)&amp;" ("&amp;ROUND(Q17,$B$2)&amp;")"</f>
+        <v>0,82 (0,01)</v>
+      </c>
+      <c r="J40" s="6" t="str">
+        <f t="shared" ref="J40:J47" si="18">ROUND(R17,$A$2)&amp;" ("&amp;ROUND(S17,$B$2)&amp;")"</f>
+        <v>0,33 (0,01)</v>
+      </c>
+      <c r="K40" s="6" t="str">
+        <f t="shared" ref="K40:K47" si="19">ROUND(T17,$A$2)&amp;" ("&amp;ROUND(U17,$B$2)&amp;")"</f>
+        <v>0,15 (0,13)</v>
+      </c>
+      <c r="L40" s="6" t="str">
+        <f t="shared" ref="L40:L47" si="20">ROUND(V17,$A$2)&amp;" ("&amp;ROUND(W17,$B$2)&amp;")"</f>
+        <v>0,06 (0,03)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,15 (0,04)</v>
+      </c>
+      <c r="C41" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,2 (0,15)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>ACEInhibitors</v>
-      </c>
-      <c r="B31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,22 (0,04)</v>
-      </c>
-      <c r="C31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,24 (0,04)</v>
-      </c>
-      <c r="D31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,13 (0,08)</v>
-      </c>
-      <c r="E31" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,14 (0,09)</v>
-      </c>
-      <c r="F31" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G31" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,22 (0,14)</v>
-      </c>
-      <c r="H31" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,33 (0,04)</v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,87 (0,05)</v>
-      </c>
-      <c r="J31" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,17 (0,01)</v>
-      </c>
-      <c r="K31" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,17 (0,08)</v>
-      </c>
-      <c r="L31" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,23 (0,14)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>ADHD</v>
-      </c>
-      <c r="B32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,36 (0,04)</v>
-      </c>
-      <c r="C32" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,39 (0,05)</v>
-      </c>
-      <c r="D32" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,34 (0,16)</v>
-      </c>
-      <c r="E32" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,38 (0,17)</v>
-      </c>
-      <c r="F32" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,96 (0)</v>
-      </c>
-      <c r="G32" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,47 (0,2)</v>
-      </c>
-      <c r="H32" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,48 (0,04)</v>
-      </c>
-      <c r="I32" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,87 (0,02)</v>
-      </c>
-      <c r="J32" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,25 (0,02)</v>
-      </c>
-      <c r="K32" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,38 (0,1)</v>
-      </c>
-      <c r="L32" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,1 (0,05)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>Antihistamines</v>
-      </c>
-      <c r="B33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,08 (0,03)</v>
-      </c>
-      <c r="C33" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,11 (0,04)</v>
-      </c>
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,04 (0,04)</v>
-      </c>
-      <c r="E33" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,05 (0,05)</v>
-      </c>
-      <c r="F33" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G33" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,08 (0,08)</v>
-      </c>
-      <c r="H33" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,38 (0,03)</v>
-      </c>
-      <c r="I33" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,72 (0,01)</v>
-      </c>
-      <c r="J33" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,47 (0,01)</v>
-      </c>
-      <c r="K33" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,12 (0,12)</v>
-      </c>
-      <c r="L33" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,26 (0,09)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>AtypicalAntipsychotics</v>
-      </c>
-      <c r="B34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,05 (0,01)</v>
-      </c>
-      <c r="C34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,08 (0,02)</v>
-      </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="3"/>
+        <v>0,16 (0,04)</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f t="shared" si="12"/>
         <v>0,14 (0,02)</v>
       </c>
-      <c r="E34" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,21 (0,03)</v>
-      </c>
-      <c r="F34" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G34" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,65 (0,06)</v>
-      </c>
-      <c r="H34" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,39 (0,01)</v>
-      </c>
-      <c r="I34" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,59 (0,04)</v>
-      </c>
-      <c r="J34" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,5 (0)</v>
-      </c>
-      <c r="K34" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,5 (0,01)</v>
-      </c>
-      <c r="L34" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,29 (0,17)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>BetaBlockers</v>
-      </c>
-      <c r="B35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,14 (0,01)</v>
-      </c>
-      <c r="C35" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,17 (0,02)</v>
-      </c>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,19 (0,07)</v>
-      </c>
-      <c r="E35" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,23 (0,08)</v>
-      </c>
-      <c r="F35" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,41 (0,14)</v>
-      </c>
-      <c r="H35" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,32 (0,01)</v>
-      </c>
-      <c r="I35" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,76 (0,03)</v>
-      </c>
-      <c r="J35" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,29 (0)</v>
-      </c>
-      <c r="K35" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,32 (0,05)</v>
-      </c>
-      <c r="L35" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,22 (0,1)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>CalciumChannelBlockers</v>
-      </c>
-      <c r="B36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,07 (0,03)</v>
-      </c>
-      <c r="C36" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,09 (0,03)</v>
-      </c>
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,07 (0,07)</v>
-      </c>
-      <c r="E36" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,09 (0,1)</v>
-      </c>
-      <c r="F36" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,96 (0,01)</v>
-      </c>
-      <c r="G36" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,15 (0,18)</v>
-      </c>
-      <c r="H36" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,32 (0,03)</v>
-      </c>
-      <c r="I36" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,76 (0,03)</v>
-      </c>
-      <c r="J36" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,39 (0,01)</v>
-      </c>
-      <c r="K36" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,17 (0,16)</v>
-      </c>
-      <c r="L36" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,14 (0,11)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>Estrogens</v>
-      </c>
-      <c r="B37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,03 (0,03)</v>
-      </c>
-      <c r="C37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,04 (0,03)</v>
-      </c>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,08 (0,09)</v>
-      </c>
-      <c r="E37" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,09 (0,11)</v>
-      </c>
-      <c r="F37" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,96 (0)</v>
-      </c>
-      <c r="G37" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,18 (0,24)</v>
-      </c>
-      <c r="H37" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,26 (0,03)</v>
-      </c>
-      <c r="I37" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,76 (0,05)</v>
-      </c>
-      <c r="J37" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,35 (0,01)</v>
-      </c>
-      <c r="K37" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,17 (0,14)</v>
-      </c>
-      <c r="L37" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,07 (0,03)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>NSAIDS</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,2 (0,04)</v>
-      </c>
-      <c r="C38" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,25 (0,05)</v>
-      </c>
-      <c r="D38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0,24 (0,14)</v>
-      </c>
-      <c r="E38" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0,31 (0,18)</v>
-      </c>
-      <c r="F38" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G38" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,43 (0,29)</v>
-      </c>
-      <c r="H38" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,44 (0,04)</v>
-      </c>
-      <c r="I38" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,78 (0,03)</v>
-      </c>
-      <c r="J38" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,42 (0,02)</v>
-      </c>
-      <c r="K38" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,39 (0,18)</v>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,36 (0,15)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>OralHypoglycemics</v>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,04 (0,02)</v>
-      </c>
-      <c r="C39" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0,05 (0,02)</v>
-      </c>
-      <c r="D39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0 (0,01)</v>
-      </c>
-      <c r="E39" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>0 (0,02)</v>
-      </c>
-      <c r="F39" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G39" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>0,03 (0,01)</v>
-      </c>
-      <c r="H39" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>0,33 (0,02)</v>
-      </c>
-      <c r="I39" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>0,72 (0,02)</v>
-      </c>
-      <c r="J39" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>0,43 (0,01)</v>
-      </c>
-      <c r="K39" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0,05 (0,03)</v>
-      </c>
-      <c r="L39" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0,14 (0,11)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>ProtonPumpInhibitors</v>
-      </c>
-      <c r="B40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,11 (0,02)</v>
-      </c>
-      <c r="C40" s="6" t="str">
-        <f t="shared" ref="C40:C47" si="12">ROUND(D17,$A$2)&amp;" ("&amp;ROUND(E17,$B$2)&amp;")"</f>
-        <v>0,13 (0,02)</v>
-      </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" ref="D40:D47" si="13">ROUND(F17,$A$2)&amp;" ("&amp;ROUND(G17,$B$2)&amp;")"</f>
-        <v>0,06 (0,07)</v>
-      </c>
-      <c r="E40" s="6" t="str">
-        <f t="shared" ref="E40:E47" si="14">ROUND(H17,$A$2)&amp;" ("&amp;ROUND(I17,$B$2)&amp;")"</f>
-        <v>0,08 (0,08)</v>
-      </c>
-      <c r="F40" s="6" t="str">
-        <f t="shared" ref="F40:F47" si="15">ROUND(J17,$A$2)&amp;" ("&amp;ROUND(K17,$B$2)&amp;")"</f>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" ref="G40:G47" si="16">ROUND(L17,$A$2)&amp;" ("&amp;ROUND(M17,$B$2)&amp;")"</f>
-        <v>0,11 (0,11)</v>
-      </c>
-      <c r="H40" s="6" t="str">
-        <f t="shared" ref="H40:H47" si="17">ROUND(N17,$A$2)&amp;" ("&amp;ROUND(O17,$B$2)&amp;")"</f>
-        <v>0,31 (0,02)</v>
-      </c>
-      <c r="I40" s="6" t="str">
-        <f t="shared" ref="I40:I47" si="18">ROUND(P17,$A$2)&amp;" ("&amp;ROUND(Q17,$B$2)&amp;")"</f>
-        <v>0,82 (0,01)</v>
-      </c>
-      <c r="J40" s="6" t="str">
-        <f t="shared" ref="J40:J47" si="19">ROUND(R17,$A$2)&amp;" ("&amp;ROUND(S17,$B$2)&amp;")"</f>
-        <v>0,33 (0,01)</v>
-      </c>
-      <c r="K40" s="6" t="str">
-        <f t="shared" ref="K40:K47" si="20">ROUND(T17,$A$2)&amp;" ("&amp;ROUND(U17,$B$2)&amp;")"</f>
-        <v>0,15 (0,13)</v>
-      </c>
-      <c r="L40" s="6" t="str">
-        <f t="shared" ref="L40:L47" si="21">ROUND(V17,$A$2)&amp;" ("&amp;ROUND(W17,$B$2)&amp;")"</f>
-        <v>0,06 (0,03)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>Statins</v>
-      </c>
-      <c r="B41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,15 (0,04)</v>
-      </c>
-      <c r="C41" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0,16 (0,04)</v>
-      </c>
-      <c r="D41" s="6" t="str">
+      <c r="E41" s="6" t="str">
         <f t="shared" si="13"/>
         <v>0,14 (0,02)</v>
       </c>
-      <c r="E41" s="6" t="str">
+      <c r="F41" s="6" t="str">
         <f t="shared" si="14"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>0,18 (0,03)</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0,24 (0,04)</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>0,92 (0,02)</v>
+      </c>
+      <c r="J41" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>0,11 (0)</v>
+      </c>
+      <c r="K41" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>0,19 (0,02)</v>
+      </c>
+      <c r="L41" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>0,14 (0,06)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,19 (0,04)</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0,28 (0,06)</v>
+      </c>
+      <c r="D42" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f>ROUND(H19,$A$2)&amp;" ("&amp;ROUND(I19,$B$2)&amp;")"</f>
+        <v>-0,01 (0)</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>0,02 (0,02)</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0,53 (0,04)</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>0,67 (0,01)</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>0,57 (0,02)</v>
+      </c>
+      <c r="K42" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>0,04 (0,03)</v>
+      </c>
+      <c r="L42" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>0,16 (0,03)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,19 (0,04)</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0,25 (0,05)</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>0,31 (0,02)</v>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0,4 (0,02)</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>0,96 (0,01)</v>
+      </c>
+      <c r="G43" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>0,57 (0,08)</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0,44 (0,04)</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>0,77 (0,04)</v>
+      </c>
+      <c r="J43" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>0,44 (0,02)</v>
+      </c>
+      <c r="K43" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>0,53 (0,02)</v>
+      </c>
+      <c r="L43" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>0,21 (0,11)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,7 (0,03)</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0,71 (0,03)</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>0,53 (0,14)</v>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0,54 (0,14)</v>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>0,65 (0,17)</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0,76 (0,03)</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>0,89 (0,03)</v>
+      </c>
+      <c r="J44" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>0,1 (0,01)</v>
+      </c>
+      <c r="K44" s="6" t="str">
+        <f t="shared" si="19"/>
         <v>0,14 (0,02)</v>
       </c>
-      <c r="F41" s="6" t="str">
+      <c r="L44" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>0,58 (0,2)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,28 (0,01)</v>
+      </c>
+      <c r="C45" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0,34 (0,02)</v>
+      </c>
+      <c r="D45" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>0,15 (0,09)</v>
+      </c>
+      <c r="E45" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0,18 (0,11)</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>0,95 (0)</v>
+      </c>
+      <c r="G45" s="6" t="str">
         <f t="shared" si="15"/>
+        <v>0,25 (0,16)</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>0,49 (0,01)</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>0,81 (0,02)</v>
+      </c>
+      <c r="J45" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>0,39 (0,01)</v>
+      </c>
+      <c r="K45" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>0,28 (0,15)</v>
+      </c>
+      <c r="L45" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>0,29 (0,15)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,43 (0,12)</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0,44 (0,12)</v>
+      </c>
+      <c r="D46" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>0,33 (0,09)</v>
+      </c>
+      <c r="E46" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>0,34 (0,09)</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>0,95 (0)</v>
       </c>
-      <c r="G41" s="6" t="str">
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>0,36 (0,09)</v>
+      </c>
+      <c r="H46" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,18 (0,03)</v>
-      </c>
-      <c r="H41" s="6" t="str">
+        <v>0,5 (0,12)</v>
+      </c>
+      <c r="I46" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,24 (0,04)</v>
-      </c>
-      <c r="I41" s="6" t="str">
+        <v>0,97 (0)</v>
+      </c>
+      <c r="J46" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,92 (0,02)</v>
-      </c>
-      <c r="J41" s="6" t="str">
+        <v>0,06 (0,01)</v>
+      </c>
+      <c r="K46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,11 (0)</v>
-      </c>
-      <c r="K41" s="6" t="str">
+        <v>0,25 (0,03)</v>
+      </c>
+      <c r="L46" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,19 (0,02)</v>
-      </c>
-      <c r="L41" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v>0,14 (0,06)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>Triptans</v>
-      </c>
-      <c r="B42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,19 (0,04)</v>
-      </c>
-      <c r="C42" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0,28 (0,06)</v>
-      </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0 (0)</v>
-      </c>
-      <c r="E42" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>-0,01 (0)</v>
-      </c>
-      <c r="F42" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>0,02 (0,02)</v>
-      </c>
-      <c r="H42" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>0,53 (0,04)</v>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>0,67 (0,01)</v>
-      </c>
-      <c r="J42" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>0,57 (0,02)</v>
-      </c>
-      <c r="K42" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>0,04 (0,03)</v>
-      </c>
-      <c r="L42" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v>0,16 (0,03)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>UrinaryIncontinence</v>
-      </c>
-      <c r="B43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,19 (0,04)</v>
-      </c>
-      <c r="C43" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0,25 (0,05)</v>
-      </c>
-      <c r="D43" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0,31 (0,02)</v>
-      </c>
-      <c r="E43" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>0,4 (0,02)</v>
-      </c>
-      <c r="F43" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>0,96 (0,01)</v>
-      </c>
-      <c r="G43" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>0,57 (0,08)</v>
-      </c>
-      <c r="H43" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>0,44 (0,04)</v>
-      </c>
-      <c r="I43" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>0,77 (0,04)</v>
-      </c>
-      <c r="J43" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>0,44 (0,02)</v>
-      </c>
-      <c r="K43" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>0,53 (0,02)</v>
-      </c>
-      <c r="L43" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v>0,21 (0,11)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>BPA</v>
-      </c>
-      <c r="B44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,7 (0,03)</v>
-      </c>
-      <c r="C44" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0,71 (0,03)</v>
-      </c>
-      <c r="D44" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0,53 (0,14)</v>
-      </c>
-      <c r="E44" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>0,54 (0,14)</v>
-      </c>
-      <c r="F44" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G44" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>0,65 (0,17)</v>
-      </c>
-      <c r="H44" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>0,76 (0,03)</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>0,89 (0,03)</v>
-      </c>
-      <c r="J44" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>0,1 (0,01)</v>
-      </c>
-      <c r="K44" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>0,14 (0,02)</v>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v>0,58 (0,2)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>Neuropain</v>
-      </c>
-      <c r="B45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,28 (0,01)</v>
-      </c>
-      <c r="C45" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0,34 (0,02)</v>
-      </c>
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0,15 (0,09)</v>
-      </c>
-      <c r="E45" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>0,18 (0,11)</v>
-      </c>
-      <c r="F45" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G45" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>0,25 (0,16)</v>
-      </c>
-      <c r="H45" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>0,49 (0,01)</v>
-      </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>0,81 (0,02)</v>
-      </c>
-      <c r="J45" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>0,39 (0,01)</v>
-      </c>
-      <c r="K45" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>0,28 (0,15)</v>
-      </c>
-      <c r="L45" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v>0,29 (0,15)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>Transgenerational</v>
-      </c>
-      <c r="B46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0,43 (0,12)</v>
-      </c>
-      <c r="C46" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0,44 (0,12)</v>
-      </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0,33 (0,09)</v>
-      </c>
-      <c r="E46" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>0,34 (0,09)</v>
-      </c>
-      <c r="F46" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>0,95 (0)</v>
-      </c>
-      <c r="G46" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>0,36 (0,09)</v>
-      </c>
-      <c r="H46" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>0,5 (0,12)</v>
-      </c>
-      <c r="I46" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>0,97 (0)</v>
-      </c>
-      <c r="J46" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>0,06 (0,01)</v>
-      </c>
-      <c r="K46" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>0,25 (0,03)</v>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f t="shared" si="21"/>
         <v>0,23 (0,13)</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
+        <f t="shared" ref="A28:A47" si="21">A24</f>
+        <v>Total Geral</v>
+      </c>
+      <c r="B47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Total Geral</v>
-      </c>
-      <c r="B47" s="6" t="str">
-        <f t="shared" si="1"/>
         <v>0,27 (0,24)</v>
       </c>
       <c r="C47" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0,3 (0,24)</v>
+      </c>
+      <c r="D47" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,3 (0,24)</v>
-      </c>
-      <c r="D47" s="6" t="str">
+        <v>0,22 (0,22)</v>
+      </c>
+      <c r="E47" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,22 (0,22)</v>
-      </c>
-      <c r="E47" s="6" t="str">
+        <v>0,24 (0,22)</v>
+      </c>
+      <c r="F47" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,24 (0,22)</v>
-      </c>
-      <c r="F47" s="6" t="str">
+        <v>0,95 (0,01)</v>
+      </c>
+      <c r="G47" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,95 (0,01)</v>
-      </c>
-      <c r="G47" s="6" t="str">
+        <v>0,34 (0,28)</v>
+      </c>
+      <c r="H47" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,34 (0,28)</v>
-      </c>
-      <c r="H47" s="6" t="str">
+        <v>0,45 (0,18)</v>
+      </c>
+      <c r="I47" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,45 (0,18)</v>
-      </c>
-      <c r="I47" s="6" t="str">
+        <v>0,82 (0,11)</v>
+      </c>
+      <c r="J47" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,82 (0,11)</v>
-      </c>
-      <c r="J47" s="6" t="str">
+        <v>0,28 (0,16)</v>
+      </c>
+      <c r="K47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,28 (0,16)</v>
-      </c>
-      <c r="K47" s="6" t="str">
+        <v>0,22 (0,16)</v>
+      </c>
+      <c r="L47" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,22 (0,16)</v>
-      </c>
-      <c r="L47" s="6" t="str">
-        <f t="shared" si="21"/>
         <v>0,27 (0,24)</v>
       </c>
     </row>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\mcti\Bert_meta_learning_papers\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25D71E-3E0E-4879-B3CD-1B08DDFDDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29875236-D9DE-4283-8C2A-CD0ED1D14418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="598" firstSheet="1" activeTab="3" xr2:uid="{30A5EA36-F24E-479D-B263-18F3D6B30C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="598" activeTab="4" xr2:uid="{30A5EA36-F24E-479D-B263-18F3D6B30C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="50pos_50neg_train_valid_results" sheetId="2" r:id="rId1"/>
     <sheet name="compare_benchmark" sheetId="3" r:id="rId2"/>
     <sheet name="50pos_50neg_pivot" sheetId="4" r:id="rId3"/>
     <sheet name="compare_benchmark_pivot" sheetId="8" r:id="rId4"/>
+    <sheet name="comparison" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'50pos_50neg_train_valid_results'!$A$1:$N$61</definedName>
@@ -24,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="740">
   <si>
     <t>wss@95_old</t>
   </si>
@@ -324,16 +325,1970 @@
   </si>
   <si>
     <t>wss@R_{new}</t>
+  </si>
+  <si>
+    <t>NSAIDs</t>
+  </si>
+  <si>
+    <t>Opioids</t>
+  </si>
+  <si>
+    <t>PFOA/PFOS</t>
+  </si>
+  <si>
+    <t>Bisphenol A (BPA)</t>
+  </si>
+  <si>
+    <t>Fluoride and neurotoxicity</t>
+  </si>
+  <si>
+    <t>Neurophatic Pain</t>
+  </si>
+  <si>
+    <t>Neurophatic pain</t>
+  </si>
+  <si>
+    <t>Average (all datasets)</t>
+  </si>
+  <si>
+    <t>Paper A</t>
+  </si>
+  <si>
+    <t>Paper A replicated</t>
+  </si>
+  <si>
+    <t>Paper B</t>
+  </si>
+  <si>
+    <t>Paper B replicated</t>
+  </si>
+  <si>
+    <t>FastText classifier</t>
+  </si>
+  <si>
+    <t>.566</t>
+  </si>
+  <si>
+    <t>.680</t>
+  </si>
+  <si>
+    <t>.000</t>
+  </si>
+  <si>
+    <t>.141</t>
+  </si>
+  <si>
+    <t>.284</t>
+  </si>
+  <si>
+    <t>.122</t>
+  </si>
+  <si>
+    <t>.183</t>
+  </si>
+  <si>
+    <t>.497</t>
+  </si>
+  <si>
+    <t>.133</t>
+  </si>
+  <si>
+    <t>.090</t>
+  </si>
+  <si>
+    <t>.277</t>
+  </si>
+  <si>
+    <t>.247</t>
+  </si>
+  <si>
+    <t>.034</t>
+  </si>
+  <si>
+    <t>.261</t>
+  </si>
+  <si>
+    <t>.234</t>
+  </si>
+  <si>
+    <t>.523</t>
+  </si>
+  <si>
+    <t>.622</t>
+  </si>
+  <si>
+    <t>.149</t>
+  </si>
+  <si>
+    <t>.206</t>
+  </si>
+  <si>
+    <t>.367</t>
+  </si>
+  <si>
+    <t>.375</t>
+  </si>
+  <si>
+    <t>.528</t>
+  </si>
+  <si>
+    <t>.554</t>
+  </si>
+  <si>
+    <t>.085</t>
+  </si>
+  <si>
+    <t>.229</t>
+  </si>
+  <si>
+    <t>.265</t>
+  </si>
+  <si>
+    <t>.315</t>
+  </si>
+  <si>
+    <t>.274</t>
+  </si>
+  <si>
+    <t>.296</t>
+  </si>
+  <si>
+    <t>.335</t>
+  </si>
+  <si>
+    <t>.733</t>
+  </si>
+  <si>
+    <t>.526</t>
+  </si>
+  <si>
+    <t>.236</t>
+  </si>
+  <si>
+    <t>.170</t>
+  </si>
+  <si>
+    <t>.465</t>
+  </si>
+  <si>
+    <t>.430</t>
+  </si>
+  <si>
+    <t>.414</t>
+  </si>
+  <si>
+    <t>.672</t>
+  </si>
+  <si>
+    <t>.364</t>
+  </si>
+  <si>
+    <t>.136</t>
+  </si>
+  <si>
+    <t>.328</t>
+  </si>
+  <si>
+    <t>.374</t>
+  </si>
+  <si>
+    <t>.491</t>
+  </si>
+  <si>
+    <t>.346</t>
+  </si>
+  <si>
+    <t>.432</t>
+  </si>
+  <si>
+    <t>.408</t>
+  </si>
+  <si>
+    <t>.801</t>
+  </si>
+  <si>
+    <t>.793</t>
+  </si>
+  <si>
+    <t>.137</t>
+  </si>
+  <si>
+    <t>.251</t>
+  </si>
+  <si>
+    <t>.428</t>
+  </si>
+  <si>
+    <t>.448</t>
+  </si>
+  <si>
+    <t>.471</t>
+  </si>
+  <si>
+    <t>.730</t>
+  </si>
+  <si>
+    <t>.826</t>
+  </si>
+  <si>
+    <t>.117</t>
+  </si>
+  <si>
+    <t>.378</t>
+  </si>
+  <si>
+    <t>.556</t>
+  </si>
+  <si>
+    <t>.435</t>
+  </si>
+  <si>
+    <t>.412</t>
+  </si>
+  <si>
+    <t>.531</t>
+  </si>
+  <si>
+    <t>.488</t>
+  </si>
+  <si>
+    <t>.787</t>
+  </si>
+  <si>
+    <t>.212</t>
+  </si>
+  <si>
+    <t>.665</t>
+  </si>
+  <si>
+    <t>.224</t>
+  </si>
+  <si>
+    <t>.310</t>
+  </si>
+  <si>
+    <t>.329</t>
+  </si>
+  <si>
+    <t>.587</t>
+  </si>
+  <si>
+    <t>.424</t>
+  </si>
+  <si>
+    <t>.397</t>
+  </si>
+  <si>
+    <t>.723</t>
+  </si>
+  <si>
+    <t>.533</t>
+  </si>
+  <si>
+    <t>.095</t>
+  </si>
+  <si>
+    <t>.400</t>
+  </si>
+  <si>
+    <t>.286</t>
+  </si>
+  <si>
+    <t>.434</t>
+  </si>
+  <si>
+    <t>.805</t>
+  </si>
+  <si>
+    <t>.752</t>
+  </si>
+  <si>
+    <t>.714</t>
+  </si>
+  <si>
+    <t>.870</t>
+  </si>
+  <si>
+    <t>.691</t>
+  </si>
+  <si>
+    <t>.766</t>
+  </si>
+  <si>
+    <t>.785</t>
+  </si>
+  <si>
+    <t>.391</t>
+  </si>
+  <si>
+    <t>.475</t>
+  </si>
+  <si>
+    <t>.639</t>
+  </si>
+  <si>
+    <t>.275</t>
+  </si>
+  <si>
+    <t>.190</t>
+  </si>
+  <si>
+    <t>.462</t>
+  </si>
+  <si>
+    <t>.347</t>
+  </si>
+  <si>
+    <t>.369</t>
+  </si>
+  <si>
+    <t>.735</t>
+  </si>
+  <si>
+    <t>.580</t>
+  </si>
+  <si>
+    <t>.123</t>
+  </si>
+  <si>
+    <t>.299</t>
+  </si>
+  <si>
+    <t>.487</t>
+  </si>
+  <si>
+    <t>.483</t>
+  </si>
+  <si>
+    <t>.431</t>
+  </si>
+  <si>
+    <t>.838</t>
+  </si>
+  <si>
+    <t>.780</t>
+  </si>
+  <si>
+    <t>.718</t>
+  </si>
+  <si>
+    <t>.806</t>
+  </si>
+  <si>
+    <t>.598</t>
+  </si>
+  <si>
+    <t>.748</t>
+  </si>
+  <si>
+    <t>.783</t>
+  </si>
+  <si>
+    <t>.698</t>
+  </si>
+  <si>
+    <t>.168</t>
+  </si>
+  <si>
+    <t>.504</t>
+  </si>
+  <si>
+    <t>.159</t>
+  </si>
+  <si>
+    <t>.119</t>
+  </si>
+  <si>
+    <t>.571</t>
+  </si>
+  <si>
+    <t>.295</t>
+  </si>
+  <si>
+    <t>.065</t>
+  </si>
+  <si>
+    <t>.243</t>
+  </si>
+  <si>
+    <t>.443</t>
+  </si>
+  <si>
+    <t>.266</t>
+  </si>
+  <si>
+    <t>.272</t>
+  </si>
+  <si>
+    <t>.071</t>
+  </si>
+  <si>
+    <t>.792</t>
+  </si>
+  <si>
+    <t>.708</t>
+  </si>
+  <si>
+    <t>.883</t>
+  </si>
+  <si>
+    <t>.620</t>
+  </si>
+  <si>
+    <t>.615</t>
+  </si>
+  <si>
+    <t>.704</t>
+  </si>
+  <si>
+    <t>.135</t>
+  </si>
+  <si>
+    <t>.081</t>
+  </si>
+  <si>
+    <t>.399</t>
+  </si>
+  <si>
+    <t>.069</t>
+  </si>
+  <si>
+    <t>.083</t>
+  </si>
+  <si>
+    <t>.601</t>
+  </si>
+  <si>
+    <t>.249</t>
+  </si>
+  <si>
+    <t>.013</t>
+  </si>
+  <si>
+    <t>.129</t>
+  </si>
+  <si>
+    <t>.300</t>
+  </si>
+  <si>
+    <t>.283</t>
+  </si>
+  <si>
+    <t>.440</t>
+  </si>
+  <si>
+    <t>.180</t>
+  </si>
+  <si>
+    <t>.269</t>
+  </si>
+  <si>
+    <t>.305</t>
+  </si>
+  <si>
+    <t>.808</t>
+  </si>
+  <si>
+    <t>.091</t>
+  </si>
+  <si>
+    <t>.047</t>
+  </si>
+  <si>
+    <t>.218</t>
+  </si>
+  <si>
+    <t>.419</t>
+  </si>
+  <si>
+    <t>.178</t>
+  </si>
+  <si>
+    <t>.306</t>
+  </si>
+  <si>
+    <t>.559</t>
+  </si>
+  <si>
+    <t>.098</t>
+  </si>
+  <si>
+    <t>.409</t>
+  </si>
+  <si>
+    <t>.210</t>
+  </si>
+  <si>
+    <t>.439</t>
+  </si>
+  <si>
+    <t>.339</t>
+  </si>
+  <si>
+    <t>.779</t>
+  </si>
+  <si>
+    <t>.637</t>
+  </si>
+  <si>
+    <t>.368</t>
+  </si>
+  <si>
+    <t>.390</t>
+  </si>
+  <si>
+    <t>.613</t>
+  </si>
+  <si>
+    <t>.557</t>
+  </si>
+  <si>
+    <t>.356</t>
+  </si>
+  <si>
+    <t>.075</t>
+  </si>
+  <si>
+    <t>.054</t>
+  </si>
+  <si>
+    <t>.142</t>
+  </si>
+  <si>
+    <t>.073</t>
+  </si>
+  <si>
+    <t>.199</t>
+  </si>
+  <si>
+    <t>.457</t>
+  </si>
+  <si>
+    <t>.106</t>
+  </si>
+  <si>
+    <t>.217</t>
+  </si>
+  <si>
+    <t>.191</t>
+  </si>
+  <si>
+    <t>.105</t>
+  </si>
+  <si>
+    <t>.166</t>
+  </si>
+  <si>
+    <t>.252</t>
+  </si>
+  <si>
+    <t>.466</t>
+  </si>
+  <si>
+    <t>.128</t>
+  </si>
+  <si>
+    <t>.221</t>
+  </si>
+  <si>
+    <t>.157</t>
+  </si>
+  <si>
+    <t>.281</t>
+  </si>
+  <si>
+    <t>.195</t>
+  </si>
+  <si>
+    <t>.675</t>
+  </si>
+  <si>
+    <t>.713</t>
+  </si>
+  <si>
+    <t>.888</t>
+  </si>
+  <si>
+    <t>.341</t>
+  </si>
+  <si>
+    <t>.294</t>
+  </si>
+  <si>
+    <t>.167</t>
+  </si>
+  <si>
+    <t>.879</t>
+  </si>
+  <si>
+    <t>.314</t>
+  </si>
+  <si>
+    <t>.240</t>
+  </si>
+  <si>
+    <t>.800</t>
+  </si>
+  <si>
+    <t>.950</t>
+  </si>
+  <si>
+    <t>.490</t>
+  </si>
+  <si>
+    <t>.360</t>
+  </si>
+  <si>
+    <t>.619</t>
+  </si>
+  <si>
+    <t>.292</t>
+  </si>
+  <si>
+    <t>.241</t>
+  </si>
+  <si>
+    <t>.245</t>
+  </si>
+  <si>
+    <t>.590</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>.879 (.016)</t>
+  </si>
+  <si>
+    <t>.888 (.016)</t>
+  </si>
+  <si>
+    <t>.828 (.064)</t>
+  </si>
+  <si>
+    <t>.954 (0)</t>
+  </si>
+  <si>
+    <t>.898 (.087)</t>
+  </si>
+  <si>
+    <t>.935 (.016)</t>
+  </si>
+  <si>
+    <t>.228 (.046)</t>
+  </si>
+  <si>
+    <t>.223 (.081)</t>
+  </si>
+  <si>
+    <t>.882 (.079)</t>
+  </si>
+  <si>
+    <t>.457 (.063)</t>
+  </si>
+  <si>
+    <t>.466 (.064)</t>
+  </si>
+  <si>
+    <t>.378 (.094)</t>
+  </si>
+  <si>
+    <t>.526 (.063)</t>
+  </si>
+  <si>
+    <t>.156 (.026)</t>
+  </si>
+  <si>
+    <t>.263 (.167)</t>
+  </si>
+  <si>
+    <t>.665 (.064)</t>
+  </si>
+  <si>
+    <t>.675 (.065)</t>
+  </si>
+  <si>
+    <t>.292 (.243)</t>
+  </si>
+  <si>
+    <t>.296 (.247)</t>
+  </si>
+  <si>
+    <t>.724 (.064)</t>
+  </si>
+  <si>
+    <t>.899 (.089)</t>
+  </si>
+  <si>
+    <t>.091 (.021)</t>
+  </si>
+  <si>
+    <t>.094 (.062)</t>
+  </si>
+  <si>
+    <t>.221 (.082)</t>
+  </si>
+  <si>
+    <t>.124 (.103)</t>
+  </si>
+  <si>
+    <t>.126 (.105)</t>
+  </si>
+  <si>
+    <t>.962 (0)</t>
+  </si>
+  <si>
+    <t>.169 (.153)</t>
+  </si>
+  <si>
+    <t>.945 (.047)</t>
+  </si>
+  <si>
+    <t>.041 (.004)</t>
+  </si>
+  <si>
+    <t>.086 (.032)</t>
+  </si>
+  <si>
+    <t>.198 (.149)</t>
+  </si>
+  <si>
+    <t>.224 (.036)</t>
+  </si>
+  <si>
+    <t>.142 (.086)</t>
+  </si>
+  <si>
+    <t>.219 (.141)</t>
+  </si>
+  <si>
+    <t>.332 (.036)</t>
+  </si>
+  <si>
+    <t>.874 (.045)</t>
+  </si>
+  <si>
+    <t>.166 (.007)</t>
+  </si>
+  <si>
+    <t>.228 (.138)</t>
+  </si>
+  <si>
+    <t>.356 (.045)</t>
+  </si>
+  <si>
+    <t>.391 (.049)</t>
+  </si>
+  <si>
+    <t>.344 (.157)</t>
+  </si>
+  <si>
+    <t>.379 (.173)</t>
+  </si>
+  <si>
+    <t>.961 (0)</t>
+  </si>
+  <si>
+    <t>.466 (.202)</t>
+  </si>
+  <si>
+    <t>.479 (.045)</t>
+  </si>
+  <si>
+    <t>.872 (.021)</t>
+  </si>
+  <si>
+    <t>.252 (.018)</t>
+  </si>
+  <si>
+    <t>.102 (.053)</t>
+  </si>
+  <si>
+    <t>.075 (.026)</t>
+  </si>
+  <si>
+    <t>.105 (.037)</t>
+  </si>
+  <si>
+    <t>.037 (.037)</t>
+  </si>
+  <si>
+    <t>.052 (.052)</t>
+  </si>
+  <si>
+    <t>.955 (.005)</t>
+  </si>
+  <si>
+    <t>.079 (.081)</t>
+  </si>
+  <si>
+    <t>.718 (.005)</t>
+  </si>
+  <si>
+    <t>.121 (.119)</t>
+  </si>
+  <si>
+    <t>.256 (.092)</t>
+  </si>
+  <si>
+    <t>.054 (.011)</t>
+  </si>
+  <si>
+    <t>.953 (.001)</t>
+  </si>
+  <si>
+    <t>.647 (.061)</t>
+  </si>
+  <si>
+    <t>.393 (.011)</t>
+  </si>
+  <si>
+    <t>.502 (.005)</t>
+  </si>
+  <si>
+    <t>.503 (.008)</t>
+  </si>
+  <si>
+    <t>.295 (.173)</t>
+  </si>
+  <si>
+    <t>.142 (.014)</t>
+  </si>
+  <si>
+    <t>.166 (.017)</t>
+  </si>
+  <si>
+    <t>.194 (.067)</t>
+  </si>
+  <si>
+    <t>.226 (.078)</t>
+  </si>
+  <si>
+    <t>.952 (0)</t>
+  </si>
+  <si>
+    <t>.411 (.139)</t>
+  </si>
+  <si>
+    <t>.319 (.014)</t>
+  </si>
+  <si>
+    <t>.757 (.033)</t>
+  </si>
+  <si>
+    <t>.286 (.004)</t>
+  </si>
+  <si>
+    <t>.317 (.051)</t>
+  </si>
+  <si>
+    <t>.217 (.104)</t>
+  </si>
+  <si>
+    <t>.073 (.026)</t>
+  </si>
+  <si>
+    <t>.095 (.034)</t>
+  </si>
+  <si>
+    <t>.073 (.075)</t>
+  </si>
+  <si>
+    <t>.095 (.096)</t>
+  </si>
+  <si>
+    <t>.153 (.182)</t>
+  </si>
+  <si>
+    <t>.321 (.033)</t>
+  </si>
+  <si>
+    <t>.764 (.031)</t>
+  </si>
+  <si>
+    <t>.173 (.161)</t>
+  </si>
+  <si>
+    <t>.034 (.025)</t>
+  </si>
+  <si>
+    <t>.043 (.032)</t>
+  </si>
+  <si>
+    <t>.075 (.087)</t>
+  </si>
+  <si>
+    <t>.958 (0)</t>
+  </si>
+  <si>
+    <t>.181 (.238)</t>
+  </si>
+  <si>
+    <t>.264 (.025)</t>
+  </si>
+  <si>
+    <t>.764 (.055)</t>
+  </si>
+  <si>
+    <t>.348 (.008)</t>
+  </si>
+  <si>
+    <t>.199 (.036)</t>
+  </si>
+  <si>
+    <t>.252 (.046)</t>
+  </si>
+  <si>
+    <t>.242 (.142)</t>
+  </si>
+  <si>
+    <t>.433 (.287)</t>
+  </si>
+  <si>
+    <t>.419 (.016)</t>
+  </si>
+  <si>
+    <t>.393 (.183)</t>
+  </si>
+  <si>
+    <t>.364 (.149)</t>
+  </si>
+  <si>
+    <t>.036 (.017)</t>
+  </si>
+  <si>
+    <t>.049 (.023)</t>
+  </si>
+  <si>
+    <t>.001 (.014)</t>
+  </si>
+  <si>
+    <t>.001 (.019)</t>
+  </si>
+  <si>
+    <t>.026 (.015)</t>
+  </si>
+  <si>
+    <t>.326 (.017)</t>
+  </si>
+  <si>
+    <t>.432 (.006)</t>
+  </si>
+  <si>
+    <t>.046 (.026)</t>
+  </si>
+  <si>
+    <t>.128 (.025)</t>
+  </si>
+  <si>
+    <t>.064 (.068)</t>
+  </si>
+  <si>
+    <t>.078 (.082)</t>
+  </si>
+  <si>
+    <t>.953 (.002)</t>
+  </si>
+  <si>
+    <t>.113 (.111)</t>
+  </si>
+  <si>
+    <t>.816 (.009)</t>
+  </si>
+  <si>
+    <t>.326 (.006)</t>
+  </si>
+  <si>
+    <t>.151 (.133)</t>
+  </si>
+  <si>
+    <t>.149 (.036)</t>
+  </si>
+  <si>
+    <t>.157 (.038)</t>
+  </si>
+  <si>
+    <t>.136 (.018)</t>
+  </si>
+  <si>
+    <t>.143 (.019)</t>
+  </si>
+  <si>
+    <t>.182 (.032)</t>
+  </si>
+  <si>
+    <t>.241 (.036)</t>
+  </si>
+  <si>
+    <t>.924 (.018)</t>
+  </si>
+  <si>
+    <t>.107 (.005)</t>
+  </si>
+  <si>
+    <t>.188 (.018)</t>
+  </si>
+  <si>
+    <t>.141 (.063)</t>
+  </si>
+  <si>
+    <t>.191 (.041)</t>
+  </si>
+  <si>
+    <t>-.004 (.003)</t>
+  </si>
+  <si>
+    <t>-.006 (.004)</t>
+  </si>
+  <si>
+    <t>.023 (.019)</t>
+  </si>
+  <si>
+    <t>.528 (.041)</t>
+  </si>
+  <si>
+    <t>.667 (.009)</t>
+  </si>
+  <si>
+    <t>.161 (.034)</t>
+  </si>
+  <si>
+    <t>.195 (.038)</t>
+  </si>
+  <si>
+    <t>.307 (.018)</t>
+  </si>
+  <si>
+    <t>.397 (.023)</t>
+  </si>
+  <si>
+    <t>.574 (.082)</t>
+  </si>
+  <si>
+    <t>.442 (.042)</t>
+  </si>
+  <si>
+    <t>.767 (.039)</t>
+  </si>
+  <si>
+    <t>.437 (.016)</t>
+  </si>
+  <si>
+    <t>.527 (.019)</t>
+  </si>
+  <si>
+    <t>.704 (.034)</t>
+  </si>
+  <si>
+    <t>.713 (.034)</t>
+  </si>
+  <si>
+    <t>.538 (.138)</t>
+  </si>
+  <si>
+    <t>.649 (.171)</t>
+  </si>
+  <si>
+    <t>.764 (.034)</t>
+  </si>
+  <si>
+    <t>.886 (.034)</t>
+  </si>
+  <si>
+    <t>.099 (.014)</t>
+  </si>
+  <si>
+    <t>.136 (.022)</t>
+  </si>
+  <si>
+    <t>.583 (.202)</t>
+  </si>
+  <si>
+    <t>.283 (.015)</t>
+  </si>
+  <si>
+    <t>.341 (.018)</t>
+  </si>
+  <si>
+    <t>.151 (.088)</t>
+  </si>
+  <si>
+    <t>.182 (.107)</t>
+  </si>
+  <si>
+    <t>.254 (.158)</t>
+  </si>
+  <si>
+    <t>.487 (.015)</t>
+  </si>
+  <si>
+    <t>.813 (.018)</t>
+  </si>
+  <si>
+    <t>.388 (.007)</t>
+  </si>
+  <si>
+    <t>.282 (.149)</t>
+  </si>
+  <si>
+    <t>.285 (.148)</t>
+  </si>
+  <si>
+    <t>.434 (.122)</t>
+  </si>
+  <si>
+    <t>.332 (.085)</t>
+  </si>
+  <si>
+    <t>.337 (.086)</t>
+  </si>
+  <si>
+    <t>.951 (0)</t>
+  </si>
+  <si>
+    <t>.496 (.122)</t>
+  </si>
+  <si>
+    <t>.967 (.004)</t>
+  </si>
+  <si>
+    <t>.058 (.011)</t>
+  </si>
+  <si>
+    <t>.253 (.034)</t>
+  </si>
+  <si>
+    <t>.232 (.129)</t>
+  </si>
+  <si>
+    <t>.274 (.239)</t>
+  </si>
+  <si>
+    <t>.299 (.235)</t>
+  </si>
+  <si>
+    <t>.218 (.218)</t>
+  </si>
+  <si>
+    <t>.954 (.005)</t>
+  </si>
+  <si>
+    <t>.336 (.281)</t>
+  </si>
+  <si>
+    <t>.449 (.183)</t>
+  </si>
+  <si>
+    <t>.817 (.105)</t>
+  </si>
+  <si>
+    <t>.284 (.163)</t>
+  </si>
+  <si>
+    <t>.274 (.237)</t>
+  </si>
+  <si>
+    <t>.217 (.080)</t>
+  </si>
+  <si>
+    <t>.106 (.020)</t>
+  </si>
+  <si>
+    <t>.240 (.038)</t>
+  </si>
+  <si>
+    <t>.080 (.016)</t>
+  </si>
+  <si>
+    <t>.281 (.060)</t>
+  </si>
+  <si>
+    <t>.251 (.050)</t>
+  </si>
+  <si>
+    <t>.440 (.124)</t>
+  </si>
+  <si>
+    <t>.820 (.064)</t>
+  </si>
+  <si>
+    <t>.370 (.092)</t>
+  </si>
+  <si>
+    <t>.132 (.080)</t>
+  </si>
+  <si>
+    <t>.141 (.020)</t>
+  </si>
+  <si>
+    <t>.530 (.136)</t>
+  </si>
+  <si>
+    <t>.208 (.030)</t>
+  </si>
+  <si>
+    <t>.095 (.110)</t>
+  </si>
+  <si>
+    <t>.307 (.180)</t>
+  </si>
+  <si>
+    <t>.240 (.224)</t>
+  </si>
+  <si>
+    <t>.950 (0)</t>
+  </si>
+  <si>
+    <t>.960 (.014)</t>
+  </si>
+  <si>
+    <t>.960 (.006)</t>
+  </si>
+  <si>
+    <t>.490 (.160)</t>
+  </si>
+  <si>
+    <t>.391 (.340)</t>
+  </si>
+  <si>
+    <t>.360 (.091)</t>
+  </si>
+  <si>
+    <t>.271 (.080)</t>
+  </si>
+  <si>
+    <t>.380 (.027)</t>
+  </si>
+  <si>
+    <t>.440 (.036)</t>
+  </si>
+  <si>
+    <t>.311 (.020)</t>
+  </si>
+  <si>
+    <t>.930 (.025)</t>
+  </si>
+  <si>
+    <t>.880 (.065)</t>
+  </si>
+  <si>
+    <t>.589 (.040)</t>
+  </si>
+  <si>
+    <t>.780 (.031)</t>
+  </si>
+  <si>
+    <t>.720 (.015)</t>
+  </si>
+  <si>
+    <t>.079 (.010)</t>
+  </si>
+  <si>
+    <t>.468 (.010)</t>
+  </si>
+  <si>
+    <t>.390 (.008)</t>
+  </si>
+  <si>
+    <t>.565 (.020)</t>
+  </si>
+  <si>
+    <t>.167 (.080)</t>
+  </si>
+  <si>
+    <t>.380 (.104)</t>
+  </si>
+  <si>
+    <t>.173 (.140)</t>
+  </si>
+  <si>
+    <t>.040 (.033)</t>
+  </si>
+  <si>
+    <t>.220 (.165)</t>
+  </si>
+  <si>
+    <t>.651 (.190)</t>
+  </si>
+  <si>
+    <t>.140 (.114)</t>
+  </si>
+  <si>
+    <t>.069 (.030)</t>
+  </si>
+  <si>
+    <t>.138 (.110)</t>
+  </si>
+  <si>
+    <t>.059 (.030)</t>
+  </si>
+  <si>
+    <t>.215 (.110)</t>
+  </si>
+  <si>
+    <t>Compare_Benchmark</t>
+  </si>
+  <si>
+    <t>Results_comparison</t>
+  </si>
+  <si>
+    <t>1 (0)</t>
+  </si>
+  <si>
+    <t>.897 (.039)</t>
+  </si>
+  <si>
+    <t>.898 (.039)</t>
+  </si>
+  <si>
+    <t>.867 (.163)</t>
+  </si>
+  <si>
+    <t>.865 (.061)</t>
+  </si>
+  <si>
+    <t>.012 (.006)</t>
+  </si>
+  <si>
+    <t>.009 (.006)</t>
+  </si>
+  <si>
+    <t>.895 (.058)</t>
+  </si>
+  <si>
+    <t>.842 (.016)</t>
+  </si>
+  <si>
+    <t>.851 (.017)</t>
+  </si>
+  <si>
+    <t>.807 (.024)</t>
+  </si>
+  <si>
+    <t>.815 (.025)</t>
+  </si>
+  <si>
+    <t>.888 (.033)</t>
+  </si>
+  <si>
+    <t>.927 (.017)</t>
+  </si>
+  <si>
+    <t>.172 (.022)</t>
+  </si>
+  <si>
+    <t>.213 (.037)</t>
+  </si>
+  <si>
+    <t>.798 (.123)</t>
+  </si>
+  <si>
+    <t>.315 (.093)</t>
+  </si>
+  <si>
+    <t>.344 (.102)</t>
+  </si>
+  <si>
+    <t>.112 (.119)</t>
+  </si>
+  <si>
+    <t>.122 (.131)</t>
+  </si>
+  <si>
+    <t>.435 (.093)</t>
+  </si>
+  <si>
+    <t>.861 (.063)</t>
+  </si>
+  <si>
+    <t>.227 (.025)</t>
+  </si>
+  <si>
+    <t>.136 (.118)</t>
+  </si>
+  <si>
+    <t>.343 (.061)</t>
+  </si>
+  <si>
+    <t>.048 (.087)</t>
+  </si>
+  <si>
+    <t>.049 (.089)</t>
+  </si>
+  <si>
+    <t>.973 (0)</t>
+  </si>
+  <si>
+    <t>.059 (.106)</t>
+  </si>
+  <si>
+    <t>.969 (.014)</t>
+  </si>
+  <si>
+    <t>.066 (.006)</t>
+  </si>
+  <si>
+    <t>.042 (.066)</t>
+  </si>
+  <si>
+    <t>.299 (.162)</t>
+  </si>
+  <si>
+    <t>.032 (.034)</t>
+  </si>
+  <si>
+    <t>.967 (.007)</t>
+  </si>
+  <si>
+    <t>.041 (.049)</t>
+  </si>
+  <si>
+    <t>.826 (.038)</t>
+  </si>
+  <si>
+    <t>.333 (.029)</t>
+  </si>
+  <si>
+    <t>.885 (.021)</t>
+  </si>
+  <si>
+    <t>.073 (.085)</t>
+  </si>
+  <si>
+    <t>.429 (.172)</t>
+  </si>
+  <si>
+    <t>.388 (.068)</t>
+  </si>
+  <si>
+    <t>.355 (.074)</t>
+  </si>
+  <si>
+    <t>.362 (.075)</t>
+  </si>
+  <si>
+    <t>.527 (.134)</t>
+  </si>
+  <si>
+    <t>.436 (.068)</t>
+  </si>
+  <si>
+    <t>.829 (.059)</t>
+  </si>
+  <si>
+    <t>.063 (.007)</t>
+  </si>
+  <si>
+    <t>.391 (.165)</t>
+  </si>
+  <si>
+    <t>.719 (.033)</t>
+  </si>
+  <si>
+    <t>.433 (.206)</t>
+  </si>
+  <si>
+    <t>.779 (.033)</t>
+  </si>
+  <si>
+    <t>.947 (.029)</t>
+  </si>
+  <si>
+    <t>.115 (.014)</t>
+  </si>
+  <si>
+    <t>.211 (.043)</t>
+  </si>
+  <si>
+    <t>.652 (.142)</t>
+  </si>
+  <si>
+    <t>.784 (.024)</t>
+  </si>
+  <si>
+    <t>.589 (.238)</t>
+  </si>
+  <si>
+    <t>.593 (.239)</t>
+  </si>
+  <si>
+    <t>.974 (0)</t>
+  </si>
+  <si>
+    <t>.641 (.275)</t>
+  </si>
+  <si>
+    <t>.816 (.024)</t>
+  </si>
+  <si>
+    <t>.066 (.008)</t>
+  </si>
+  <si>
+    <t>.193 (.074)</t>
+  </si>
+  <si>
+    <t>.544 (.072)</t>
+  </si>
+  <si>
+    <t>.396 (.073)</t>
+  </si>
+  <si>
+    <t>.137 (.083)</t>
+  </si>
+  <si>
+    <t>.139 (.084)</t>
+  </si>
+  <si>
+    <t>.156 (.096)</t>
+  </si>
+  <si>
+    <t>.404 (.072)</t>
+  </si>
+  <si>
+    <t>.972 (.011)</t>
+  </si>
+  <si>
+    <t>.045 (.005)</t>
+  </si>
+  <si>
+    <t>.119 (.061)</t>
+  </si>
+  <si>
+    <t>.369 (.103)</t>
+  </si>
+  <si>
+    <t>.758 (.082)</t>
+  </si>
+  <si>
+    <t>.802 (.087)</t>
+  </si>
+  <si>
+    <t>.608 (.142)</t>
+  </si>
+  <si>
+    <t>.683 (.184)</t>
+  </si>
+  <si>
+    <t>.945 (.032)</t>
+  </si>
+  <si>
+    <t>.514 (.098)</t>
+  </si>
+  <si>
+    <t>.266 (.132)</t>
+  </si>
+  <si>
+    <t>.327 (.159)</t>
+  </si>
+  <si>
+    <t>.933 (.044)</t>
+  </si>
+  <si>
+    <t>.066 (.014)</t>
+  </si>
+  <si>
+    <t>.155 (.093)</t>
+  </si>
+  <si>
+    <t>.558 (.144)</t>
+  </si>
+  <si>
+    <t>.694 (.091)</t>
+  </si>
+  <si>
+    <t>.696 (.091)</t>
+  </si>
+  <si>
+    <t>.503 (.272)</t>
+  </si>
+  <si>
+    <t>.504 (.273)</t>
+  </si>
+  <si>
+    <t>.564 (.322)</t>
+  </si>
+  <si>
+    <t>.939 (.054)</t>
+  </si>
+  <si>
+    <t>.019 (.005)</t>
+  </si>
+  <si>
+    <t>.802 (.073)</t>
+  </si>
+  <si>
+    <t>.565 (.245)</t>
+  </si>
+  <si>
+    <t>.604 (.216)</t>
+  </si>
+  <si>
+    <t>.383 (.298)</t>
+  </si>
+  <si>
+    <t>.975 (.019)</t>
+  </si>
+  <si>
+    <t>.453 (.338)</t>
+  </si>
+  <si>
+    <t>.873 (.173)</t>
+  </si>
+  <si>
+    <t>.183 (.247)</t>
+  </si>
+  <si>
+    <t>.163 (.161)</t>
+  </si>
+  <si>
+    <t>.335 (.060)</t>
+  </si>
+  <si>
+    <t>.146 (.040)</t>
+  </si>
+  <si>
+    <t>.390 (.072)</t>
+  </si>
+  <si>
+    <t>.475 (.130)</t>
+  </si>
+  <si>
+    <t>.395 (.070)</t>
+  </si>
+  <si>
+    <t>.730 (.034)</t>
+  </si>
+  <si>
+    <t>.790 (.024)</t>
+  </si>
+  <si>
+    <t>.523 (.100)</t>
+  </si>
+  <si>
+    <t>.732 (.110)</t>
+  </si>
+  <si>
+    <t>.010 (.011)</t>
+  </si>
+  <si>
+    <t>.439 (.210)</t>
+  </si>
+  <si>
+    <t>.643 (.150)</t>
+  </si>
+  <si>
+    <t>.270 (.134)</t>
+  </si>
+  <si>
+    <t>.392 (.300)</t>
+  </si>
+  <si>
+    <t>.970 (0)</t>
+  </si>
+  <si>
+    <t>.200 (.220)</t>
+  </si>
+  <si>
+    <t>.485 (.240)</t>
+  </si>
+  <si>
+    <t>.900 (.016)</t>
+  </si>
+  <si>
+    <t>.383 (.060)</t>
+  </si>
+  <si>
+    <t>.850 (.082)</t>
+  </si>
+  <si>
+    <t>.530 (.098)</t>
+  </si>
+  <si>
+    <t>.663 (.210)</t>
+  </si>
+  <si>
+    <t>.950 (.037)</t>
+  </si>
+  <si>
+    <t>.461 (.150)</t>
+  </si>
+  <si>
+    <t>.110 (.012)</t>
+  </si>
+  <si>
+    <t>.598 (.090)</t>
+  </si>
+  <si>
+    <t>.090 (.053)</t>
+  </si>
+  <si>
+    <t>.532 (.110)</t>
+  </si>
+  <si>
+    <t>.814 (.060)</t>
+  </si>
+  <si>
+    <t>.590 (.227)</t>
+  </si>
+  <si>
+    <t>50pos_50neg</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Drug Reviews \cite{cohen2006reducing}</t>
+  </si>
+  <si>
+    <t>Distal radius fractures approach</t>
+  </si>
+  <si>
+    <t>Distal radius fractures closed reduction</t>
+  </si>
+  <si>
+    <t>Hallux valgus prognostic</t>
+  </si>
+  <si>
+    <t>Head and neck cancer imaging</t>
+  </si>
+  <si>
+    <t>Obstetric emergency training</t>
+  </si>
+  <si>
+    <t>Post intensive care treatment</t>
+  </si>
+  <si>
+    <t>Pregnancy medication</t>
+  </si>
+  <si>
+    <t>Shoulderdystocia positioning</t>
+  </si>
+  <si>
+    <t>Shoulderdystocia recurrence</t>
+  </si>
+  <si>
+    <t>Shoulder replacement diagnostic</t>
+  </si>
+  <si>
+    <t>Shoulder replacement surgery</t>
+  </si>
+  <si>
+    <t>Medical Guidelines \cite{harmsen_groot_dusseldorp_2021}</t>
+  </si>
+  <si>
+    <t>SWIFT \cite{howard2016swift}</t>
+  </si>
+  <si>
+    <t>Wilson disease \cite{appenzeller_herzog_christian_2020_3625931}</t>
+  </si>
+  <si>
+    <t>Animal Model of Depression \cite{bannach_brown_alexandra_2016_151190}</t>
+  </si>
+  <si>
+    <t>Dementia \cite{bos_2018}</t>
+  </si>
+  <si>
+    <t>Software Fault Prediction \cite{hall_2012}</t>
+  </si>
+  <si>
+    <t>Software Engineering \cite{kitchenham_2010}</t>
+  </si>
+  <si>
+    <t>Virus Metagenomics \cite{kwok_2020}</t>
+  </si>
+  <si>
+    <t>Nudging \cite{nagtegaal_2019}</t>
+  </si>
+  <si>
+    <t>Software Fault Prediction Metrics \cite{radjenovic_2013}</t>
+  </si>
+  <si>
+    <t>PTSD Trajectories \cite{van_de_schoot_2016}</t>
+  </si>
+  <si>
+    <t>Anxiety-Related Disorders \cite{van_dis_2020}</t>
+  </si>
+  <si>
+    <t>Software Defect Detection \cite{wahono_2015}</t>
+  </si>
+  <si>
+    <t>Dementia \cite{wolters_2018}</t>
+  </si>
+  <si>
+    <t>Asreview \cite{van2021open}</t>
+  </si>
+  <si>
+    <t>Cereals</t>
+  </si>
+  <si>
+    <t>Cereals Future set</t>
+  </si>
+  <si>
+    <t>Leafy Greens</t>
+  </si>
+  <si>
+    <t>Food Safety \cite{van2022automatic}</t>
+  </si>
+  <si>
+    <t>Alzheimers \cite{wang_2014}</t>
+  </si>
+  <si>
+    <t>Angiotensin \cite{li_2014}</t>
+  </si>
+  <si>
+    <t>Anticoagulation \cite{chatterjee_2014}</t>
+  </si>
+  <si>
+    <t>Atorvastatin \cite{yang_2014}</t>
+  </si>
+  <si>
+    <t>Bivalirudin \cite{cavender_2014}</t>
+  </si>
+  <si>
+    <t>Cetuximab \cite{lv_2014}</t>
+  </si>
+  <si>
+    <t>Colorectal cancer \cite{segelov_2014}</t>
+  </si>
+  <si>
+    <t>Dabigatran \cite{douxfils_2014}</t>
+  </si>
+  <si>
+    <t>Gastric cancer \cite{li_pan_2014}</t>
+  </si>
+  <si>
+    <t>Metformin \cite{liu_2014}</t>
+  </si>
+  <si>
+    <t>Parkinsons \cite{zhou_2014}</t>
+  </si>
+  <si>
+    <t>Rheumatoid \cite{kourbeti_2014}</t>
+  </si>
+  <si>
+    <t>Tyrosine Kinase \cite{funakoshi_2014}</t>
+  </si>
+  <si>
+    <t>Ustekinumab \cite{meng_2014}</t>
+  </si>
+  <si>
+    <t>PubMed Abstracts \cite{lanera_2018}</t>
+  </si>
+  <si>
+    <t>Average Drug Reviews \cite{cohen2006reducing}</t>
+  </si>
+  <si>
+    <t>Average SWIFT \cite{howard2016swift}</t>
+  </si>
+  <si>
+    <t>Heart Disease and Dementia</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Heart Disease and Dementia \cite{wolters_2018}</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Fluoride and Neurotoxicity</t>
+  </si>
+  <si>
+    <t>Head and Neck Cancer Bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leafy Greens Future Set </t>
+  </si>
+  <si>
+    <t>Total Knee Replacement</t>
+  </si>
+  <si>
+    <t>Vascular Access</t>
+  </si>
+  <si>
+    <t>Distal Radius Fractures Approach</t>
+  </si>
+  <si>
+    <t>Distal Radius Fractures Closed Reduction</t>
+  </si>
+  <si>
+    <t>Hallux Valgus Prognostic</t>
+  </si>
+  <si>
+    <t>Head and Neck Cancer Imaging</t>
+  </si>
+  <si>
+    <t>Obstetric Emergency Training</t>
+  </si>
+  <si>
+    <t>Post Intensive Care Treatment</t>
+  </si>
+  <si>
+    <t>Pregnancy Medication</t>
+  </si>
+  <si>
+    <t>Shoulderdystocia Positioning</t>
+  </si>
+  <si>
+    <t>Shoulderdystocia Recurrence</t>
+  </si>
+  <si>
+    <t>Shoulder Replacement Diagnostic</t>
+  </si>
+  <si>
+    <t>Shoulder Replacement Surgery</t>
+  </si>
+  <si>
+    <t>Wilson Disease \cite{appenzeller_herzog_christian_2020_3625931}</t>
+  </si>
+  <si>
+    <t>Leafy Greens Future Set</t>
+  </si>
+  <si>
+    <t>Cereals Future Set</t>
+  </si>
+  <si>
+    <t>Colorectal Cancer \cite{segelov_2014}</t>
+  </si>
+  <si>
+    <t>Gastric Cancer \cite{li_pan_2014}</t>
+  </si>
+  <si>
+    <t>Cohen \cite{cohen2006reducing}</t>
+  </si>
+  <si>
+    <t>Matwin \cite{matwin_2010}</t>
+  </si>
+  <si>
+    <t>Howard \cite{howard2016swift}</t>
+  </si>
+  <si>
+    <t>Cohen \cite{cohen_2008}  \cite{cohen_2011}</t>
+  </si>
+  <si>
+    <t>Recall wss@95</t>
+  </si>
+  <si>
+    <t>Recall wss@R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -344,15 +2299,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -360,11 +2321,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -374,20 +2355,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
+      <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
+      <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.000000000"/>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -11166,10 +13155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12664480-544B-4496-BA37-8EC01FEF16F8}">
-  <dimension ref="A2:W49"/>
+  <dimension ref="A2:W127"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:L18"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11242,10 +13231,10 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -12286,19 +14275,19 @@
       </c>
       <c r="B19" s="6" t="str">
         <f>ROUND(B4,$A$2)&amp;" ("&amp;ROUND(C4,$B$2)&amp;")"</f>
-        <v>0,9 (0,04)</v>
+        <v>0,897 (0,039)</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>ROUND(D4,$A$2)&amp;" ("&amp;ROUND(E4,$B$2)&amp;")"</f>
-        <v>0,9 (0,04)</v>
+        <v>0,898 (0,039)</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>ROUND(F4,$A$2)&amp;" ("&amp;ROUND(G4,$B$2)&amp;")"</f>
-        <v>0,73 (0,11)</v>
+        <v>0,732 (0,11)</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>ROUND(H4,$A$2)&amp;" ("&amp;ROUND(I4,$B$2)&amp;")"</f>
-        <v>0,73 (0,11)</v>
+        <v>0,732 (0,11)</v>
       </c>
       <c r="F19" s="6" t="str">
         <f>ROUND(J4,$A$2)&amp;" ("&amp;ROUND(K4,$B$2)&amp;")"</f>
@@ -12306,27 +14295,27 @@
       </c>
       <c r="G19" s="6" t="str">
         <f>ROUND(L4,$A$2)&amp;" ("&amp;ROUND(M4,$B$2)&amp;")"</f>
-        <v>0,87 (0,16)</v>
+        <v>0,867 (0,163)</v>
       </c>
       <c r="H19" s="6" t="str">
         <f>ROUND(N4,$A$2)&amp;" ("&amp;ROUND(O4,$B$2)&amp;")"</f>
-        <v>0,9 (0,04)</v>
+        <v>0,898 (0,039)</v>
       </c>
       <c r="I19" s="6" t="str">
         <f>ROUND(P4,$A$2)&amp;" ("&amp;ROUND(Q4,$B$2)&amp;")"</f>
-        <v>0,87 (0,06)</v>
+        <v>0,865 (0,061)</v>
       </c>
       <c r="J19" s="6" t="str">
         <f>ROUND(R4,$A$2)&amp;" ("&amp;ROUND(S4,$B$2)&amp;")"</f>
-        <v>0,01 (0,01)</v>
+        <v>0,012 (0,006)</v>
       </c>
       <c r="K19" s="6" t="str">
         <f>ROUND(T4,$A$2)&amp;" ("&amp;ROUND(U4,$B$2)&amp;")"</f>
-        <v>0,01 (0,01)</v>
+        <v>0,009 (0,006)</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>ROUND(V4,$A$2)&amp;" ("&amp;ROUND(W4,$B$2)&amp;")"</f>
-        <v>0,89 (0,06)</v>
+        <v>0,895 (0,058)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -12335,47 +14324,47 @@
       </c>
       <c r="B20" s="6" t="str">
         <f t="shared" ref="B20:B31" si="0">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
-        <v>0,84 (0,02)</v>
+        <v>0,842 (0,016)</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" ref="C20:C31" si="1">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
-        <v>0,85 (0,02)</v>
+        <v>0,851 (0,017)</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" ref="D20:D31" si="2">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
-        <v>0,81 (0,02)</v>
+        <v>0,807 (0,024)</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" ref="E20:E31" si="3">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
-        <v>0,82 (0,02)</v>
+        <v>0,815 (0,025)</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" ref="F20:F31" si="4">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
-        <v>0,95 (0)</v>
+        <v>0,951 (0)</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" ref="G20:G31" si="5">ROUND(L5,$A$2)&amp;" ("&amp;ROUND(M5,$B$2)&amp;")"</f>
-        <v>0,89 (0,03)</v>
+        <v>0,888 (0,033)</v>
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" ref="H20:H31" si="6">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
-        <v>0,9 (0,02)</v>
+        <v>0,9 (0,016)</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ref="I20:I31" si="7">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
-        <v>0,93 (0,02)</v>
+        <v>0,927 (0,017)</v>
       </c>
       <c r="J20" s="6" t="str">
         <f t="shared" ref="J20:J31" si="8">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
-        <v>0,17 (0,02)</v>
+        <v>0,172 (0,022)</v>
       </c>
       <c r="K20" s="6" t="str">
         <f t="shared" ref="K20:K31" si="9">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
-        <v>0,21 (0,04)</v>
+        <v>0,213 (0,037)</v>
       </c>
       <c r="L20" s="6" t="str">
         <f t="shared" ref="L20:L31" si="10">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
-        <v>0,8 (0,12)</v>
+        <v>0,798 (0,123)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -12384,23 +14373,23 @@
       </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,32 (0,09)</v>
+        <v>0,315 (0,093)</v>
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,34 (0,1)</v>
+        <v>0,344 (0,102)</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,11 (0,12)</v>
+        <v>0,112 (0,119)</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,12 (0,13)</v>
+        <v>0,122 (0,131)</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,96 (0)</v>
+        <v>0,958 (0)</v>
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="5"/>
@@ -12408,23 +14397,23 @@
       </c>
       <c r="H21" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,43 (0,09)</v>
+        <v>0,435 (0,093)</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,86 (0,06)</v>
+        <v>0,861 (0,063)</v>
       </c>
       <c r="J21" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,23 (0,03)</v>
+        <v>0,227 (0,025)</v>
       </c>
       <c r="K21" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,14 (0,12)</v>
+        <v>0,136 (0,118)</v>
       </c>
       <c r="L21" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,53 (0,11)</v>
+        <v>0,532 (0,11)</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -12433,47 +14422,47 @@
       </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,34 (0,06)</v>
+        <v>0,335 (0,06)</v>
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,34 (0,06)</v>
+        <v>0,343 (0,061)</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,05 (0,09)</v>
+        <v>0,048 (0,087)</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,05 (0,09)</v>
+        <v>0,049 (0,089)</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,97 (0)</v>
+        <v>0,973 (0)</v>
       </c>
       <c r="G22" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,06 (0,11)</v>
+        <v>0,059 (0,106)</v>
       </c>
       <c r="H22" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,38 (0,06)</v>
+        <v>0,383 (0,06)</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,97 (0,01)</v>
+        <v>0,969 (0,014)</v>
       </c>
       <c r="J22" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,07 (0,01)</v>
+        <v>0,066 (0,006)</v>
       </c>
       <c r="K22" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,04 (0,07)</v>
+        <v>0,042 (0,066)</v>
       </c>
       <c r="L22" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,3 (0,16)</v>
+        <v>0,299 (0,162)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -12482,47 +14471,47 @@
       </c>
       <c r="B23" s="6" t="str">
         <f>ROUND(B8,$A$2)&amp;" ("&amp;ROUND(C8,$B$2)&amp;")"</f>
-        <v>0,15 (0,04)</v>
+        <v>0,146 (0,04)</v>
       </c>
       <c r="C23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,47 (0,13)</v>
+        <v>0,475 (0,13)</v>
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,01 (0,01)</v>
+        <v>0,01 (0,011)</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,03 (0,03)</v>
+        <v>0,032 (0,034)</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,97 (0,01)</v>
+        <v>0,967 (0,007)</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,04 (0,05)</v>
+        <v>0,041 (0,049)</v>
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,83 (0,04)</v>
+        <v>0,826 (0,038)</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,33 (0,03)</v>
+        <v>0,333 (0,029)</v>
       </c>
       <c r="J23" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,89 (0,02)</v>
+        <v>0,885 (0,021)</v>
       </c>
       <c r="K23" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,07 (0,09)</v>
+        <v>0,073 (0,085)</v>
       </c>
       <c r="L23" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,43 (0,17)</v>
+        <v>0,429 (0,172)</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -12531,19 +14520,19 @@
       </c>
       <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,39 (0,07)</v>
+        <v>0,388 (0,068)</v>
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,4 (0,07)</v>
+        <v>0,395 (0,07)</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,35 (0,07)</v>
+        <v>0,355 (0,074)</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,36 (0,08)</v>
+        <v>0,362 (0,075)</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="4"/>
@@ -12551,27 +14540,27 @@
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,53 (0,13)</v>
+        <v>0,527 (0,134)</v>
       </c>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,44 (0,07)</v>
+        <v>0,436 (0,068)</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,83 (0,06)</v>
+        <v>0,829 (0,059)</v>
       </c>
       <c r="J24" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,06 (0,01)</v>
+        <v>0,063 (0,007)</v>
       </c>
       <c r="K24" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,11 (0,01)</v>
+        <v>0,11 (0,012)</v>
       </c>
       <c r="L24" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,39 (0,16)</v>
+        <v>0,391 (0,165)</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -12580,47 +14569,47 @@
       </c>
       <c r="B25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,72 (0,03)</v>
+        <v>0,719 (0,033)</v>
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,73 (0,03)</v>
+        <v>0,73 (0,034)</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,43 (0,21)</v>
+        <v>0,433 (0,206)</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,44 (0,21)</v>
+        <v>0,439 (0,21)</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,954 (0)</v>
       </c>
       <c r="G25" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,49 (0,24)</v>
+        <v>0,485 (0,24)</v>
       </c>
       <c r="H25" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,78 (0,03)</v>
+        <v>0,779 (0,033)</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,95 (0,03)</v>
+        <v>0,947 (0,029)</v>
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,11 (0,01)</v>
+        <v>0,115 (0,014)</v>
       </c>
       <c r="K25" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,21 (0,04)</v>
+        <v>0,211 (0,043)</v>
       </c>
       <c r="L25" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,65 (0,14)</v>
+        <v>0,652 (0,142)</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -12629,47 +14618,47 @@
       </c>
       <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,78 (0,02)</v>
+        <v>0,784 (0,024)</v>
       </c>
       <c r="C26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,79 (0,02)</v>
+        <v>0,79 (0,024)</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,59 (0,24)</v>
+        <v>0,589 (0,238)</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,59 (0,24)</v>
+        <v>0,593 (0,239)</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,97 (0)</v>
+        <v>0,974 (0)</v>
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,64 (0,28)</v>
+        <v>0,641 (0,275)</v>
       </c>
       <c r="H26" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,82 (0,02)</v>
+        <v>0,816 (0,024)</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,95 (0,04)</v>
+        <v>0,95 (0,037)</v>
       </c>
       <c r="J26" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,07 (0,01)</v>
+        <v>0,066 (0,008)</v>
       </c>
       <c r="K26" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,19 (0,07)</v>
+        <v>0,193 (0,074)</v>
       </c>
       <c r="L26" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,54 (0,07)</v>
+        <v>0,544 (0,072)</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -12678,19 +14667,19 @@
       </c>
       <c r="B27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,39 (0,07)</v>
+        <v>0,39 (0,072)</v>
       </c>
       <c r="C27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,4 (0,07)</v>
+        <v>0,396 (0,073)</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,14 (0,08)</v>
+        <v>0,137 (0,083)</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,14 (0,08)</v>
+        <v>0,139 (0,084)</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="4"/>
@@ -12698,27 +14687,27 @@
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,16 (0,1)</v>
+        <v>0,156 (0,096)</v>
       </c>
       <c r="H27" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,4 (0,07)</v>
+        <v>0,404 (0,072)</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,97 (0,01)</v>
+        <v>0,972 (0,011)</v>
       </c>
       <c r="J27" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,05 (0,01)</v>
+        <v>0,045 (0,005)</v>
       </c>
       <c r="K27" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,12 (0,06)</v>
+        <v>0,119 (0,061)</v>
       </c>
       <c r="L27" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,37 (0,1)</v>
+        <v>0,369 (0,103)</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -12727,47 +14716,47 @@
       </c>
       <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,76 (0,08)</v>
+        <v>0,758 (0,082)</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>ROUND(D13,$A$2)&amp;" ("&amp;ROUND(E13,$B$2)&amp;")"</f>
-        <v>0,8 (0,09)</v>
+        <v>0,802 (0,087)</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,61 (0,14)</v>
+        <v>0,608 (0,142)</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,64 (0,15)</v>
+        <v>0,643 (0,15)</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,96 (0)</v>
+        <v>0,958 (0)</v>
       </c>
       <c r="G28" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,68 (0,18)</v>
+        <v>0,683 (0,184)</v>
       </c>
       <c r="H28" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,85 (0,08)</v>
+        <v>0,85 (0,082)</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,94 (0,03)</v>
+        <v>0,945 (0,032)</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,46 (0,15)</v>
+        <v>0,461 (0,15)</v>
       </c>
       <c r="K28" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,6 (0,09)</v>
+        <v>0,598 (0,09)</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,81 (0,06)</v>
+        <v>0,814 (0,06)</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -12776,19 +14765,19 @@
       </c>
       <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,51 (0,1)</v>
+        <v>0,514 (0,098)</v>
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,52 (0,1)</v>
+        <v>0,523 (0,1)</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,27 (0,13)</v>
+        <v>0,266 (0,132)</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,27 (0,13)</v>
+        <v>0,27 (0,134)</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="4"/>
@@ -12796,27 +14785,27 @@
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,33 (0,16)</v>
+        <v>0,327 (0,159)</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,53 (0,1)</v>
+        <v>0,53 (0,098)</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,93 (0,04)</v>
+        <v>0,933 (0,044)</v>
       </c>
       <c r="J29" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,07 (0,01)</v>
+        <v>0,066 (0,014)</v>
       </c>
       <c r="K29" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,16 (0,09)</v>
+        <v>0,155 (0,093)</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,56 (0,14)</v>
+        <v>0,558 (0,144)</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -12825,19 +14814,19 @@
       </c>
       <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,69 (0,09)</v>
+        <v>0,694 (0,091)</v>
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,7 (0,09)</v>
+        <v>0,696 (0,091)</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,5 (0,27)</v>
+        <v>0,503 (0,272)</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,5 (0,27)</v>
+        <v>0,504 (0,273)</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="4"/>
@@ -12845,211 +14834,610 @@
       </c>
       <c r="G30" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,56 (0,32)</v>
+        <v>0,564 (0,322)</v>
       </c>
       <c r="H30" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,7 (0,09)</v>
+        <v>0,696 (0,091)</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,94 (0,05)</v>
+        <v>0,939 (0,054)</v>
       </c>
       <c r="J30" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,02 (0,01)</v>
+        <v>0,019 (0,005)</v>
       </c>
       <c r="K30" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,09 (0,05)</v>
+        <v>0,09 (0,053)</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,8 (0,07)</v>
+        <v>0,802 (0,073)</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" ref="A19:A31" si="11">A16</f>
+        <f t="shared" ref="A31" si="11">A16</f>
         <v>Total Geral</v>
       </c>
       <c r="B31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,57 (0,24)</v>
+        <v>0,565 (0,245)</v>
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,6 (0,22)</v>
+        <v>0,604 (0,216)</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,38 (0,3)</v>
+        <v>0,383 (0,298)</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,39 (0,3)</v>
+        <v>0,392 (0,3)</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,98 (0,02)</v>
+        <v>0,975 (0,019)</v>
       </c>
       <c r="G31" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,45 (0,34)</v>
+        <v>0,453 (0,338)</v>
       </c>
       <c r="H31" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,66 (0,21)</v>
+        <v>0,663 (0,21)</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,87 (0,17)</v>
+        <v>0,873 (0,173)</v>
       </c>
       <c r="J31" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,18 (0,25)</v>
+        <v>0,183 (0,247)</v>
       </c>
       <c r="K31" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,16 (0,16)</v>
+        <v>0,163 (0,161)</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,59 (0,23)</v>
+        <v>0,59 (0,227)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>525</v>
+      </c>
+      <c r="C34" t="s">
+        <v>526</v>
+      </c>
+      <c r="D34" t="s">
+        <v>635</v>
+      </c>
+      <c r="E34" t="s">
+        <v>635</v>
+      </c>
+      <c r="F34" t="s">
+        <v>524</v>
+      </c>
+      <c r="G34" t="s">
+        <v>527</v>
+      </c>
+      <c r="H34" t="s">
+        <v>526</v>
+      </c>
+      <c r="I34" t="s">
+        <v>528</v>
+      </c>
+      <c r="J34" t="s">
+        <v>529</v>
+      </c>
+      <c r="K34" t="s">
+        <v>530</v>
+      </c>
+      <c r="L34" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35" t="s">
+        <v>534</v>
+      </c>
+      <c r="E35" t="s">
+        <v>535</v>
+      </c>
+      <c r="F35" t="s">
+        <v>461</v>
+      </c>
+      <c r="G35" t="s">
+        <v>536</v>
+      </c>
+      <c r="H35" t="s">
+        <v>644</v>
+      </c>
+      <c r="I35" t="s">
+        <v>537</v>
+      </c>
+      <c r="J35" t="s">
+        <v>538</v>
+      </c>
+      <c r="K35" t="s">
+        <v>539</v>
+      </c>
+      <c r="L35" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" t="s">
+        <v>542</v>
+      </c>
+      <c r="D36" t="s">
+        <v>543</v>
+      </c>
+      <c r="E36" t="s">
+        <v>544</v>
+      </c>
+      <c r="F36" t="s">
+        <v>386</v>
+      </c>
+      <c r="G36" t="s">
+        <v>642</v>
+      </c>
+      <c r="H36" t="s">
+        <v>545</v>
+      </c>
+      <c r="I36" t="s">
+        <v>546</v>
+      </c>
+      <c r="J36" t="s">
+        <v>547</v>
+      </c>
+      <c r="K36" t="s">
+        <v>548</v>
+      </c>
+      <c r="L36" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
@@ -13077,7 +15465,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -13090,17 +15478,436 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>662</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>663</v>
+      </c>
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>666</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>670</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>671</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>672</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>682</v>
+      </c>
+      <c r="D102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E66:E77">
+    <sortCondition ref="E66:E77"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1021A2-634B-4DD8-AC80-9497B6FA5DAB}">
-  <dimension ref="A2:W47"/>
+  <dimension ref="A2:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:L46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13173,10 +15980,10 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -14785,47 +17592,47 @@
       </c>
       <c r="B27" s="6" t="str">
         <f>ROUND(B4,$A$2)&amp;" ("&amp;ROUND(C4,$B$2)&amp;")"</f>
-        <v>0,88 (0,02)</v>
+        <v>0,879 (0,016)</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>ROUND(D4,$A$2)&amp;" ("&amp;ROUND(E4,$B$2)&amp;")"</f>
-        <v>0,89 (0,02)</v>
+        <v>0,888 (0,016)</v>
       </c>
       <c r="D27" s="6" t="str">
         <f>ROUND(F4,$A$2)&amp;" ("&amp;ROUND(G4,$B$2)&amp;")"</f>
-        <v>0,82 (0,06)</v>
+        <v>0,82 (0,064)</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>ROUND(H4,$A$2)&amp;" ("&amp;ROUND(I4,$B$2)&amp;")"</f>
-        <v>0,83 (0,06)</v>
+        <v>0,828 (0,064)</v>
       </c>
       <c r="F27" s="6" t="str">
         <f>ROUND(J4,$A$2)&amp;" ("&amp;ROUND(K4,$B$2)&amp;")"</f>
-        <v>0,95 (0)</v>
+        <v>0,954 (0)</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>ROUND(L4,$A$2)&amp;" ("&amp;ROUND(M4,$B$2)&amp;")"</f>
-        <v>0,9 (0,09)</v>
+        <v>0,898 (0,087)</v>
       </c>
       <c r="H27" s="6" t="str">
         <f>ROUND(N4,$A$2)&amp;" ("&amp;ROUND(O4,$B$2)&amp;")"</f>
-        <v>0,93 (0,02)</v>
+        <v>0,935 (0,016)</v>
       </c>
       <c r="I27" s="6" t="str">
         <f>ROUND(P4,$A$2)&amp;" ("&amp;ROUND(Q4,$B$2)&amp;")"</f>
-        <v>0,93 (0,02)</v>
+        <v>0,93 (0,025)</v>
       </c>
       <c r="J27" s="6" t="str">
         <f>ROUND(R4,$A$2)&amp;" ("&amp;ROUND(S4,$B$2)&amp;")"</f>
-        <v>0,23 (0,05)</v>
+        <v>0,228 (0,046)</v>
       </c>
       <c r="K27" s="6" t="str">
         <f>ROUND(T4,$A$2)&amp;" ("&amp;ROUND(U4,$B$2)&amp;")"</f>
-        <v>0,22 (0,08)</v>
+        <v>0,223 (0,081)</v>
       </c>
       <c r="L27" s="6" t="str">
         <f>ROUND(V4,$A$2)&amp;" ("&amp;ROUND(W4,$B$2)&amp;")"</f>
-        <v>0,88 (0,08)</v>
+        <v>0,882 (0,079)</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -14834,19 +17641,19 @@
       </c>
       <c r="B28" s="6" t="str">
         <f t="shared" ref="B28:B47" si="0">ROUND(B5,$A$2)&amp;" ("&amp;ROUND(C5,$B$2)&amp;")"</f>
-        <v>0,46 (0,06)</v>
+        <v>0,457 (0,063)</v>
       </c>
       <c r="C28" s="6" t="str">
         <f t="shared" ref="C28:C39" si="1">ROUND(D5,$A$2)&amp;" ("&amp;ROUND(E5,$B$2)&amp;")"</f>
-        <v>0,47 (0,06)</v>
+        <v>0,466 (0,064)</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" ref="D28:D39" si="2">ROUND(F5,$A$2)&amp;" ("&amp;ROUND(G5,$B$2)&amp;")"</f>
-        <v>0,37 (0,09)</v>
+        <v>0,37 (0,092)</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" ref="E28:E39" si="3">ROUND(H5,$A$2)&amp;" ("&amp;ROUND(I5,$B$2)&amp;")"</f>
-        <v>0,38 (0,09)</v>
+        <v>0,378 (0,094)</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" ref="F28:F39" si="4">ROUND(J5,$A$2)&amp;" ("&amp;ROUND(K5,$B$2)&amp;")"</f>
@@ -14858,23 +17665,23 @@
       </c>
       <c r="H28" s="6" t="str">
         <f t="shared" ref="H28:H39" si="6">ROUND(N5,$A$2)&amp;" ("&amp;ROUND(O5,$B$2)&amp;")"</f>
-        <v>0,53 (0,06)</v>
+        <v>0,526 (0,063)</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" ref="I28:I39" si="7">ROUND(P5,$A$2)&amp;" ("&amp;ROUND(Q5,$B$2)&amp;")"</f>
-        <v>0,88 (0,07)</v>
+        <v>0,88 (0,065)</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" ref="J28:J39" si="8">ROUND(R5,$A$2)&amp;" ("&amp;ROUND(S5,$B$2)&amp;")"</f>
-        <v>0,08 (0,01)</v>
+        <v>0,079 (0,01)</v>
       </c>
       <c r="K28" s="6" t="str">
         <f t="shared" ref="K28:K39" si="9">ROUND(T5,$A$2)&amp;" ("&amp;ROUND(U5,$B$2)&amp;")"</f>
-        <v>0,16 (0,03)</v>
+        <v>0,156 (0,026)</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" ref="L28:L39" si="10">ROUND(V5,$A$2)&amp;" ("&amp;ROUND(W5,$B$2)&amp;")"</f>
-        <v>0,26 (0,17)</v>
+        <v>0,263 (0,167)</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -14883,47 +17690,47 @@
       </c>
       <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,67 (0,06)</v>
+        <v>0,665 (0,064)</v>
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,67 (0,07)</v>
+        <v>0,675 (0,065)</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,29 (0,24)</v>
+        <v>0,292 (0,243)</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,3 (0,25)</v>
+        <v>0,296 (0,247)</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,954 (0)</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,39 (0,34)</v>
+        <v>0,391 (0,34)</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,72 (0,06)</v>
+        <v>0,724 (0,064)</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,9 (0,09)</v>
+        <v>0,899 (0,089)</v>
       </c>
       <c r="J29" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,09 (0,02)</v>
+        <v>0,091 (0,021)</v>
       </c>
       <c r="K29" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,09 (0,06)</v>
+        <v>0,094 (0,062)</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,65 (0,19)</v>
+        <v>0,651 (0,19)</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -14932,47 +17739,47 @@
       </c>
       <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,22 (0,08)</v>
+        <v>0,217 (0,08)</v>
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,22 (0,08)</v>
+        <v>0,221 (0,082)</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,12 (0,1)</v>
+        <v>0,124 (0,103)</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,13 (0,1)</v>
+        <v>0,126 (0,105)</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,96 (0)</v>
+        <v>0,962 (0)</v>
       </c>
       <c r="G30" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,17 (0,15)</v>
+        <v>0,169 (0,153)</v>
       </c>
       <c r="H30" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,27 (0,08)</v>
+        <v>0,271 (0,08)</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,94 (0,05)</v>
+        <v>0,945 (0,047)</v>
       </c>
       <c r="J30" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,04 (0)</v>
+        <v>0,041 (0,004)</v>
       </c>
       <c r="K30" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,09 (0,03)</v>
+        <v>0,086 (0,032)</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,2 (0,15)</v>
+        <v>0,198 (0,149)</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -14981,47 +17788,47 @@
       </c>
       <c r="B31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,22 (0,04)</v>
+        <v>0,224 (0,036)</v>
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,24 (0,04)</v>
+        <v>0,24 (0,038)</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,13 (0,08)</v>
+        <v>0,132 (0,08)</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,14 (0,09)</v>
+        <v>0,142 (0,086)</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,954 (0)</v>
       </c>
       <c r="G31" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,22 (0,14)</v>
+        <v>0,219 (0,141)</v>
       </c>
       <c r="H31" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,33 (0,04)</v>
+        <v>0,332 (0,036)</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,87 (0,05)</v>
+        <v>0,874 (0,045)</v>
       </c>
       <c r="J31" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,17 (0,01)</v>
+        <v>0,166 (0,007)</v>
       </c>
       <c r="K31" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,17 (0,08)</v>
+        <v>0,167 (0,08)</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,23 (0,14)</v>
+        <v>0,228 (0,138)</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -15030,47 +17837,47 @@
       </c>
       <c r="B32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,36 (0,04)</v>
+        <v>0,356 (0,045)</v>
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,39 (0,05)</v>
+        <v>0,391 (0,049)</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,34 (0,16)</v>
+        <v>0,344 (0,157)</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,38 (0,17)</v>
+        <v>0,379 (0,173)</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,96 (0)</v>
+        <v>0,961 (0)</v>
       </c>
       <c r="G32" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,47 (0,2)</v>
+        <v>0,466 (0,202)</v>
       </c>
       <c r="H32" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,48 (0,04)</v>
+        <v>0,479 (0,045)</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,87 (0,02)</v>
+        <v>0,872 (0,021)</v>
       </c>
       <c r="J32" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,25 (0,02)</v>
+        <v>0,252 (0,018)</v>
       </c>
       <c r="K32" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,38 (0,1)</v>
+        <v>0,38 (0,104)</v>
       </c>
       <c r="L32" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,1 (0,05)</v>
+        <v>0,102 (0,053)</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -15079,47 +17886,47 @@
       </c>
       <c r="B33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,08 (0,03)</v>
+        <v>0,075 (0,026)</v>
       </c>
       <c r="C33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,11 (0,04)</v>
+        <v>0,105 (0,037)</v>
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,04 (0,04)</v>
+        <v>0,037 (0,037)</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,05 (0,05)</v>
+        <v>0,052 (0,052)</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,955 (0,005)</v>
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,08 (0,08)</v>
+        <v>0,079 (0,081)</v>
       </c>
       <c r="H33" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,38 (0,03)</v>
+        <v>0,38 (0,027)</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,72 (0,01)</v>
+        <v>0,718 (0,005)</v>
       </c>
       <c r="J33" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,47 (0,01)</v>
+        <v>0,468 (0,01)</v>
       </c>
       <c r="K33" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,12 (0,12)</v>
+        <v>0,121 (0,119)</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,26 (0,09)</v>
+        <v>0,256 (0,092)</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -15128,47 +17935,47 @@
       </c>
       <c r="B34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,05 (0,01)</v>
+        <v>0,054 (0,011)</v>
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,08 (0,02)</v>
+        <v>0,08 (0,016)</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,14 (0,02)</v>
+        <v>0,141 (0,02)</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,21 (0,03)</v>
+        <v>0,208 (0,03)</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,953 (0,001)</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,65 (0,06)</v>
+        <v>0,647 (0,061)</v>
       </c>
       <c r="H34" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,39 (0,01)</v>
+        <v>0,393 (0,011)</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,59 (0,04)</v>
+        <v>0,589 (0,04)</v>
       </c>
       <c r="J34" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,5 (0)</v>
+        <v>0,502 (0,005)</v>
       </c>
       <c r="K34" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,5 (0,01)</v>
+        <v>0,503 (0,008)</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,29 (0,17)</v>
+        <v>0,295 (0,173)</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -15177,47 +17984,47 @@
       </c>
       <c r="B35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,14 (0,01)</v>
+        <v>0,142 (0,014)</v>
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,17 (0,02)</v>
+        <v>0,166 (0,017)</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,19 (0,07)</v>
+        <v>0,194 (0,067)</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,23 (0,08)</v>
+        <v>0,226 (0,078)</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,952 (0)</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,41 (0,14)</v>
+        <v>0,411 (0,139)</v>
       </c>
       <c r="H35" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,32 (0,01)</v>
+        <v>0,319 (0,014)</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,76 (0,03)</v>
+        <v>0,757 (0,033)</v>
       </c>
       <c r="J35" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,29 (0)</v>
+        <v>0,286 (0,004)</v>
       </c>
       <c r="K35" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,32 (0,05)</v>
+        <v>0,317 (0,051)</v>
       </c>
       <c r="L35" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,22 (0,1)</v>
+        <v>0,217 (0,104)</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -15226,47 +18033,47 @@
       </c>
       <c r="B36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,07 (0,03)</v>
+        <v>0,073 (0,026)</v>
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,09 (0,03)</v>
+        <v>0,095 (0,034)</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,07 (0,07)</v>
+        <v>0,073 (0,075)</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,09 (0,1)</v>
+        <v>0,095 (0,096)</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,96 (0,01)</v>
+        <v>0,96 (0,014)</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,15 (0,18)</v>
+        <v>0,153 (0,182)</v>
       </c>
       <c r="H36" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,32 (0,03)</v>
+        <v>0,321 (0,033)</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,76 (0,03)</v>
+        <v>0,764 (0,031)</v>
       </c>
       <c r="J36" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,39 (0,01)</v>
+        <v>0,39 (0,008)</v>
       </c>
       <c r="K36" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,17 (0,16)</v>
+        <v>0,173 (0,161)</v>
       </c>
       <c r="L36" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,14 (0,11)</v>
+        <v>0,14 (0,114)</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -15275,47 +18082,47 @@
       </c>
       <c r="B37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,03 (0,03)</v>
+        <v>0,034 (0,025)</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,04 (0,03)</v>
+        <v>0,043 (0,032)</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,08 (0,09)</v>
+        <v>0,075 (0,087)</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,09 (0,11)</v>
+        <v>0,095 (0,11)</v>
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,96 (0)</v>
+        <v>0,958 (0)</v>
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,18 (0,24)</v>
+        <v>0,181 (0,238)</v>
       </c>
       <c r="H37" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,26 (0,03)</v>
+        <v>0,264 (0,025)</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,76 (0,05)</v>
+        <v>0,764 (0,055)</v>
       </c>
       <c r="J37" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,35 (0,01)</v>
+        <v>0,348 (0,008)</v>
       </c>
       <c r="K37" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,17 (0,14)</v>
+        <v>0,173 (0,14)</v>
       </c>
       <c r="L37" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,07 (0,03)</v>
+        <v>0,069 (0,03)</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -15324,19 +18131,19 @@
       </c>
       <c r="B38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,2 (0,04)</v>
+        <v>0,199 (0,036)</v>
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,25 (0,05)</v>
+        <v>0,252 (0,046)</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0,24 (0,14)</v>
+        <v>0,242 (0,142)</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0,31 (0,18)</v>
+        <v>0,307 (0,18)</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="4"/>
@@ -15344,27 +18151,27 @@
       </c>
       <c r="G38" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,43 (0,29)</v>
+        <v>0,433 (0,287)</v>
       </c>
       <c r="H38" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,44 (0,04)</v>
+        <v>0,44 (0,036)</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,78 (0,03)</v>
+        <v>0,78 (0,031)</v>
       </c>
       <c r="J38" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,42 (0,02)</v>
+        <v>0,419 (0,016)</v>
       </c>
       <c r="K38" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,39 (0,18)</v>
+        <v>0,393 (0,183)</v>
       </c>
       <c r="L38" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,36 (0,15)</v>
+        <v>0,364 (0,149)</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -15373,47 +18180,47 @@
       </c>
       <c r="B39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,04 (0,02)</v>
+        <v>0,036 (0,017)</v>
       </c>
       <c r="C39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0,05 (0,02)</v>
+        <v>0,049 (0,023)</v>
       </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0 (0,01)</v>
+        <v>0,001 (0,014)</v>
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0 (0,02)</v>
+        <v>0,001 (0,019)</v>
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0,95 (0)</v>
+        <v>0,954 (0)</v>
       </c>
       <c r="G39" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0,03 (0,01)</v>
+        <v>0,026 (0,015)</v>
       </c>
       <c r="H39" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0,33 (0,02)</v>
+        <v>0,326 (0,017)</v>
       </c>
       <c r="I39" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0,72 (0,02)</v>
+        <v>0,72 (0,015)</v>
       </c>
       <c r="J39" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0,43 (0,01)</v>
+        <v>0,432 (0,006)</v>
       </c>
       <c r="K39" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0,05 (0,03)</v>
+        <v>0,046 (0,026)</v>
       </c>
       <c r="L39" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>0,14 (0,11)</v>
+        <v>0,138 (0,11)</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -15422,47 +18229,47 @@
       </c>
       <c r="B40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,11 (0,02)</v>
+        <v>0,106 (0,02)</v>
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" ref="C40:C47" si="11">ROUND(D17,$A$2)&amp;" ("&amp;ROUND(E17,$B$2)&amp;")"</f>
-        <v>0,13 (0,02)</v>
+        <v>0,128 (0,025)</v>
       </c>
       <c r="D40" s="6" t="str">
         <f t="shared" ref="D40:D47" si="12">ROUND(F17,$A$2)&amp;" ("&amp;ROUND(G17,$B$2)&amp;")"</f>
-        <v>0,06 (0,07)</v>
+        <v>0,064 (0,068)</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" ref="E40:E47" si="13">ROUND(H17,$A$2)&amp;" ("&amp;ROUND(I17,$B$2)&amp;")"</f>
-        <v>0,08 (0,08)</v>
+        <v>0,078 (0,082)</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" ref="F40:F47" si="14">ROUND(J17,$A$2)&amp;" ("&amp;ROUND(K17,$B$2)&amp;")"</f>
-        <v>0,95 (0)</v>
+        <v>0,953 (0,002)</v>
       </c>
       <c r="G40" s="6" t="str">
         <f t="shared" ref="G40:G47" si="15">ROUND(L17,$A$2)&amp;" ("&amp;ROUND(M17,$B$2)&amp;")"</f>
-        <v>0,11 (0,11)</v>
+        <v>0,113 (0,111)</v>
       </c>
       <c r="H40" s="6" t="str">
         <f t="shared" ref="H40:H47" si="16">ROUND(N17,$A$2)&amp;" ("&amp;ROUND(O17,$B$2)&amp;")"</f>
-        <v>0,31 (0,02)</v>
+        <v>0,311 (0,02)</v>
       </c>
       <c r="I40" s="6" t="str">
         <f t="shared" ref="I40:I47" si="17">ROUND(P17,$A$2)&amp;" ("&amp;ROUND(Q17,$B$2)&amp;")"</f>
-        <v>0,82 (0,01)</v>
+        <v>0,816 (0,009)</v>
       </c>
       <c r="J40" s="6" t="str">
         <f t="shared" ref="J40:J47" si="18">ROUND(R17,$A$2)&amp;" ("&amp;ROUND(S17,$B$2)&amp;")"</f>
-        <v>0,33 (0,01)</v>
+        <v>0,326 (0,006)</v>
       </c>
       <c r="K40" s="6" t="str">
         <f t="shared" ref="K40:K47" si="19">ROUND(T17,$A$2)&amp;" ("&amp;ROUND(U17,$B$2)&amp;")"</f>
-        <v>0,15 (0,13)</v>
+        <v>0,151 (0,133)</v>
       </c>
       <c r="L40" s="6" t="str">
         <f t="shared" ref="L40:L47" si="20">ROUND(V17,$A$2)&amp;" ("&amp;ROUND(W17,$B$2)&amp;")"</f>
-        <v>0,06 (0,03)</v>
+        <v>0,059 (0,03)</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -15471,47 +18278,47 @@
       </c>
       <c r="B41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,15 (0,04)</v>
+        <v>0,149 (0,036)</v>
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,16 (0,04)</v>
+        <v>0,157 (0,038)</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,14 (0,02)</v>
+        <v>0,136 (0,018)</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,14 (0,02)</v>
+        <v>0,143 (0,019)</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,95 (0)</v>
+        <v>0,952 (0)</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,18 (0,03)</v>
+        <v>0,182 (0,032)</v>
       </c>
       <c r="H41" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,24 (0,04)</v>
+        <v>0,241 (0,036)</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,92 (0,02)</v>
+        <v>0,924 (0,018)</v>
       </c>
       <c r="J41" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,11 (0)</v>
+        <v>0,107 (0,005)</v>
       </c>
       <c r="K41" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,19 (0,02)</v>
+        <v>0,188 (0,018)</v>
       </c>
       <c r="L41" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,14 (0,06)</v>
+        <v>0,141 (0,063)</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -15520,47 +18327,47 @@
       </c>
       <c r="B42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,19 (0,04)</v>
+        <v>0,191 (0,041)</v>
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,28 (0,06)</v>
+        <v>0,281 (0,06)</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0 (0)</v>
+        <v>-0,004 (0,003)</v>
       </c>
       <c r="E42" s="6" t="str">
         <f>ROUND(H19,$A$2)&amp;" ("&amp;ROUND(I19,$B$2)&amp;")"</f>
-        <v>-0,01 (0)</v>
+        <v>-0,006 (0,004)</v>
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,95 (0)</v>
+        <v>0,953 (0,002)</v>
       </c>
       <c r="G42" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,02 (0,02)</v>
+        <v>0,023 (0,019)</v>
       </c>
       <c r="H42" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,53 (0,04)</v>
+        <v>0,528 (0,041)</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,67 (0,01)</v>
+        <v>0,667 (0,009)</v>
       </c>
       <c r="J42" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,57 (0,02)</v>
+        <v>0,565 (0,02)</v>
       </c>
       <c r="K42" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,04 (0,03)</v>
+        <v>0,04 (0,033)</v>
       </c>
       <c r="L42" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,16 (0,03)</v>
+        <v>0,161 (0,034)</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -15569,47 +18376,47 @@
       </c>
       <c r="B43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,19 (0,04)</v>
+        <v>0,195 (0,038)</v>
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,25 (0,05)</v>
+        <v>0,251 (0,05)</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,31 (0,02)</v>
+        <v>0,307 (0,018)</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,4 (0,02)</v>
+        <v>0,397 (0,023)</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,96 (0,01)</v>
+        <v>0,96 (0,006)</v>
       </c>
       <c r="G43" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,57 (0,08)</v>
+        <v>0,574 (0,082)</v>
       </c>
       <c r="H43" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,44 (0,04)</v>
+        <v>0,442 (0,042)</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,77 (0,04)</v>
+        <v>0,767 (0,039)</v>
       </c>
       <c r="J43" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,44 (0,02)</v>
+        <v>0,437 (0,016)</v>
       </c>
       <c r="K43" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,53 (0,02)</v>
+        <v>0,527 (0,019)</v>
       </c>
       <c r="L43" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,21 (0,11)</v>
+        <v>0,215 (0,11)</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -15618,47 +18425,47 @@
       </c>
       <c r="B44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,7 (0,03)</v>
+        <v>0,704 (0,034)</v>
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,71 (0,03)</v>
+        <v>0,713 (0,034)</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,53 (0,14)</v>
+        <v>0,53 (0,136)</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,54 (0,14)</v>
+        <v>0,538 (0,138)</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,95 (0)</v>
+        <v>0,952 (0)</v>
       </c>
       <c r="G44" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,65 (0,17)</v>
+        <v>0,649 (0,171)</v>
       </c>
       <c r="H44" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,76 (0,03)</v>
+        <v>0,764 (0,034)</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,89 (0,03)</v>
+        <v>0,886 (0,034)</v>
       </c>
       <c r="J44" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,1 (0,01)</v>
+        <v>0,099 (0,014)</v>
       </c>
       <c r="K44" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,14 (0,02)</v>
+        <v>0,136 (0,022)</v>
       </c>
       <c r="L44" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,58 (0,2)</v>
+        <v>0,583 (0,202)</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -15667,19 +18474,19 @@
       </c>
       <c r="B45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,28 (0,01)</v>
+        <v>0,283 (0,015)</v>
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,34 (0,02)</v>
+        <v>0,341 (0,018)</v>
       </c>
       <c r="D45" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,15 (0,09)</v>
+        <v>0,151 (0,088)</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,18 (0,11)</v>
+        <v>0,182 (0,107)</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="14"/>
@@ -15687,27 +18494,27 @@
       </c>
       <c r="G45" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,25 (0,16)</v>
+        <v>0,254 (0,158)</v>
       </c>
       <c r="H45" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,49 (0,01)</v>
+        <v>0,487 (0,015)</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,81 (0,02)</v>
+        <v>0,813 (0,018)</v>
       </c>
       <c r="J45" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,39 (0,01)</v>
+        <v>0,388 (0,007)</v>
       </c>
       <c r="K45" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,28 (0,15)</v>
+        <v>0,282 (0,149)</v>
       </c>
       <c r="L45" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,29 (0,15)</v>
+        <v>0,285 (0,148)</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -15716,100 +18523,4081 @@
       </c>
       <c r="B46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,43 (0,12)</v>
+        <v>0,434 (0,122)</v>
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,44 (0,12)</v>
+        <v>0,44 (0,124)</v>
       </c>
       <c r="D46" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,33 (0,09)</v>
+        <v>0,332 (0,085)</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,34 (0,09)</v>
+        <v>0,337 (0,086)</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,95 (0)</v>
+        <v>0,951 (0)</v>
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,36 (0,09)</v>
+        <v>0,36 (0,091)</v>
       </c>
       <c r="H46" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,5 (0,12)</v>
+        <v>0,496 (0,122)</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,97 (0)</v>
+        <v>0,967 (0,004)</v>
       </c>
       <c r="J46" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,06 (0,01)</v>
+        <v>0,058 (0,011)</v>
       </c>
       <c r="K46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,25 (0,03)</v>
+        <v>0,253 (0,034)</v>
       </c>
       <c r="L46" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,23 (0,13)</v>
+        <v>0,232 (0,129)</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" ref="A28:A47" si="21">A24</f>
+        <f t="shared" ref="A47" si="21">A24</f>
         <v>Total Geral</v>
       </c>
       <c r="B47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0,27 (0,24)</v>
+        <v>0,274 (0,239)</v>
       </c>
       <c r="C47" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>0,3 (0,24)</v>
+        <v>0,299 (0,235)</v>
       </c>
       <c r="D47" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>0,22 (0,22)</v>
+        <v>0,218 (0,218)</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0,24 (0,22)</v>
+        <v>0,24 (0,224)</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>0,95 (0,01)</v>
+        <v>0,954 (0,005)</v>
       </c>
       <c r="G47" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0,34 (0,28)</v>
+        <v>0,336 (0,281)</v>
       </c>
       <c r="H47" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>0,45 (0,18)</v>
+        <v>0,449 (0,183)</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>0,82 (0,11)</v>
+        <v>0,817 (0,105)</v>
       </c>
       <c r="J47" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>0,28 (0,16)</v>
+        <v>0,284 (0,163)</v>
       </c>
       <c r="K47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>0,22 (0,16)</v>
+        <v>0,22 (0,165)</v>
       </c>
       <c r="L47" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>0,27 (0,24)</v>
-      </c>
+        <v>0,274 (0,237)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" t="s">
+        <v>483</v>
+      </c>
+      <c r="E50" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H50" t="s">
+        <v>304</v>
+      </c>
+      <c r="I50" t="s">
+        <v>502</v>
+      </c>
+      <c r="J50" t="s">
+        <v>305</v>
+      </c>
+      <c r="K50" t="s">
+        <v>306</v>
+      </c>
+      <c r="L50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" t="s">
+        <v>484</v>
+      </c>
+      <c r="E51" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" t="s">
+        <v>492</v>
+      </c>
+      <c r="G51" t="s">
+        <v>495</v>
+      </c>
+      <c r="H51" t="s">
+        <v>311</v>
+      </c>
+      <c r="I51" t="s">
+        <v>503</v>
+      </c>
+      <c r="J51" t="s">
+        <v>507</v>
+      </c>
+      <c r="K51" t="s">
+        <v>312</v>
+      </c>
+      <c r="L51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" t="s">
+        <v>316</v>
+      </c>
+      <c r="E52" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" t="s">
+        <v>496</v>
+      </c>
+      <c r="H52" t="s">
+        <v>318</v>
+      </c>
+      <c r="I52" t="s">
+        <v>319</v>
+      </c>
+      <c r="J52" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" t="s">
+        <v>321</v>
+      </c>
+      <c r="L52" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" t="s">
+        <v>323</v>
+      </c>
+      <c r="E53" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" t="s">
+        <v>498</v>
+      </c>
+      <c r="I53" t="s">
+        <v>327</v>
+      </c>
+      <c r="J53" t="s">
+        <v>328</v>
+      </c>
+      <c r="K53" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D54" t="s">
+        <v>485</v>
+      </c>
+      <c r="E54" t="s">
+        <v>332</v>
+      </c>
+      <c r="F54" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" t="s">
+        <v>333</v>
+      </c>
+      <c r="H54" t="s">
+        <v>334</v>
+      </c>
+      <c r="I54" t="s">
+        <v>335</v>
+      </c>
+      <c r="J54" t="s">
+        <v>336</v>
+      </c>
+      <c r="K54" t="s">
+        <v>511</v>
+      </c>
+      <c r="L54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G55" t="s">
+        <v>343</v>
+      </c>
+      <c r="H55" t="s">
+        <v>344</v>
+      </c>
+      <c r="I55" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" t="s">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s">
+        <v>512</v>
+      </c>
+      <c r="L55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D56" t="s">
+        <v>350</v>
+      </c>
+      <c r="E56" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" t="s">
+        <v>353</v>
+      </c>
+      <c r="H56" t="s">
+        <v>499</v>
+      </c>
+      <c r="I56" t="s">
+        <v>354</v>
+      </c>
+      <c r="J56" t="s">
+        <v>508</v>
+      </c>
+      <c r="K56" t="s">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D57" t="s">
+        <v>486</v>
+      </c>
+      <c r="E57" t="s">
+        <v>488</v>
+      </c>
+      <c r="F57" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" t="s">
+        <v>360</v>
+      </c>
+      <c r="I57" t="s">
+        <v>504</v>
+      </c>
+      <c r="J57" t="s">
+        <v>361</v>
+      </c>
+      <c r="K57" t="s">
+        <v>362</v>
+      </c>
+      <c r="L57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>369</v>
+      </c>
+      <c r="H58" t="s">
+        <v>370</v>
+      </c>
+      <c r="I58" t="s">
+        <v>371</v>
+      </c>
+      <c r="J58" t="s">
+        <v>372</v>
+      </c>
+      <c r="K58" t="s">
+        <v>373</v>
+      </c>
+      <c r="L58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" t="s">
+        <v>377</v>
+      </c>
+      <c r="E59" t="s">
+        <v>378</v>
+      </c>
+      <c r="F59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G59" t="s">
+        <v>379</v>
+      </c>
+      <c r="H59" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s">
+        <v>382</v>
+      </c>
+      <c r="L59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" t="s">
+        <v>489</v>
+      </c>
+      <c r="F60" t="s">
+        <v>386</v>
+      </c>
+      <c r="G60" t="s">
+        <v>387</v>
+      </c>
+      <c r="H60" t="s">
+        <v>388</v>
+      </c>
+      <c r="I60" t="s">
+        <v>389</v>
+      </c>
+      <c r="J60" t="s">
+        <v>390</v>
+      </c>
+      <c r="K60" t="s">
+        <v>513</v>
+      </c>
+      <c r="L60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" t="s">
+        <v>490</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>394</v>
+      </c>
+      <c r="H61" t="s">
+        <v>500</v>
+      </c>
+      <c r="I61" t="s">
+        <v>505</v>
+      </c>
+      <c r="J61" t="s">
+        <v>395</v>
+      </c>
+      <c r="K61" t="s">
+        <v>396</v>
+      </c>
+      <c r="L61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D62" t="s">
+        <v>400</v>
+      </c>
+      <c r="E62" t="s">
+        <v>401</v>
+      </c>
+      <c r="F62" t="s">
+        <v>302</v>
+      </c>
+      <c r="G62" t="s">
+        <v>402</v>
+      </c>
+      <c r="H62" t="s">
+        <v>403</v>
+      </c>
+      <c r="I62" t="s">
+        <v>506</v>
+      </c>
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D63" t="s">
+        <v>407</v>
+      </c>
+      <c r="E63" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" t="s">
+        <v>410</v>
+      </c>
+      <c r="H63" t="s">
+        <v>501</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D64" t="s">
+        <v>416</v>
+      </c>
+      <c r="E64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F64" t="s">
+        <v>368</v>
+      </c>
+      <c r="G64" t="s">
+        <v>418</v>
+      </c>
+      <c r="H64" t="s">
+        <v>419</v>
+      </c>
+      <c r="I64" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>422</v>
+      </c>
+      <c r="L64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D65" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" t="s">
+        <v>427</v>
+      </c>
+      <c r="H65" t="s">
+        <v>428</v>
+      </c>
+      <c r="I65" t="s">
+        <v>429</v>
+      </c>
+      <c r="J65" t="s">
+        <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>514</v>
+      </c>
+      <c r="L65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D66" t="s">
+        <v>432</v>
+      </c>
+      <c r="E66" t="s">
+        <v>433</v>
+      </c>
+      <c r="F66" t="s">
+        <v>494</v>
+      </c>
+      <c r="G66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H66" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" t="s">
+        <v>436</v>
+      </c>
+      <c r="J66" t="s">
+        <v>437</v>
+      </c>
+      <c r="K66" t="s">
+        <v>438</v>
+      </c>
+      <c r="L66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D67" t="s">
+        <v>487</v>
+      </c>
+      <c r="E67" t="s">
+        <v>441</v>
+      </c>
+      <c r="F67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G67" t="s">
+        <v>442</v>
+      </c>
+      <c r="H67" t="s">
+        <v>443</v>
+      </c>
+      <c r="I67" t="s">
+        <v>444</v>
+      </c>
+      <c r="J67" t="s">
+        <v>445</v>
+      </c>
+      <c r="K67" t="s">
+        <v>446</v>
+      </c>
+      <c r="L67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D68" t="s">
+        <v>450</v>
+      </c>
+      <c r="E68" t="s">
+        <v>451</v>
+      </c>
+      <c r="F68" t="s">
+        <v>492</v>
+      </c>
+      <c r="G68" t="s">
+        <v>452</v>
+      </c>
+      <c r="H68" t="s">
+        <v>453</v>
+      </c>
+      <c r="I68" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" t="s">
+        <v>455</v>
+      </c>
+      <c r="K68" t="s">
+        <v>456</v>
+      </c>
+      <c r="L68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D69" t="s">
+        <v>459</v>
+      </c>
+      <c r="E69" t="s">
+        <v>460</v>
+      </c>
+      <c r="F69" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" t="s">
+        <v>497</v>
+      </c>
+      <c r="H69" t="s">
+        <v>462</v>
+      </c>
+      <c r="I69" t="s">
+        <v>463</v>
+      </c>
+      <c r="J69" t="s">
+        <v>464</v>
+      </c>
+      <c r="K69" t="s">
+        <v>465</v>
+      </c>
+      <c r="L69" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" t="s">
+        <v>469</v>
+      </c>
+      <c r="E70" t="s">
+        <v>491</v>
+      </c>
+      <c r="F70" t="s">
+        <v>470</v>
+      </c>
+      <c r="G70" t="s">
+        <v>471</v>
+      </c>
+      <c r="H70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I70" t="s">
+        <v>473</v>
+      </c>
+      <c r="J70" t="s">
+        <v>474</v>
+      </c>
+      <c r="K70" t="s">
+        <v>515</v>
+      </c>
+      <c r="L70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F52DB93-B88D-4C57-8DD0-943314640CAF}">
+  <dimension ref="A1:AQ72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="20" max="30" width="10.5703125" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="33" max="43" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>523</v>
+      </c>
+      <c r="S1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>2214</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>2047</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="V3" t="s">
+        <v>485</v>
+      </c>
+      <c r="W3" t="s">
+        <v>332</v>
+      </c>
+      <c r="X3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>781</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>701</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="V4" t="s">
+        <v>340</v>
+      </c>
+      <c r="W4" t="s">
+        <v>341</v>
+      </c>
+      <c r="X4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>536</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>644</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>537</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>277</v>
+      </c>
+      <c r="C5">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="V5" t="s">
+        <v>350</v>
+      </c>
+      <c r="W5" t="s">
+        <v>351</v>
+      </c>
+      <c r="X5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>547</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>999</v>
+      </c>
+      <c r="C6">
+        <v>329</v>
+      </c>
+      <c r="D6">
+        <v>670</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" t="s">
+        <v>245</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="S6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="V6" t="s">
+        <v>486</v>
+      </c>
+      <c r="W6" t="s">
+        <v>488</v>
+      </c>
+      <c r="X6" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AM6" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AO6" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>1819</v>
+      </c>
+      <c r="C7">
+        <v>266</v>
+      </c>
+      <c r="D7">
+        <v>1553</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="S7" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="V7" t="s">
+        <v>366</v>
+      </c>
+      <c r="W7" t="s">
+        <v>367</v>
+      </c>
+      <c r="X7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>715</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>1069</v>
+      </c>
+      <c r="C8">
+        <v>246</v>
+      </c>
+      <c r="D8">
+        <v>823</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" t="s">
+        <v>247</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="S8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="V8" t="s">
+        <v>487</v>
+      </c>
+      <c r="W8" t="s">
+        <v>441</v>
+      </c>
+      <c r="X8" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>337</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>260</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="V9" t="s">
+        <v>377</v>
+      </c>
+      <c r="W9" t="s">
+        <v>378</v>
+      </c>
+      <c r="X9" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>348</v>
+      </c>
+      <c r="C10">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>267</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" t="s">
+        <v>232</v>
+      </c>
+      <c r="O10" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="V10" t="s">
+        <v>385</v>
+      </c>
+      <c r="W10" t="s">
+        <v>489</v>
+      </c>
+      <c r="X10" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>1717</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>1676</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" t="s">
+        <v>214</v>
+      </c>
+      <c r="N11" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="S11" t="s">
+        <v>713</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="V11" t="s">
+        <v>483</v>
+      </c>
+      <c r="W11" t="s">
+        <v>301</v>
+      </c>
+      <c r="X11" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>462</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>328</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="V12" t="s">
+        <v>450</v>
+      </c>
+      <c r="W12" t="s">
+        <v>451</v>
+      </c>
+      <c r="X12" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>456</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>1171</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+      <c r="D13">
+        <v>951</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" t="s">
+        <v>235</v>
+      </c>
+      <c r="O13" t="s">
+        <v>237</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="V13" t="s">
+        <v>393</v>
+      </c>
+      <c r="W13" t="s">
+        <v>490</v>
+      </c>
+      <c r="X13" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>716</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>1318</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>1292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>236</v>
+      </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="S14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="V14" t="s">
+        <v>484</v>
+      </c>
+      <c r="W14" t="s">
+        <v>310</v>
+      </c>
+      <c r="X14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="AG14" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="AI14" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ14" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL14" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="AM14" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="AN14" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP14" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ14" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2659</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>2509</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" t="s">
+        <v>217</v>
+      </c>
+      <c r="N15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O15" t="s">
+        <v>251</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="S15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="V15" t="s">
+        <v>400</v>
+      </c>
+      <c r="W15" t="s">
+        <v>401</v>
+      </c>
+      <c r="X15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>573</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>373</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="V16" t="s">
+        <v>316</v>
+      </c>
+      <c r="W16" t="s">
+        <v>317</v>
+      </c>
+      <c r="X16" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>271</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>206</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="V17" t="s">
+        <v>407</v>
+      </c>
+      <c r="W17" t="s">
+        <v>408</v>
+      </c>
+      <c r="X17" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16015</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2169</v>
+      </c>
+      <c r="D18" s="9">
+        <v>13846</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="S18" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="V18" t="s">
+        <v>323</v>
+      </c>
+      <c r="W18" t="s">
+        <v>324</v>
+      </c>
+      <c r="X18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>718</v>
+      </c>
+      <c r="B19">
+        <v>182</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>172</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="V19" t="s">
+        <v>416</v>
+      </c>
+      <c r="W19" t="s">
+        <v>417</v>
+      </c>
+      <c r="X19" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>719</v>
+      </c>
+      <c r="B20">
+        <v>180</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>713</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="s">
+        <v>223</v>
+      </c>
+      <c r="N20" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" t="s">
+        <v>258</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>720</v>
+      </c>
+      <c r="B21">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s">
+        <v>224</v>
+      </c>
+      <c r="N21" t="s">
+        <v>243</v>
+      </c>
+      <c r="O21" t="s">
+        <v>259</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="S21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="V21" t="s">
+        <v>425</v>
+      </c>
+      <c r="W21" t="s">
+        <v>426</v>
+      </c>
+      <c r="X21" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>514</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>714</v>
+      </c>
+      <c r="B22">
+        <v>228</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" t="s">
+        <v>241</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>721</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="s">
+        <v>222</v>
+      </c>
+      <c r="N23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" t="s">
+        <v>257</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>722</v>
+      </c>
+      <c r="B24">
+        <v>150</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>133</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>723</v>
+      </c>
+      <c r="B25">
+        <v>291</v>
+      </c>
+      <c r="C25">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>214</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>724</v>
+      </c>
+      <c r="B26">
+        <v>321</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>725</v>
+      </c>
+      <c r="B27">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>726</v>
+      </c>
+      <c r="B28">
+        <v>281</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>727</v>
+      </c>
+      <c r="B29">
+        <v>329</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B30">
+        <v>376</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>716</v>
+      </c>
+      <c r="B31">
+        <v>311</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>717</v>
+      </c>
+      <c r="B32">
+        <v>728</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3588</v>
+      </c>
+      <c r="C33" s="9">
+        <v>247</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>7093</v>
+      </c>
+      <c r="C34">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>713</v>
+      </c>
+      <c r="B35">
+        <v>3870</v>
+      </c>
+      <c r="C35">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>29202</v>
+      </c>
+      <c r="C36">
+        <v>5009</v>
+      </c>
+      <c r="D36">
+        <v>24193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>5950</v>
+      </c>
+      <c r="C37">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>46147</v>
+      </c>
+      <c r="C38">
+        <v>606</v>
+      </c>
+      <c r="D38">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B39" s="9">
+        <v>92262</v>
+      </c>
+      <c r="C39" s="9">
+        <v>5861</v>
+      </c>
+      <c r="D39" s="9">
+        <v>86401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>729</v>
+      </c>
+      <c r="B40">
+        <v>2358</v>
+      </c>
+      <c r="C40">
+        <v>161</v>
+      </c>
+      <c r="D40">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>676</v>
+      </c>
+      <c r="B41">
+        <v>1599</v>
+      </c>
+      <c r="C41">
+        <v>251</v>
+      </c>
+      <c r="D41">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>677</v>
+      </c>
+      <c r="B42">
+        <v>5609</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>678</v>
+      </c>
+      <c r="B43">
+        <v>8911</v>
+      </c>
+      <c r="C43">
+        <v>104</v>
+      </c>
+      <c r="D43">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>679</v>
+      </c>
+      <c r="B44">
+        <v>1700</v>
+      </c>
+      <c r="C44">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>680</v>
+      </c>
+      <c r="B45">
+        <v>2305</v>
+      </c>
+      <c r="C45">
+        <v>114</v>
+      </c>
+      <c r="D45">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>681</v>
+      </c>
+      <c r="B46">
+        <v>1850</v>
+      </c>
+      <c r="C46">
+        <v>383</v>
+      </c>
+      <c r="D46">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>682</v>
+      </c>
+      <c r="B47">
+        <v>6000</v>
+      </c>
+      <c r="C47">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>683</v>
+      </c>
+      <c r="B48">
+        <v>5425</v>
+      </c>
+      <c r="C48">
+        <v>359</v>
+      </c>
+      <c r="D48">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>684</v>
+      </c>
+      <c r="B49">
+        <v>10515</v>
+      </c>
+      <c r="C49">
+        <v>770</v>
+      </c>
+      <c r="D49">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>685</v>
+      </c>
+      <c r="B50">
+        <v>7002</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>711</v>
+      </c>
+      <c r="B51">
+        <v>4212</v>
+      </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B52" s="9">
+        <v>57486</v>
+      </c>
+      <c r="C52" s="9">
+        <v>2327</v>
+      </c>
+      <c r="D52" s="9">
+        <v>55159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>688</v>
+      </c>
+      <c r="B53">
+        <v>674</v>
+      </c>
+      <c r="C53">
+        <v>292</v>
+      </c>
+      <c r="D53">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>731</v>
+      </c>
+      <c r="B54">
+        <v>147</v>
+      </c>
+      <c r="C54">
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>690</v>
+      </c>
+      <c r="B55">
+        <v>224</v>
+      </c>
+      <c r="C55">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>730</v>
+      </c>
+      <c r="B56">
+        <v>95</v>
+      </c>
+      <c r="C56">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1140</v>
+      </c>
+      <c r="C57" s="9">
+        <v>491</v>
+      </c>
+      <c r="D57" s="9">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>692</v>
+      </c>
+      <c r="B58">
+        <v>832</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>693</v>
+      </c>
+      <c r="B59">
+        <v>209</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>694</v>
+      </c>
+      <c r="B60">
+        <v>418</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>695</v>
+      </c>
+      <c r="B61">
+        <v>416</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>696</v>
+      </c>
+      <c r="B62">
+        <v>414</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>697</v>
+      </c>
+      <c r="B63">
+        <v>412</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>732</v>
+      </c>
+      <c r="B64">
+        <v>413</v>
+      </c>
+      <c r="C64">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>699</v>
+      </c>
+      <c r="B65">
+        <v>413</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>733</v>
+      </c>
+      <c r="B66">
+        <v>206</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>701</v>
+      </c>
+      <c r="B67">
+        <v>623</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>702</v>
+      </c>
+      <c r="B68">
+        <v>209</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>703</v>
+      </c>
+      <c r="B69">
+        <v>1675</v>
+      </c>
+      <c r="C69">
+        <v>75</v>
+      </c>
+      <c r="D69">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>704</v>
+      </c>
+      <c r="B70">
+        <v>1043</v>
+      </c>
+      <c r="C70">
+        <v>43</v>
+      </c>
+      <c r="D70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>705</v>
+      </c>
+      <c r="B71">
+        <v>209</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B72" s="9">
+        <v>7492</v>
+      </c>
+      <c r="C72" s="9">
+        <v>292</v>
+      </c>
+      <c r="D72" s="9">
+        <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AF3:AQ14">
+    <sortCondition ref="AF3:AF14"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
